--- a/public/DownloadExcels/Productos.xlsx
+++ b/public/DownloadExcels/Productos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Definitivo\ecopFront\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1646E70-0F3E-42CC-9C8F-C6D1B5FB8634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D39ABA6-306D-48F7-A6BB-266A397909D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,11 +301,6 @@
 Ej: 20</t>
   </si>
   <si>
-    <t xml:space="preserve">Si respondiste que "SI" viene empacado,  elige el tipo de empaaue de la lista desplegable. Ej: Biodegradable
- Si se respondiste que "No"  viene empacado, dejar en blanco
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -398,6 +393,11 @@
 15. En las columnas D, F, I, K y L, SELECCIONA LA RESPUESTA DE LA LISTA DESPLEGABLE.
 16. En las columnas C, E, y M, ESCRIBE SOLO EL NÚMERO. </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Si respondiste que "SI" viene empacado,  elige el tipo de empaque de la lista desplegable. Ej: Biodegradable
+ Si se respondiste que "No"  viene empacado, dejar en blanco
+</t>
   </si>
 </sst>
 </file>
@@ -806,6 +806,12 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -832,12 +838,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:X899"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1130,21 +1130,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -1158,21 +1158,21 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1186,21 +1186,21 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="273.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
+      <c r="A3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1289,7 +1289,7 @@
         <v>83</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" s="35" t="s">
         <v>74</v>
@@ -1322,9 +1322,9 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="56"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="55"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
@@ -1350,9 +1350,9 @@
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="56"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="55"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
@@ -1378,9 +1378,9 @@
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="56"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="55"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
@@ -1406,9 +1406,9 @@
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="56"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="55"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
@@ -1434,9 +1434,9 @@
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="56"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="55"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
@@ -1462,9 +1462,9 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="56"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="55"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
@@ -1490,9 +1490,9 @@
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="56"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="55"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
@@ -1518,9 +1518,9 @@
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="55"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
@@ -1546,9 +1546,9 @@
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="56"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="55"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
@@ -1574,9 +1574,9 @@
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="56"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="55"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
@@ -1602,9 +1602,9 @@
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="56"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="55"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="6"/>
@@ -1630,9 +1630,9 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="56"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="55"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
@@ -1658,9 +1658,9 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="56"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="55"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
@@ -1686,9 +1686,9 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="56"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="55"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="6"/>
@@ -1714,9 +1714,9 @@
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="56"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="55"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="6"/>
@@ -1742,9 +1742,9 @@
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="56"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="55"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="6"/>
@@ -1770,9 +1770,9 @@
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="55"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="6"/>
@@ -1798,9 +1798,9 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="56"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="55"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="6"/>
@@ -1826,9 +1826,9 @@
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="56"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="55"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="6"/>
@@ -1854,9 +1854,9 @@
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="56"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="55"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
@@ -1882,9 +1882,9 @@
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="56"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="55"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="6"/>
@@ -1910,9 +1910,9 @@
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="56"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="55"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
@@ -1938,9 +1938,9 @@
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="56"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="55"/>
+      <c r="G28" s="46"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="6"/>
@@ -1966,9 +1966,9 @@
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="56"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="55"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="6"/>
@@ -1994,9 +1994,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="56"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="55"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="6"/>
@@ -2022,9 +2022,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="56"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="55"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
@@ -2050,9 +2050,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="56"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="55"/>
+      <c r="G32" s="46"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="6"/>
@@ -2078,9 +2078,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="56"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="55"/>
+      <c r="G33" s="46"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
@@ -2106,9 +2106,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="56"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="55"/>
+      <c r="G34" s="46"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="6"/>
@@ -2134,9 +2134,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="56"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="55"/>
+      <c r="G35" s="46"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="6"/>
@@ -2162,9 +2162,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="56"/>
+      <c r="E36" s="47"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="55"/>
+      <c r="G36" s="46"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="6"/>
@@ -2190,9 +2190,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="56"/>
+      <c r="E37" s="47"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="55"/>
+      <c r="G37" s="46"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
@@ -2218,9 +2218,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="56"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="55"/>
+      <c r="G38" s="46"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="6"/>
@@ -2246,9 +2246,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="56"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="55"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="6"/>
@@ -2274,9 +2274,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="56"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="55"/>
+      <c r="G40" s="46"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="6"/>
@@ -2302,9 +2302,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="56"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="55"/>
+      <c r="G41" s="46"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="6"/>
@@ -2330,9 +2330,9 @@
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="56"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="55"/>
+      <c r="G42" s="46"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="6"/>
@@ -2358,9 +2358,9 @@
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="56"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="55"/>
+      <c r="G43" s="46"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="6"/>
@@ -2386,9 +2386,9 @@
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="56"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="55"/>
+      <c r="G44" s="46"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
@@ -2414,9 +2414,9 @@
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="56"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="55"/>
+      <c r="G45" s="46"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="6"/>
@@ -2442,9 +2442,9 @@
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="56"/>
+      <c r="E46" s="47"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="55"/>
+      <c r="G46" s="46"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6"/>
@@ -2470,9 +2470,9 @@
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="56"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="55"/>
+      <c r="G47" s="46"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6"/>
@@ -2498,9 +2498,9 @@
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="56"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="55"/>
+      <c r="G48" s="46"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6"/>
@@ -2526,9 +2526,9 @@
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="56"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="55"/>
+      <c r="G49" s="46"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6"/>
@@ -2554,9 +2554,9 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="56"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="55"/>
+      <c r="G50" s="46"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="6"/>
@@ -2582,9 +2582,9 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="56"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="55"/>
+      <c r="G51" s="46"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="6"/>
@@ -2610,9 +2610,9 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="56"/>
+      <c r="E52" s="47"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="55"/>
+      <c r="G52" s="46"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6"/>
@@ -2638,9 +2638,9 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="56"/>
+      <c r="E53" s="47"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="55"/>
+      <c r="G53" s="46"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="6"/>
@@ -2666,9 +2666,9 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="56"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="55"/>
+      <c r="G54" s="46"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6"/>
@@ -2694,9 +2694,9 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="56"/>
+      <c r="E55" s="47"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="55"/>
+      <c r="G55" s="46"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6"/>
@@ -2722,9 +2722,9 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="56"/>
+      <c r="E56" s="47"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="55"/>
+      <c r="G56" s="46"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
@@ -2750,9 +2750,9 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="56"/>
+      <c r="E57" s="47"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="55"/>
+      <c r="G57" s="46"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="6"/>
@@ -2778,9 +2778,9 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="56"/>
+      <c r="E58" s="47"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="55"/>
+      <c r="G58" s="46"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="6"/>
@@ -2806,9 +2806,9 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="56"/>
+      <c r="E59" s="47"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="55"/>
+      <c r="G59" s="46"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="6"/>
@@ -2834,9 +2834,9 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="56"/>
+      <c r="E60" s="47"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="55"/>
+      <c r="G60" s="46"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="6"/>
@@ -2862,9 +2862,9 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="56"/>
+      <c r="E61" s="47"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="55"/>
+      <c r="G61" s="46"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="6"/>
@@ -2890,9 +2890,9 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="56"/>
+      <c r="E62" s="47"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="55"/>
+      <c r="G62" s="46"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="6"/>
@@ -2918,9 +2918,9 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="56"/>
+      <c r="E63" s="47"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="55"/>
+      <c r="G63" s="46"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
@@ -2946,9 +2946,9 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="56"/>
+      <c r="E64" s="47"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="55"/>
+      <c r="G64" s="46"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6"/>
@@ -2974,9 +2974,9 @@
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="56"/>
+      <c r="E65" s="47"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="55"/>
+      <c r="G65" s="46"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="6"/>
@@ -3002,9 +3002,9 @@
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="56"/>
+      <c r="E66" s="47"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="55"/>
+      <c r="G66" s="46"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="6"/>
@@ -3030,9 +3030,9 @@
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="56"/>
+      <c r="E67" s="47"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="55"/>
+      <c r="G67" s="46"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6"/>
@@ -3058,9 +3058,9 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="56"/>
+      <c r="E68" s="47"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="55"/>
+      <c r="G68" s="46"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6"/>
@@ -3086,9 +3086,9 @@
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="56"/>
+      <c r="E69" s="47"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="55"/>
+      <c r="G69" s="46"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
@@ -3114,9 +3114,9 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="56"/>
+      <c r="E70" s="47"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="55"/>
+      <c r="G70" s="46"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="6"/>
@@ -3142,9 +3142,9 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="56"/>
+      <c r="E71" s="47"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="55"/>
+      <c r="G71" s="46"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="6"/>
@@ -3170,9 +3170,9 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="56"/>
+      <c r="E72" s="47"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="55"/>
+      <c r="G72" s="46"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="6"/>
@@ -3198,9 +3198,9 @@
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="56"/>
+      <c r="E73" s="47"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="55"/>
+      <c r="G73" s="46"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="6"/>
@@ -3226,9 +3226,9 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="56"/>
+      <c r="E74" s="47"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="55"/>
+      <c r="G74" s="46"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6"/>
@@ -3254,9 +3254,9 @@
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="56"/>
+      <c r="E75" s="47"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="55"/>
+      <c r="G75" s="46"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6"/>
@@ -3282,9 +3282,9 @@
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="56"/>
+      <c r="E76" s="47"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="55"/>
+      <c r="G76" s="46"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6"/>
@@ -3310,9 +3310,9 @@
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="56"/>
+      <c r="E77" s="47"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="55"/>
+      <c r="G77" s="46"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6"/>
@@ -3338,9 +3338,9 @@
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="56"/>
+      <c r="E78" s="47"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="55"/>
+      <c r="G78" s="46"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="6"/>
@@ -3366,9 +3366,9 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="56"/>
+      <c r="E79" s="47"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="55"/>
+      <c r="G79" s="46"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6"/>
@@ -3394,9 +3394,9 @@
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="56"/>
+      <c r="E80" s="47"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="55"/>
+      <c r="G80" s="46"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6"/>
@@ -3422,9 +3422,9 @@
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="56"/>
+      <c r="E81" s="47"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="55"/>
+      <c r="G81" s="46"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="6"/>
@@ -3450,9 +3450,9 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="56"/>
+      <c r="E82" s="47"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="55"/>
+      <c r="G82" s="46"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6"/>
@@ -3478,9 +3478,9 @@
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="56"/>
+      <c r="E83" s="47"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="55"/>
+      <c r="G83" s="46"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6"/>
@@ -3506,9 +3506,9 @@
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="56"/>
+      <c r="E84" s="47"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="55"/>
+      <c r="G84" s="46"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="6"/>
@@ -3534,9 +3534,9 @@
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="56"/>
+      <c r="E85" s="47"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="55"/>
+      <c r="G85" s="46"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6"/>
@@ -3562,9 +3562,9 @@
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="56"/>
+      <c r="E86" s="47"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="55"/>
+      <c r="G86" s="46"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6"/>
@@ -3590,9 +3590,9 @@
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="56"/>
+      <c r="E87" s="47"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="55"/>
+      <c r="G87" s="46"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="6"/>
@@ -3618,9 +3618,9 @@
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="56"/>
+      <c r="E88" s="47"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="55"/>
+      <c r="G88" s="46"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="6"/>
@@ -3646,9 +3646,9 @@
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="56"/>
+      <c r="E89" s="47"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="55"/>
+      <c r="G89" s="46"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6"/>
@@ -3674,9 +3674,9 @@
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="56"/>
+      <c r="E90" s="47"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="55"/>
+      <c r="G90" s="46"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6"/>
@@ -3702,9 +3702,9 @@
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="5"/>
-      <c r="E91" s="56"/>
+      <c r="E91" s="47"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="55"/>
+      <c r="G91" s="46"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6"/>
@@ -3730,9 +3730,9 @@
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="5"/>
-      <c r="E92" s="56"/>
+      <c r="E92" s="47"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="55"/>
+      <c r="G92" s="46"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6"/>
@@ -3758,9 +3758,9 @@
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="5"/>
-      <c r="E93" s="56"/>
+      <c r="E93" s="47"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="55"/>
+      <c r="G93" s="46"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6"/>
@@ -3786,9 +3786,9 @@
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="56"/>
+      <c r="E94" s="47"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="55"/>
+      <c r="G94" s="46"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6"/>
@@ -3814,9 +3814,9 @@
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="56"/>
+      <c r="E95" s="47"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="55"/>
+      <c r="G95" s="46"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="6"/>
@@ -3842,9 +3842,9 @@
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="56"/>
+      <c r="E96" s="47"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="55"/>
+      <c r="G96" s="46"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="6"/>
@@ -3870,9 +3870,9 @@
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="56"/>
+      <c r="E97" s="47"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="55"/>
+      <c r="G97" s="46"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="6"/>
@@ -3898,9 +3898,9 @@
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="56"/>
+      <c r="E98" s="47"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="55"/>
+      <c r="G98" s="46"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="6"/>
@@ -3926,9 +3926,9 @@
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="56"/>
+      <c r="E99" s="47"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="55"/>
+      <c r="G99" s="46"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="6"/>
@@ -3954,9 +3954,9 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="5"/>
-      <c r="E100" s="56"/>
+      <c r="E100" s="47"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="55"/>
+      <c r="G100" s="46"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="6"/>
@@ -3982,9 +3982,9 @@
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="5"/>
-      <c r="E101" s="56"/>
+      <c r="E101" s="47"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="55"/>
+      <c r="G101" s="46"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="6"/>
@@ -4010,9 +4010,9 @@
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="56"/>
+      <c r="E102" s="47"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="55"/>
+      <c r="G102" s="46"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="6"/>
@@ -4038,9 +4038,9 @@
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="56"/>
+      <c r="E103" s="47"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="55"/>
+      <c r="G103" s="46"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="6"/>
@@ -4066,9 +4066,9 @@
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="56"/>
+      <c r="E104" s="47"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="55"/>
+      <c r="G104" s="46"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="6"/>
@@ -4094,9 +4094,9 @@
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="56"/>
+      <c r="E105" s="47"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="55"/>
+      <c r="G105" s="46"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="6"/>
@@ -4122,9 +4122,9 @@
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="56"/>
+      <c r="E106" s="47"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="55"/>
+      <c r="G106" s="46"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="6"/>
@@ -4150,9 +4150,9 @@
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="56"/>
+      <c r="E107" s="47"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="55"/>
+      <c r="G107" s="46"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="6"/>
@@ -4178,9 +4178,9 @@
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="56"/>
+      <c r="E108" s="47"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="55"/>
+      <c r="G108" s="46"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="6"/>
@@ -4206,9 +4206,9 @@
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
       <c r="D109" s="5"/>
-      <c r="E109" s="56"/>
+      <c r="E109" s="47"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="55"/>
+      <c r="G109" s="46"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="6"/>
@@ -4234,9 +4234,9 @@
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="56"/>
+      <c r="E110" s="47"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="55"/>
+      <c r="G110" s="46"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="6"/>
@@ -4262,9 +4262,9 @@
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
       <c r="D111" s="5"/>
-      <c r="E111" s="56"/>
+      <c r="E111" s="47"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="55"/>
+      <c r="G111" s="46"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="6"/>
@@ -4290,9 +4290,9 @@
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="56"/>
+      <c r="E112" s="47"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="55"/>
+      <c r="G112" s="46"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="6"/>
@@ -4318,9 +4318,9 @@
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="56"/>
+      <c r="E113" s="47"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="55"/>
+      <c r="G113" s="46"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="6"/>
@@ -4346,9 +4346,9 @@
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="56"/>
+      <c r="E114" s="47"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="55"/>
+      <c r="G114" s="46"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="6"/>
@@ -4374,9 +4374,9 @@
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="56"/>
+      <c r="E115" s="47"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="55"/>
+      <c r="G115" s="46"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="6"/>
@@ -4402,9 +4402,9 @@
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="56"/>
+      <c r="E116" s="47"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="55"/>
+      <c r="G116" s="46"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="6"/>
@@ -4430,9 +4430,9 @@
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="56"/>
+      <c r="E117" s="47"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="55"/>
+      <c r="G117" s="46"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="6"/>
@@ -4458,9 +4458,9 @@
       <c r="B118" s="5"/>
       <c r="C118" s="6"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="56"/>
+      <c r="E118" s="47"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="55"/>
+      <c r="G118" s="46"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="6"/>
@@ -4486,9 +4486,9 @@
       <c r="B119" s="5"/>
       <c r="C119" s="6"/>
       <c r="D119" s="5"/>
-      <c r="E119" s="56"/>
+      <c r="E119" s="47"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="55"/>
+      <c r="G119" s="46"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="6"/>
@@ -4514,9 +4514,9 @@
       <c r="B120" s="5"/>
       <c r="C120" s="6"/>
       <c r="D120" s="5"/>
-      <c r="E120" s="56"/>
+      <c r="E120" s="47"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="55"/>
+      <c r="G120" s="46"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="6"/>
@@ -4542,9 +4542,9 @@
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
       <c r="D121" s="5"/>
-      <c r="E121" s="56"/>
+      <c r="E121" s="47"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="55"/>
+      <c r="G121" s="46"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="6"/>
@@ -4570,9 +4570,9 @@
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
       <c r="D122" s="5"/>
-      <c r="E122" s="56"/>
+      <c r="E122" s="47"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="55"/>
+      <c r="G122" s="46"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="6"/>
@@ -4598,9 +4598,9 @@
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
       <c r="D123" s="5"/>
-      <c r="E123" s="56"/>
+      <c r="E123" s="47"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="55"/>
+      <c r="G123" s="46"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="6"/>
@@ -4626,9 +4626,9 @@
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="56"/>
+      <c r="E124" s="47"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="55"/>
+      <c r="G124" s="46"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="6"/>
@@ -4654,9 +4654,9 @@
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
       <c r="D125" s="5"/>
-      <c r="E125" s="56"/>
+      <c r="E125" s="47"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="55"/>
+      <c r="G125" s="46"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="6"/>
@@ -4682,9 +4682,9 @@
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
       <c r="D126" s="5"/>
-      <c r="E126" s="56"/>
+      <c r="E126" s="47"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="55"/>
+      <c r="G126" s="46"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="6"/>
@@ -4710,9 +4710,9 @@
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
       <c r="D127" s="5"/>
-      <c r="E127" s="56"/>
+      <c r="E127" s="47"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="55"/>
+      <c r="G127" s="46"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="6"/>
@@ -4738,9 +4738,9 @@
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
       <c r="D128" s="5"/>
-      <c r="E128" s="56"/>
+      <c r="E128" s="47"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="55"/>
+      <c r="G128" s="46"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="6"/>
@@ -4766,9 +4766,9 @@
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
       <c r="D129" s="5"/>
-      <c r="E129" s="56"/>
+      <c r="E129" s="47"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="55"/>
+      <c r="G129" s="46"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="6"/>
@@ -4794,9 +4794,9 @@
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
       <c r="D130" s="5"/>
-      <c r="E130" s="56"/>
+      <c r="E130" s="47"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="55"/>
+      <c r="G130" s="46"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="6"/>
@@ -4822,9 +4822,9 @@
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
       <c r="D131" s="5"/>
-      <c r="E131" s="56"/>
+      <c r="E131" s="47"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="55"/>
+      <c r="G131" s="46"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="6"/>
@@ -4850,9 +4850,9 @@
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
       <c r="D132" s="5"/>
-      <c r="E132" s="56"/>
+      <c r="E132" s="47"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="55"/>
+      <c r="G132" s="46"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="6"/>
@@ -4878,9 +4878,9 @@
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
       <c r="D133" s="5"/>
-      <c r="E133" s="56"/>
+      <c r="E133" s="47"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="55"/>
+      <c r="G133" s="46"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="6"/>
@@ -4906,9 +4906,9 @@
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="56"/>
+      <c r="E134" s="47"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="55"/>
+      <c r="G134" s="46"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="6"/>
@@ -4934,9 +4934,9 @@
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="56"/>
+      <c r="E135" s="47"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="55"/>
+      <c r="G135" s="46"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="6"/>
@@ -4962,9 +4962,9 @@
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="56"/>
+      <c r="E136" s="47"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="55"/>
+      <c r="G136" s="46"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="6"/>
@@ -4990,9 +4990,9 @@
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="56"/>
+      <c r="E137" s="47"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="55"/>
+      <c r="G137" s="46"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="6"/>
@@ -5018,9 +5018,9 @@
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="56"/>
+      <c r="E138" s="47"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="55"/>
+      <c r="G138" s="46"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="6"/>
@@ -5046,9 +5046,9 @@
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
       <c r="D139" s="5"/>
-      <c r="E139" s="56"/>
+      <c r="E139" s="47"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="55"/>
+      <c r="G139" s="46"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="6"/>
@@ -5074,9 +5074,9 @@
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
       <c r="D140" s="5"/>
-      <c r="E140" s="56"/>
+      <c r="E140" s="47"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="55"/>
+      <c r="G140" s="46"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="6"/>
@@ -5102,9 +5102,9 @@
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
       <c r="D141" s="5"/>
-      <c r="E141" s="56"/>
+      <c r="E141" s="47"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="55"/>
+      <c r="G141" s="46"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="6"/>
@@ -5130,9 +5130,9 @@
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
       <c r="D142" s="5"/>
-      <c r="E142" s="56"/>
+      <c r="E142" s="47"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="55"/>
+      <c r="G142" s="46"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="6"/>
@@ -5158,9 +5158,9 @@
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
       <c r="D143" s="5"/>
-      <c r="E143" s="56"/>
+      <c r="E143" s="47"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="55"/>
+      <c r="G143" s="46"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="6"/>
@@ -5186,9 +5186,9 @@
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="56"/>
+      <c r="E144" s="47"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="55"/>
+      <c r="G144" s="46"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="6"/>
@@ -5214,9 +5214,9 @@
       <c r="B145" s="5"/>
       <c r="C145" s="6"/>
       <c r="D145" s="5"/>
-      <c r="E145" s="56"/>
+      <c r="E145" s="47"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="55"/>
+      <c r="G145" s="46"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="6"/>
@@ -5242,9 +5242,9 @@
       <c r="B146" s="5"/>
       <c r="C146" s="6"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="56"/>
+      <c r="E146" s="47"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="55"/>
+      <c r="G146" s="46"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="6"/>
@@ -5270,9 +5270,9 @@
       <c r="B147" s="5"/>
       <c r="C147" s="6"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="56"/>
+      <c r="E147" s="47"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="55"/>
+      <c r="G147" s="46"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="6"/>
@@ -5298,9 +5298,9 @@
       <c r="B148" s="5"/>
       <c r="C148" s="6"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="56"/>
+      <c r="E148" s="47"/>
       <c r="F148" s="5"/>
-      <c r="G148" s="55"/>
+      <c r="G148" s="46"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="6"/>
@@ -5326,9 +5326,9 @@
       <c r="B149" s="5"/>
       <c r="C149" s="6"/>
       <c r="D149" s="5"/>
-      <c r="E149" s="56"/>
+      <c r="E149" s="47"/>
       <c r="F149" s="5"/>
-      <c r="G149" s="55"/>
+      <c r="G149" s="46"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="6"/>
@@ -5354,9 +5354,9 @@
       <c r="B150" s="5"/>
       <c r="C150" s="6"/>
       <c r="D150" s="5"/>
-      <c r="E150" s="56"/>
+      <c r="E150" s="47"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="55"/>
+      <c r="G150" s="46"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="6"/>
@@ -5382,9 +5382,9 @@
       <c r="B151" s="5"/>
       <c r="C151" s="6"/>
       <c r="D151" s="5"/>
-      <c r="E151" s="56"/>
+      <c r="E151" s="47"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="55"/>
+      <c r="G151" s="46"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="6"/>
@@ -5410,9 +5410,9 @@
       <c r="B152" s="5"/>
       <c r="C152" s="6"/>
       <c r="D152" s="5"/>
-      <c r="E152" s="56"/>
+      <c r="E152" s="47"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="55"/>
+      <c r="G152" s="46"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="6"/>
@@ -5438,9 +5438,9 @@
       <c r="B153" s="5"/>
       <c r="C153" s="6"/>
       <c r="D153" s="5"/>
-      <c r="E153" s="56"/>
+      <c r="E153" s="47"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="55"/>
+      <c r="G153" s="46"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="6"/>
@@ -5466,9 +5466,9 @@
       <c r="B154" s="5"/>
       <c r="C154" s="6"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="56"/>
+      <c r="E154" s="47"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="55"/>
+      <c r="G154" s="46"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="6"/>
@@ -5494,9 +5494,9 @@
       <c r="B155" s="5"/>
       <c r="C155" s="6"/>
       <c r="D155" s="5"/>
-      <c r="E155" s="56"/>
+      <c r="E155" s="47"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="55"/>
+      <c r="G155" s="46"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="6"/>
@@ -5522,9 +5522,9 @@
       <c r="B156" s="5"/>
       <c r="C156" s="6"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="56"/>
+      <c r="E156" s="47"/>
       <c r="F156" s="5"/>
-      <c r="G156" s="55"/>
+      <c r="G156" s="46"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="6"/>
@@ -5550,9 +5550,9 @@
       <c r="B157" s="5"/>
       <c r="C157" s="6"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="56"/>
+      <c r="E157" s="47"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="55"/>
+      <c r="G157" s="46"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="6"/>
@@ -5578,9 +5578,9 @@
       <c r="B158" s="5"/>
       <c r="C158" s="6"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="56"/>
+      <c r="E158" s="47"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="55"/>
+      <c r="G158" s="46"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="6"/>
@@ -5606,9 +5606,9 @@
       <c r="B159" s="5"/>
       <c r="C159" s="6"/>
       <c r="D159" s="5"/>
-      <c r="E159" s="56"/>
+      <c r="E159" s="47"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="55"/>
+      <c r="G159" s="46"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="6"/>
@@ -5634,9 +5634,9 @@
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
       <c r="D160" s="5"/>
-      <c r="E160" s="56"/>
+      <c r="E160" s="47"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="55"/>
+      <c r="G160" s="46"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="6"/>
@@ -5662,9 +5662,9 @@
       <c r="B161" s="5"/>
       <c r="C161" s="6"/>
       <c r="D161" s="5"/>
-      <c r="E161" s="56"/>
+      <c r="E161" s="47"/>
       <c r="F161" s="5"/>
-      <c r="G161" s="55"/>
+      <c r="G161" s="46"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="6"/>
@@ -5690,9 +5690,9 @@
       <c r="B162" s="5"/>
       <c r="C162" s="6"/>
       <c r="D162" s="5"/>
-      <c r="E162" s="56"/>
+      <c r="E162" s="47"/>
       <c r="F162" s="5"/>
-      <c r="G162" s="55"/>
+      <c r="G162" s="46"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="6"/>
@@ -5718,9 +5718,9 @@
       <c r="B163" s="5"/>
       <c r="C163" s="6"/>
       <c r="D163" s="5"/>
-      <c r="E163" s="56"/>
+      <c r="E163" s="47"/>
       <c r="F163" s="5"/>
-      <c r="G163" s="55"/>
+      <c r="G163" s="46"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="6"/>
@@ -5746,9 +5746,9 @@
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
       <c r="D164" s="5"/>
-      <c r="E164" s="56"/>
+      <c r="E164" s="47"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="55"/>
+      <c r="G164" s="46"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="6"/>
@@ -5774,9 +5774,9 @@
       <c r="B165" s="5"/>
       <c r="C165" s="6"/>
       <c r="D165" s="5"/>
-      <c r="E165" s="56"/>
+      <c r="E165" s="47"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="55"/>
+      <c r="G165" s="46"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="6"/>
@@ -5802,9 +5802,9 @@
       <c r="B166" s="5"/>
       <c r="C166" s="6"/>
       <c r="D166" s="5"/>
-      <c r="E166" s="56"/>
+      <c r="E166" s="47"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="55"/>
+      <c r="G166" s="46"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="6"/>
@@ -5830,9 +5830,9 @@
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
       <c r="D167" s="5"/>
-      <c r="E167" s="56"/>
+      <c r="E167" s="47"/>
       <c r="F167" s="5"/>
-      <c r="G167" s="55"/>
+      <c r="G167" s="46"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="6"/>
@@ -5858,9 +5858,9 @@
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
       <c r="D168" s="5"/>
-      <c r="E168" s="56"/>
+      <c r="E168" s="47"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="55"/>
+      <c r="G168" s="46"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="6"/>
@@ -5886,9 +5886,9 @@
       <c r="B169" s="5"/>
       <c r="C169" s="6"/>
       <c r="D169" s="5"/>
-      <c r="E169" s="56"/>
+      <c r="E169" s="47"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="55"/>
+      <c r="G169" s="46"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="6"/>
@@ -5914,9 +5914,9 @@
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
       <c r="D170" s="5"/>
-      <c r="E170" s="56"/>
+      <c r="E170" s="47"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="55"/>
+      <c r="G170" s="46"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="6"/>
@@ -5942,9 +5942,9 @@
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
       <c r="D171" s="5"/>
-      <c r="E171" s="56"/>
+      <c r="E171" s="47"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="55"/>
+      <c r="G171" s="46"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="6"/>
@@ -5970,9 +5970,9 @@
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
       <c r="D172" s="5"/>
-      <c r="E172" s="56"/>
+      <c r="E172" s="47"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="55"/>
+      <c r="G172" s="46"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="6"/>
@@ -5998,9 +5998,9 @@
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
       <c r="D173" s="5"/>
-      <c r="E173" s="56"/>
+      <c r="E173" s="47"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="55"/>
+      <c r="G173" s="46"/>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="6"/>
@@ -6026,9 +6026,9 @@
       <c r="B174" s="5"/>
       <c r="C174" s="6"/>
       <c r="D174" s="5"/>
-      <c r="E174" s="56"/>
+      <c r="E174" s="47"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="55"/>
+      <c r="G174" s="46"/>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="6"/>
@@ -6054,9 +6054,9 @@
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
       <c r="D175" s="5"/>
-      <c r="E175" s="56"/>
+      <c r="E175" s="47"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="55"/>
+      <c r="G175" s="46"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="6"/>
@@ -6082,9 +6082,9 @@
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
       <c r="D176" s="5"/>
-      <c r="E176" s="56"/>
+      <c r="E176" s="47"/>
       <c r="F176" s="5"/>
-      <c r="G176" s="55"/>
+      <c r="G176" s="46"/>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="6"/>
@@ -6110,9 +6110,9 @@
       <c r="B177" s="5"/>
       <c r="C177" s="6"/>
       <c r="D177" s="5"/>
-      <c r="E177" s="56"/>
+      <c r="E177" s="47"/>
       <c r="F177" s="5"/>
-      <c r="G177" s="55"/>
+      <c r="G177" s="46"/>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="6"/>
@@ -6138,9 +6138,9 @@
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
       <c r="D178" s="5"/>
-      <c r="E178" s="56"/>
+      <c r="E178" s="47"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="55"/>
+      <c r="G178" s="46"/>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="6"/>
@@ -6166,9 +6166,9 @@
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
       <c r="D179" s="5"/>
-      <c r="E179" s="56"/>
+      <c r="E179" s="47"/>
       <c r="F179" s="5"/>
-      <c r="G179" s="55"/>
+      <c r="G179" s="46"/>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="6"/>
@@ -6194,9 +6194,9 @@
       <c r="B180" s="5"/>
       <c r="C180" s="6"/>
       <c r="D180" s="5"/>
-      <c r="E180" s="56"/>
+      <c r="E180" s="47"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="55"/>
+      <c r="G180" s="46"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="6"/>
@@ -6222,9 +6222,9 @@
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
       <c r="D181" s="5"/>
-      <c r="E181" s="56"/>
+      <c r="E181" s="47"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="55"/>
+      <c r="G181" s="46"/>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="6"/>
@@ -6250,9 +6250,9 @@
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
       <c r="D182" s="5"/>
-      <c r="E182" s="56"/>
+      <c r="E182" s="47"/>
       <c r="F182" s="5"/>
-      <c r="G182" s="55"/>
+      <c r="G182" s="46"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="6"/>
@@ -6278,9 +6278,9 @@
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
       <c r="D183" s="5"/>
-      <c r="E183" s="56"/>
+      <c r="E183" s="47"/>
       <c r="F183" s="5"/>
-      <c r="G183" s="55"/>
+      <c r="G183" s="46"/>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="6"/>
@@ -6306,9 +6306,9 @@
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
       <c r="D184" s="5"/>
-      <c r="E184" s="56"/>
+      <c r="E184" s="47"/>
       <c r="F184" s="5"/>
-      <c r="G184" s="55"/>
+      <c r="G184" s="46"/>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="6"/>
@@ -6334,9 +6334,9 @@
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
       <c r="D185" s="5"/>
-      <c r="E185" s="56"/>
+      <c r="E185" s="47"/>
       <c r="F185" s="5"/>
-      <c r="G185" s="55"/>
+      <c r="G185" s="46"/>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="6"/>
@@ -6362,9 +6362,9 @@
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
       <c r="D186" s="5"/>
-      <c r="E186" s="56"/>
+      <c r="E186" s="47"/>
       <c r="F186" s="5"/>
-      <c r="G186" s="55"/>
+      <c r="G186" s="46"/>
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="6"/>
@@ -6390,9 +6390,9 @@
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
       <c r="D187" s="5"/>
-      <c r="E187" s="56"/>
+      <c r="E187" s="47"/>
       <c r="F187" s="5"/>
-      <c r="G187" s="55"/>
+      <c r="G187" s="46"/>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="6"/>
@@ -6418,9 +6418,9 @@
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
       <c r="D188" s="5"/>
-      <c r="E188" s="56"/>
+      <c r="E188" s="47"/>
       <c r="F188" s="5"/>
-      <c r="G188" s="55"/>
+      <c r="G188" s="46"/>
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="6"/>
@@ -6446,9 +6446,9 @@
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
       <c r="D189" s="5"/>
-      <c r="E189" s="56"/>
+      <c r="E189" s="47"/>
       <c r="F189" s="5"/>
-      <c r="G189" s="55"/>
+      <c r="G189" s="46"/>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="6"/>
@@ -6474,9 +6474,9 @@
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
       <c r="D190" s="5"/>
-      <c r="E190" s="56"/>
+      <c r="E190" s="47"/>
       <c r="F190" s="5"/>
-      <c r="G190" s="55"/>
+      <c r="G190" s="46"/>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="6"/>
@@ -6502,9 +6502,9 @@
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
       <c r="D191" s="5"/>
-      <c r="E191" s="56"/>
+      <c r="E191" s="47"/>
       <c r="F191" s="5"/>
-      <c r="G191" s="55"/>
+      <c r="G191" s="46"/>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="6"/>
@@ -6530,9 +6530,9 @@
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
       <c r="D192" s="5"/>
-      <c r="E192" s="56"/>
+      <c r="E192" s="47"/>
       <c r="F192" s="5"/>
-      <c r="G192" s="55"/>
+      <c r="G192" s="46"/>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="6"/>
@@ -6558,9 +6558,9 @@
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
       <c r="D193" s="5"/>
-      <c r="E193" s="56"/>
+      <c r="E193" s="47"/>
       <c r="F193" s="5"/>
-      <c r="G193" s="55"/>
+      <c r="G193" s="46"/>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="6"/>
@@ -6586,9 +6586,9 @@
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
       <c r="D194" s="5"/>
-      <c r="E194" s="56"/>
+      <c r="E194" s="47"/>
       <c r="F194" s="5"/>
-      <c r="G194" s="55"/>
+      <c r="G194" s="46"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="6"/>
@@ -6614,9 +6614,9 @@
       <c r="B195" s="5"/>
       <c r="C195" s="6"/>
       <c r="D195" s="5"/>
-      <c r="E195" s="56"/>
+      <c r="E195" s="47"/>
       <c r="F195" s="5"/>
-      <c r="G195" s="55"/>
+      <c r="G195" s="46"/>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="6"/>
@@ -6642,9 +6642,9 @@
       <c r="B196" s="5"/>
       <c r="C196" s="6"/>
       <c r="D196" s="5"/>
-      <c r="E196" s="56"/>
+      <c r="E196" s="47"/>
       <c r="F196" s="5"/>
-      <c r="G196" s="55"/>
+      <c r="G196" s="46"/>
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="6"/>
@@ -6670,9 +6670,9 @@
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
       <c r="D197" s="5"/>
-      <c r="E197" s="56"/>
+      <c r="E197" s="47"/>
       <c r="F197" s="5"/>
-      <c r="G197" s="55"/>
+      <c r="G197" s="46"/>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="6"/>
@@ -6698,9 +6698,9 @@
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
       <c r="D198" s="5"/>
-      <c r="E198" s="56"/>
+      <c r="E198" s="47"/>
       <c r="F198" s="5"/>
-      <c r="G198" s="55"/>
+      <c r="G198" s="46"/>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="6"/>
@@ -6726,9 +6726,9 @@
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
       <c r="D199" s="5"/>
-      <c r="E199" s="56"/>
+      <c r="E199" s="47"/>
       <c r="F199" s="5"/>
-      <c r="G199" s="55"/>
+      <c r="G199" s="46"/>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="6"/>
@@ -6754,9 +6754,9 @@
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
       <c r="D200" s="5"/>
-      <c r="E200" s="56"/>
+      <c r="E200" s="47"/>
       <c r="F200" s="5"/>
-      <c r="G200" s="55"/>
+      <c r="G200" s="46"/>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="6"/>
@@ -6782,9 +6782,9 @@
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
       <c r="D201" s="5"/>
-      <c r="E201" s="56"/>
+      <c r="E201" s="47"/>
       <c r="F201" s="5"/>
-      <c r="G201" s="55"/>
+      <c r="G201" s="46"/>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="6"/>
@@ -6810,9 +6810,9 @@
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
       <c r="D202" s="5"/>
-      <c r="E202" s="56"/>
+      <c r="E202" s="47"/>
       <c r="F202" s="5"/>
-      <c r="G202" s="55"/>
+      <c r="G202" s="46"/>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="6"/>
@@ -6838,9 +6838,9 @@
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
       <c r="D203" s="5"/>
-      <c r="E203" s="56"/>
+      <c r="E203" s="47"/>
       <c r="F203" s="5"/>
-      <c r="G203" s="55"/>
+      <c r="G203" s="46"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="6"/>
@@ -6866,9 +6866,9 @@
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
       <c r="D204" s="5"/>
-      <c r="E204" s="56"/>
+      <c r="E204" s="47"/>
       <c r="F204" s="5"/>
-      <c r="G204" s="55"/>
+      <c r="G204" s="46"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="6"/>
@@ -6894,9 +6894,9 @@
       <c r="B205" s="5"/>
       <c r="C205" s="6"/>
       <c r="D205" s="5"/>
-      <c r="E205" s="56"/>
+      <c r="E205" s="47"/>
       <c r="F205" s="5"/>
-      <c r="G205" s="55"/>
+      <c r="G205" s="46"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="6"/>

--- a/public/DownloadExcels/Productos.xlsx
+++ b/public/DownloadExcels/Productos.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6606FFD-BEAD-46A6-B781-C448ADFF01ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37AFD8F-9278-4EE4-B2BF-C6B02AA60756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{3D2BB3EA-D40E-4AFC-8C62-09AC02EACA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE PRODUCTOS" sheetId="1" r:id="rId1"/>
-    <sheet name="Lista desplegable" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Lista desplegable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t xml:space="preserve">INVENTARIO DE PRODUCTOS </t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Frasco</t>
+  </si>
+  <si>
+    <t>Botella</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1206,7 @@
   <dimension ref="A1:O205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E7" sqref="E7:E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5234,7 +5237,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54DCB291-8EC9-4633-BC55-6BE451134F0A}">
           <x14:formula1>
-            <xm:f>'Lista desplegable'!$B$2:$B$31</xm:f>
+            <xm:f>'Lista desplegable'!$B$2:$B$32</xm:f>
           </x14:formula1>
           <xm:sqref>E6:E205</xm:sqref>
         </x14:dataValidation>
@@ -5248,8 +5251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB34B52-82B7-4633-BD36-52262EF75F31}">
   <dimension ref="A1:J990"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5530,8 +5533,8 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
-      <c r="B12" s="55" t="s">
-        <v>46</v>
+      <c r="B12" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -5545,8 +5548,8 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
-      <c r="B13" s="56" t="s">
-        <v>65</v>
+      <c r="B13" s="55" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
@@ -5561,7 +5564,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
@@ -5575,8 +5578,8 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
-      <c r="B15" s="55" t="s">
-        <v>47</v>
+      <c r="B15" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
@@ -5591,7 +5594,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
@@ -5606,7 +5609,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
@@ -5621,7 +5624,7 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="38"/>
@@ -5636,7 +5639,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="38"/>
@@ -5651,7 +5654,7 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
@@ -5666,7 +5669,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="38"/>
@@ -5679,7 +5682,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="38"/>
@@ -5691,8 +5694,8 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
-      <c r="B23" s="53" t="s">
-        <v>55</v>
+      <c r="B23" s="55" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="38"/>
@@ -5705,7 +5708,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="38"/>
@@ -5718,7 +5721,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="38"/>
@@ -5731,7 +5734,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="38"/>
@@ -5744,7 +5747,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
@@ -5757,7 +5760,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="38"/>
@@ -5769,21 +5772,23 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="53" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="57"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="57"/>

--- a/public/DownloadExcels/Productos.xlsx
+++ b/public/DownloadExcels/Productos.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37AFD8F-9278-4EE4-B2BF-C6B02AA60756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043E693B-0EA6-4622-8CEB-4F4B2E04D02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{3D2BB3EA-D40E-4AFC-8C62-09AC02EACA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE PRODUCTOS" sheetId="1" r:id="rId1"/>
-    <sheet name="Lista desplegable" sheetId="2" r:id="rId2"/>
+    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId2"/>
+    <sheet name="Lista desplegable" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,124 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t xml:space="preserve">INVENTARIO DE PRODUCTOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrucciones para diligenciar el formulario </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">1. LAS COLUMNAS EN VERDE SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Escribe el nombre de la materia prima </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t>SIEMPRE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> empezando con letra mayúscula. Las demás letras deben ir en minúscula. 
-3. Si el nombre de la materia prima tiene dos o más palabras,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> SOLO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> debes poner en mayúscula la primera letra de la primera palabra.
-4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">. OBLIGATORIO: En la columna B, escribe EL PRODUCTO incluyendo NOMBRE + REFERENCIA O CARACTERÍSTICA QUE LO IDENTIFIQUE. EJ: Celular Samsung J40; Arroz Integral; Leche en Polvo.  Cada mercancia se registra UNA (1) SOLA VEZ. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">
-5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t>. OBLIGATORIO: En la columna C, ESCRIBE EL INVENTARIO EN NÚMEROS. 
-6. OBLIGATORIO: En la columna D, ELIJE DE LA LISTA DESPLEGABLE, LA UNIDAD DE MEDIDA EN LA QUE REGISTRAS EL INVENTARIO DE TU PRODUCTO. 
-7. OBLIGATORIO: En la columna E, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IVA APLICABLE A TU PRODUCTO. 
-8. OBLIGATORIO: En la columna F, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IMPUESTO AL CONSUMO APLICABLE A TU PRODUCTO.
-9.  OBLIGATORIO: En la columna G, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN EN LA FUENTE APLICABLE A TU PRODUCTO.
-10.  OBLIGATORIO: En la columna H, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE IVA APLICABLE A TU PRODUCTO.
-11.  OBLIGATORIO: En la columna I, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE ICA APLICABLE A TU PRODUCTO. 
-12. OBLIGATORIO: En la columna J, ELIGE DE LA LISTA DESPLEGABLE, OTRO IMPUESTO APLICABLES A TU PRODUCTO.
-13. OBLIGATORIO: En la columna K, ESCRIBE EN NÚMEROS EL PRECIO DE VENTA DE TU PRODUCTO INCLUYENDO TODOS LOS IMPUESTOS APLICABLES.
-14. OBlIGATORIO: En la columna L, ESCRIBE LA FECHA DE VENCIMIENTO DE TU PRODUCTO ASÍ: DIA/MES/AÑO. 
-15. En la columna M, COPIA EL CÓDIGO DE BARRAS A MANO O CON EL LECTOR DE CÓDIGO, NO OMITAS NINGUNA LETRA O NÚMERO.  
-16.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">En las columnas D, E, F, G, H, I,  J, SELECCIONA LA RESPUESTA DE LA LISTA DESPLEGABLE.
-17. En las columnas K, L, M, y N, ESCRIBE SOLO EL NÚMERO. </t>
-    </r>
   </si>
   <si>
     <t>Código de barras</t>
@@ -374,17 +260,72 @@
   <si>
     <t>Botella</t>
   </si>
+  <si>
+    <t xml:space="preserve">1. LAS COLUMNAS EN VERDE SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Escribe el nombre de la materia prima SIEMPRE empezando con letra mayúscula. Las demás letras deben ir en minúscula. </t>
+  </si>
+  <si>
+    <t>3. Si el nombre de la materia prima tiene dos o más palabras, SOLO debes poner en mayúscula la primera letra de la primera palabra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. OBLIGATORIO: En la columna B, escribe EL PRODUCTO incluyendo NOMBRE + REFERENCIA O CARACTERÍSTICA QUE LO IDENTIFIQUE. EJ: Celular Samsung J40; Arroz Integral; Leche en Polvo.  Cada mercancia se registra UNA (1) SOLA VEZ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. OBLIGATORIO: En la columna C, ESCRIBE EL INVENTARIO EN NÚMEROS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. OBLIGATORIO: En la columna D, ELIJE DE LA LISTA DESPLEGABLE, LA UNIDAD DE MEDIDA EN LA QUE REGISTRAS EL INVENTARIO DE TU PRODUCTO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. OBLIGATORIO: En la columna E, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IVA APLICABLE A TU PRODUCTO. </t>
+  </si>
+  <si>
+    <t>8. OBLIGATORIO: En la columna F, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IMPUESTO AL CONSUMO APLICABLE A TU PRODUCTO.</t>
+  </si>
+  <si>
+    <t>9.  OBLIGATORIO: En la columna G, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN EN LA FUENTE APLICABLE A TU PRODUCTO.</t>
+  </si>
+  <si>
+    <t>10.  OBLIGATORIO: En la columna H, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE IVA APLICABLE A TU PRODUCTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.  OBLIGATORIO: En la columna I, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE ICA APLICABLE A TU PRODUCTO. </t>
+  </si>
+  <si>
+    <t>12. OBLIGATORIO: En la columna J, ELIGE DE LA LISTA DESPLEGABLE, OTRO IMPUESTO APLICABLES A TU PRODUCTO.</t>
+  </si>
+  <si>
+    <t>13. OBLIGATORIO: En la columna K, ESCRIBE EN NÚMEROS EL PRECIO DE VENTA DE TU PRODUCTO INCLUYENDO TODOS LOS IMPUESTOS APLICABLES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. OBlIGATORIO: En la columna L, ESCRIBE LA FECHA DE VENCIMIENTO DE TU PRODUCTO ASÍ: DIA/MES/AÑO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. En la columna M, COPIA EL CÓDIGO DE BARRAS A MANO O CON EL LECTOR DE CÓDIGO, NO OMITAS NINGUNA LETRA O NÚMERO.  </t>
+  </si>
+  <si>
+    <t>16. En las columnas D, E, F, G, H, I,  J, SELECCIONA LA RESPUESTA DE LA LISTA DESPLEGABLE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. En las columnas K, L, M, y N, ESCRIBE SOLO EL NÚMERO. </t>
+  </si>
+  <si>
+    <t>Instrcciones</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,13 +345,6 @@
       <sz val="20"/>
       <color rgb="FF1A2732"/>
       <name val="Nunito Sans"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -658,72 +592,72 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -733,19 +667,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -757,11 +691,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -771,72 +705,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -862,15 +793,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>25242</xdr:colOff>
+      <xdr:colOff>66655</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>421620</xdr:colOff>
+      <xdr:colOff>463033</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>405847</xdr:rowOff>
+      <xdr:rowOff>372717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -893,7 +824,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25242" y="33130"/>
+          <a:off x="66655" y="0"/>
           <a:ext cx="1158378" cy="372717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1203,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB7640F-D0A1-410F-B1A7-024A7E8A96F3}">
-  <dimension ref="A1:O205"/>
+  <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E205"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,157 +1159,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="2" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-    </row>
-    <row r="3" spans="1:15" ht="378.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-    </row>
-    <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="5" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="M3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>1</v>
+      <c r="A6" s="19">
+        <v>3</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1397,7 +1328,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1415,8 +1346,8 @@
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>3</v>
+      <c r="A8" s="13">
+        <v>5</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1435,7 +1366,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1454,7 +1385,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1473,7 +1404,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1492,7 +1423,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1511,7 +1442,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1530,7 +1461,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1549,7 +1480,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1568,7 +1499,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1587,7 +1518,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1606,7 +1537,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1625,7 +1556,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1644,7 +1575,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1663,7 +1594,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1682,7 +1613,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1701,7 +1632,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1720,7 +1651,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1739,7 +1670,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1758,7 +1689,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1777,7 +1708,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1796,7 +1727,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1815,7 +1746,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1834,7 +1765,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1853,7 +1784,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1872,7 +1803,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1891,7 +1822,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1910,7 +1841,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1929,7 +1860,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1948,7 +1879,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1967,7 +1898,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1986,7 +1917,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2005,7 +1936,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2024,7 +1955,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2043,7 +1974,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2062,7 +1993,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2081,7 +2012,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2100,7 +2031,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2119,7 +2050,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2138,7 +2069,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2157,7 +2088,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2176,7 +2107,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2195,7 +2126,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2214,7 +2145,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2233,7 +2164,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -2252,7 +2183,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -2271,7 +2202,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -2290,7 +2221,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2309,7 +2240,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -2328,7 +2259,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -2347,7 +2278,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -2366,7 +2297,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -2385,7 +2316,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -2404,7 +2335,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2423,7 +2354,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2442,7 +2373,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2461,7 +2392,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -2480,7 +2411,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -2499,7 +2430,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -2518,7 +2449,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -2537,7 +2468,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -2556,7 +2487,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -2575,7 +2506,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -2594,7 +2525,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -2613,7 +2544,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -2632,7 +2563,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -2651,7 +2582,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -2670,7 +2601,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -2689,7 +2620,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -2708,7 +2639,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -2727,7 +2658,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -2746,7 +2677,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -2765,7 +2696,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -2784,7 +2715,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -2803,7 +2734,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -2822,7 +2753,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -2841,7 +2772,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -2860,7 +2791,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -2879,7 +2810,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -2898,7 +2829,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -2917,7 +2848,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -2936,7 +2867,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -2955,7 +2886,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -2974,7 +2905,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -2993,7 +2924,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -3012,7 +2943,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -3031,7 +2962,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -3050,7 +2981,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -3069,7 +3000,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -3088,7 +3019,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -3107,7 +3038,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -3126,7 +3057,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -3145,7 +3076,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -3164,7 +3095,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -3183,7 +3114,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -3202,7 +3133,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -3221,7 +3152,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -3240,7 +3171,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -3259,7 +3190,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -3278,7 +3209,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -3297,7 +3228,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -3316,7 +3247,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -3335,7 +3266,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -3354,7 +3285,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -3373,7 +3304,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -3392,7 +3323,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -3411,7 +3342,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -3430,7 +3361,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -3449,7 +3380,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -3468,7 +3399,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -3487,7 +3418,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -3506,7 +3437,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -3525,7 +3456,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -3544,7 +3475,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -3563,7 +3494,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="13">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -3582,7 +3513,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -3601,7 +3532,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="13">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -3620,7 +3551,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -3639,7 +3570,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="13">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -3658,7 +3589,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -3677,7 +3608,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -3696,7 +3627,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -3715,7 +3646,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -3734,7 +3665,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="13">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -3753,7 +3684,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="13">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -3772,7 +3703,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="13">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -3791,7 +3722,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="13">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -3810,7 +3741,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="13">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -3829,7 +3760,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="13">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -3848,7 +3779,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="13">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -3867,7 +3798,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -3886,7 +3817,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="13">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -3905,7 +3836,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="13">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -3924,7 +3855,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="13">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -3943,7 +3874,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="13">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -3962,7 +3893,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -3981,7 +3912,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="13">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -4000,7 +3931,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="13">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -4019,7 +3950,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="13">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -4038,7 +3969,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="13">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -4057,7 +3988,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -4076,7 +4007,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="13">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -4095,7 +4026,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="13">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -4114,7 +4045,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="13">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -4133,7 +4064,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="13">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -4152,7 +4083,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="13">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -4171,7 +4102,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -4190,7 +4121,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -4209,7 +4140,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -4228,7 +4159,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -4247,7 +4178,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -4266,7 +4197,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -4285,7 +4216,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="13">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -4304,7 +4235,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="13">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -4323,7 +4254,7 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="13">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -4342,7 +4273,7 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="13">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -4361,7 +4292,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -4380,7 +4311,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="13">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -4399,7 +4330,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="13">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
@@ -4418,7 +4349,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -4437,7 +4368,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
@@ -4456,7 +4387,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="13">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
@@ -4475,7 +4406,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="13">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
@@ -4494,7 +4425,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="13">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
@@ -4513,7 +4444,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="13">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -4532,7 +4463,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="13">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -4551,7 +4482,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="13">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -4570,7 +4501,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="13">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
@@ -4589,7 +4520,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -4608,7 +4539,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="13">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -4627,7 +4558,7 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="13">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
@@ -4646,7 +4577,7 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="13">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
@@ -4665,7 +4596,7 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -4684,7 +4615,7 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="13">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -4703,7 +4634,7 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="13">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
@@ -4722,7 +4653,7 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
@@ -4741,7 +4672,7 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="13">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
@@ -4760,7 +4691,7 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="13">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -4779,7 +4710,7 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="13">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -4798,7 +4729,7 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="13">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -4817,7 +4748,7 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="13">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -4836,7 +4767,7 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="13">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -4855,7 +4786,7 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -4874,7 +4805,7 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="13">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -4893,7 +4824,7 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="13">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -4912,7 +4843,7 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="13">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -4931,7 +4862,7 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="13">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -4950,7 +4881,7 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -4969,7 +4900,7 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="13">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -4988,7 +4919,7 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="13">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -5007,7 +4938,7 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="13">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -5026,7 +4957,7 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="13">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -5045,7 +4976,7 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="13">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -5064,7 +4995,7 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="13">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -5083,7 +5014,7 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="13">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -5102,7 +5033,7 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="13">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
@@ -5121,7 +5052,7 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="13">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
@@ -5138,49 +5069,9 @@
       <c r="N203" s="18"/>
       <c r="O203" s="14"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A204" s="13">
-        <v>199</v>
-      </c>
-      <c r="B204" s="14"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="15"/>
-      <c r="E204" s="15"/>
-      <c r="F204" s="16"/>
-      <c r="G204" s="17"/>
-      <c r="H204" s="14"/>
-      <c r="I204" s="14"/>
-      <c r="J204" s="14"/>
-      <c r="K204" s="14"/>
-      <c r="L204" s="14"/>
-      <c r="M204" s="14"/>
-      <c r="N204" s="18"/>
-      <c r="O204" s="14"/>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A205" s="13">
-        <v>200</v>
-      </c>
-      <c r="B205" s="14"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="15"/>
-      <c r="F205" s="16"/>
-      <c r="G205" s="17"/>
-      <c r="H205" s="14"/>
-      <c r="I205" s="14"/>
-      <c r="J205" s="14"/>
-      <c r="K205" s="14"/>
-      <c r="L205" s="14"/>
-      <c r="M205" s="14"/>
-      <c r="N205" s="18"/>
-      <c r="O205" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5191,55 +5082,55 @@
           <x14:formula1>
             <xm:f>'Lista desplegable'!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H6:H205</xm:sqref>
+          <xm:sqref>H4:H203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0518D584-A0C1-4365-89EA-826AE3A8816B}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I6:I205</xm:sqref>
+          <xm:sqref>I4:I203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B54BFE0-82F1-4F3E-AA97-46420FC127F5}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J205</xm:sqref>
+          <xm:sqref>J4:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9396F51-934C-4AB3-9DCC-8961272525B8}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$F$2:$F$20</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K205</xm:sqref>
+          <xm:sqref>K4:K203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65B6212A-C284-4CA4-9971-E9BF4DF90BA5}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L205</xm:sqref>
+          <xm:sqref>L4:L203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7ABA6FFD-3407-42CF-992F-1DCAAD0754EF}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$H$2:$H$11</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M205</xm:sqref>
+          <xm:sqref>M4:M203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F03CF08C-290F-4862-AC0A-01CA329CA59F}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$I$2:$I$9</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N205</xm:sqref>
+          <xm:sqref>N4:N203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1337F6A1-B813-4316-B79F-E2EB5D27EF01}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$J$2:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>O6:O205</xm:sqref>
+          <xm:sqref>O4:O203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54DCB291-8EC9-4633-BC55-6BE451134F0A}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$B$2:$B$32</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E205</xm:sqref>
+          <xm:sqref>E4:E203</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5248,11 +5139,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03311FF-7F40-41B3-9107-C0102D06D1CE}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB34B52-82B7-4633-BD36-52262EF75F31}">
   <dimension ref="A1:J990"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5270,67 +5266,67 @@
     <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="F1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="I1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="J1" s="22" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="26">
         <v>0</v>
@@ -5339,7 +5335,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="29">
         <v>0.1</v>
@@ -5360,7 +5356,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="26">
         <v>5</v>
@@ -5369,7 +5365,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" s="29">
         <v>0.5</v>
@@ -5390,7 +5386,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="26">
         <v>19</v>
@@ -5399,7 +5395,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="29">
         <v>1</v>
@@ -5418,12 +5414,12 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="29">
         <v>1.5</v>
@@ -5440,12 +5436,12 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="29">
         <v>2</v>
@@ -5462,7 +5458,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
@@ -5481,7 +5477,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
@@ -5500,7 +5496,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
@@ -5517,7 +5513,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
@@ -5534,7 +5530,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -5549,7 +5545,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
@@ -5564,7 +5560,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
@@ -5579,7 +5575,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
@@ -5594,7 +5590,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
@@ -5609,7 +5605,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
@@ -5624,7 +5620,7 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="38"/>
@@ -5639,7 +5635,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="38"/>
@@ -5654,7 +5650,7 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
@@ -5669,7 +5665,7 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="38"/>
@@ -5682,7 +5678,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="38"/>
@@ -5695,7 +5691,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="38"/>
@@ -5708,7 +5704,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="38"/>
@@ -5721,7 +5717,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="38"/>
@@ -5734,7 +5730,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="38"/>
@@ -5747,7 +5743,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
@@ -5760,7 +5756,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="38"/>
@@ -5772,22 +5768,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">

--- a/public/DownloadExcels/Productos.xlsx
+++ b/public/DownloadExcels/Productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043E693B-0EA6-4622-8CEB-4F4B2E04D02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19456BA4-3BE3-4445-A546-F1A1BE0B8010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{3D2BB3EA-D40E-4AFC-8C62-09AC02EACA3E}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11235" xr2:uid="{3D2BB3EA-D40E-4AFC-8C62-09AC02EACA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:O203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/DownloadExcels/Productos.xlsx
+++ b/public/DownloadExcels/Productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19456BA4-3BE3-4445-A546-F1A1BE0B8010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87947B54-A9CB-4E56-903C-4F76CACBAE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11235" xr2:uid="{3D2BB3EA-D40E-4AFC-8C62-09AC02EACA3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{3D2BB3EA-D40E-4AFC-8C62-09AC02EACA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t xml:space="preserve">INVENTARIO DE PRODUCTOS </t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>Instrcciones</t>
+  </si>
+  <si>
+    <t>XFGB54X5B45X</t>
+  </si>
+  <si>
+    <t>XDF5BXF5G4B5</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>PLOP</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1149,7 @@
   <dimension ref="A1:O203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,39 +1285,95 @@
       <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="15">
+        <v>100</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="59">
+        <v>100</v>
+      </c>
+      <c r="G4" s="17">
+        <v>45657</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="15">
+        <v>200</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="59">
+        <v>200</v>
+      </c>
+      <c r="G5" s="17">
+        <v>45657</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -5082,49 +5150,49 @@
           <x14:formula1>
             <xm:f>'Lista desplegable'!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H203</xm:sqref>
+          <xm:sqref>H4:H203 I4:O5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0518D584-A0C1-4365-89EA-826AE3A8816B}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I203</xm:sqref>
+          <xm:sqref>I6:I203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B54BFE0-82F1-4F3E-AA97-46420FC127F5}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J203</xm:sqref>
+          <xm:sqref>J6:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9396F51-934C-4AB3-9DCC-8961272525B8}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$F$2:$F$20</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K203</xm:sqref>
+          <xm:sqref>K6:K203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65B6212A-C284-4CA4-9971-E9BF4DF90BA5}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:L203</xm:sqref>
+          <xm:sqref>L6:L203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7ABA6FFD-3407-42CF-992F-1DCAAD0754EF}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$H$2:$H$11</xm:f>
           </x14:formula1>
-          <xm:sqref>M4:M203</xm:sqref>
+          <xm:sqref>M6:M203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F03CF08C-290F-4862-AC0A-01CA329CA59F}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$I$2:$I$9</xm:f>
           </x14:formula1>
-          <xm:sqref>N4:N203</xm:sqref>
+          <xm:sqref>N6:N203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1337F6A1-B813-4316-B79F-E2EB5D27EF01}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$J$2:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>O4:O203</xm:sqref>
+          <xm:sqref>O6:O203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54DCB291-8EC9-4633-BC55-6BE451134F0A}">
           <x14:formula1>

--- a/public/DownloadExcels/Productos.xlsx
+++ b/public/DownloadExcels/Productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87947B54-A9CB-4E56-903C-4F76CACBAE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD748A4-521F-46F5-8EC9-3ADD1286A21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{3D2BB3EA-D40E-4AFC-8C62-09AC02EACA3E}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D2BB3EA-D40E-4AFC-8C62-09AC02EACA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t xml:space="preserve">INVENTARIO DE PRODUCTOS </t>
   </si>
@@ -313,18 +313,6 @@
   </si>
   <si>
     <t>Instrcciones</t>
-  </si>
-  <si>
-    <t>XFGB54X5B45X</t>
-  </si>
-  <si>
-    <t>XDF5BXF5G4B5</t>
-  </si>
-  <si>
-    <t>DA</t>
-  </si>
-  <si>
-    <t>PLOP</t>
   </si>
 </sst>
 </file>
@@ -1285,95 +1273,39 @@
       <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="15">
-        <v>100</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="59">
-        <v>100</v>
-      </c>
-      <c r="G4" s="17">
-        <v>45657</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="15">
-        <v>200</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="59">
-        <v>200</v>
-      </c>
-      <c r="G5" s="17">
-        <v>45657</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="19">

--- a/public/DownloadExcels/Productos.xlsx
+++ b/public/DownloadExcels/Productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\Carlos\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD748A4-521F-46F5-8EC9-3ADD1286A21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314675C3-A4BB-4DB4-87EC-A8797C51DA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D2BB3EA-D40E-4AFC-8C62-09AC02EACA3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D2BB3EA-D40E-4AFC-8C62-09AC02EACA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,9 +644,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1137,7 +1134,7 @@
   <dimension ref="A1:O203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,23 +1156,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
     </row>
     <row r="2" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1277,16 +1274,16 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="59"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="17"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -1296,19 +1293,19 @@
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="17"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
       <c r="B6" s="14"/>
@@ -1318,13 +1315,13 @@
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="14"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -1337,13 +1334,13 @@
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="14"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -1356,13 +1353,13 @@
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="14"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -1375,13 +1372,13 @@
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="14"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1394,13 +1391,13 @@
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="14"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -1413,13 +1410,13 @@
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="14"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -1432,13 +1429,13 @@
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="14"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -1451,13 +1448,13 @@
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="14"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -1470,13 +1467,13 @@
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="14"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -1489,13 +1486,13 @@
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="14"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -1508,13 +1505,13 @@
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="14"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -1527,13 +1524,13 @@
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="14"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -1546,13 +1543,13 @@
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="14"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -1565,13 +1562,13 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="14"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -1584,13 +1581,13 @@
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="14"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -1603,13 +1600,13 @@
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="14"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -1622,13 +1619,13 @@
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="14"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -1641,13 +1638,13 @@
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="14"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -1660,13 +1657,13 @@
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="14"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -1679,13 +1676,13 @@
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="14"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -1698,13 +1695,13 @@
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="14"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -1717,13 +1714,13 @@
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="14"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -1736,13 +1733,13 @@
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="14"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -1755,13 +1752,13 @@
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="14"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -1774,13 +1771,13 @@
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="14"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
@@ -1793,13 +1790,13 @@
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="14"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -1812,13 +1809,13 @@
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="14"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -1831,13 +1828,13 @@
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="14"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
@@ -1850,13 +1847,13 @@
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="14"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -1869,13 +1866,13 @@
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="14"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -1888,13 +1885,13 @@
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
       <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="14"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
@@ -1907,13 +1904,13 @@
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
       <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="14"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -1926,13 +1923,13 @@
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
       <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="14"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
@@ -1945,13 +1942,13 @@
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
       <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="14"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
@@ -1964,13 +1961,13 @@
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="14"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
@@ -1983,13 +1980,13 @@
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
       <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="14"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
@@ -2002,13 +1999,13 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="14"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
@@ -2021,13 +2018,13 @@
       <c r="F43" s="16"/>
       <c r="G43" s="17"/>
       <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="14"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
@@ -2040,13 +2037,13 @@
       <c r="F44" s="16"/>
       <c r="G44" s="17"/>
       <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="14"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
@@ -2059,13 +2056,13 @@
       <c r="F45" s="16"/>
       <c r="G45" s="17"/>
       <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="14"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
@@ -2078,13 +2075,13 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
       <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="14"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
@@ -2097,13 +2094,13 @@
       <c r="F47" s="16"/>
       <c r="G47" s="17"/>
       <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="14"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
@@ -2116,13 +2113,13 @@
       <c r="F48" s="16"/>
       <c r="G48" s="17"/>
       <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="14"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
@@ -2135,13 +2132,13 @@
       <c r="F49" s="16"/>
       <c r="G49" s="17"/>
       <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="14"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
@@ -2154,13 +2151,13 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
       <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="14"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
@@ -2173,13 +2170,13 @@
       <c r="F51" s="16"/>
       <c r="G51" s="17"/>
       <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="14"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
@@ -2192,13 +2189,13 @@
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="14"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
@@ -2211,13 +2208,13 @@
       <c r="F53" s="16"/>
       <c r="G53" s="17"/>
       <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="14"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
@@ -2230,13 +2227,13 @@
       <c r="F54" s="16"/>
       <c r="G54" s="17"/>
       <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="14"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
@@ -2249,13 +2246,13 @@
       <c r="F55" s="16"/>
       <c r="G55" s="17"/>
       <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="14"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
@@ -2268,13 +2265,13 @@
       <c r="F56" s="16"/>
       <c r="G56" s="17"/>
       <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="14"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
@@ -2287,13 +2284,13 @@
       <c r="F57" s="16"/>
       <c r="G57" s="17"/>
       <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="14"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
@@ -2306,13 +2303,13 @@
       <c r="F58" s="16"/>
       <c r="G58" s="17"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="14"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
@@ -2325,13 +2322,13 @@
       <c r="F59" s="16"/>
       <c r="G59" s="17"/>
       <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="14"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
@@ -2344,13 +2341,13 @@
       <c r="F60" s="16"/>
       <c r="G60" s="17"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="14"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
@@ -2363,13 +2360,13 @@
       <c r="F61" s="16"/>
       <c r="G61" s="17"/>
       <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="14"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
@@ -2382,13 +2379,13 @@
       <c r="F62" s="16"/>
       <c r="G62" s="17"/>
       <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="14"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
@@ -2401,13 +2398,13 @@
       <c r="F63" s="16"/>
       <c r="G63" s="17"/>
       <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="14"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
@@ -2420,13 +2417,13 @@
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
       <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="14"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
@@ -2439,13 +2436,13 @@
       <c r="F65" s="16"/>
       <c r="G65" s="17"/>
       <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="14"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
@@ -2458,13 +2455,13 @@
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="14"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
@@ -2477,13 +2474,13 @@
       <c r="F67" s="16"/>
       <c r="G67" s="17"/>
       <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="14"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
@@ -2496,13 +2493,13 @@
       <c r="F68" s="16"/>
       <c r="G68" s="17"/>
       <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="14"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
@@ -2515,13 +2512,13 @@
       <c r="F69" s="16"/>
       <c r="G69" s="17"/>
       <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="14"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
@@ -2534,13 +2531,13 @@
       <c r="F70" s="16"/>
       <c r="G70" s="17"/>
       <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="14"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
@@ -2553,13 +2550,13 @@
       <c r="F71" s="16"/>
       <c r="G71" s="17"/>
       <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="14"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
@@ -2572,13 +2569,13 @@
       <c r="F72" s="16"/>
       <c r="G72" s="17"/>
       <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="14"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
@@ -2591,13 +2588,13 @@
       <c r="F73" s="16"/>
       <c r="G73" s="17"/>
       <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="14"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
@@ -2610,13 +2607,13 @@
       <c r="F74" s="16"/>
       <c r="G74" s="17"/>
       <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="14"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
@@ -2629,13 +2626,13 @@
       <c r="F75" s="16"/>
       <c r="G75" s="17"/>
       <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="14"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
@@ -2648,13 +2645,13 @@
       <c r="F76" s="16"/>
       <c r="G76" s="17"/>
       <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="14"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
@@ -2667,13 +2664,13 @@
       <c r="F77" s="16"/>
       <c r="G77" s="17"/>
       <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="14"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
@@ -2686,13 +2683,13 @@
       <c r="F78" s="16"/>
       <c r="G78" s="17"/>
       <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="14"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
@@ -2705,13 +2702,13 @@
       <c r="F79" s="16"/>
       <c r="G79" s="17"/>
       <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="14"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
@@ -2724,13 +2721,13 @@
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
       <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="14"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
@@ -2743,13 +2740,13 @@
       <c r="F81" s="16"/>
       <c r="G81" s="17"/>
       <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="14"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
@@ -2762,13 +2759,13 @@
       <c r="F82" s="16"/>
       <c r="G82" s="17"/>
       <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="14"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
@@ -2781,13 +2778,13 @@
       <c r="F83" s="16"/>
       <c r="G83" s="17"/>
       <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="14"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
@@ -2800,13 +2797,13 @@
       <c r="F84" s="16"/>
       <c r="G84" s="17"/>
       <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="14"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
@@ -2819,13 +2816,13 @@
       <c r="F85" s="16"/>
       <c r="G85" s="17"/>
       <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="14"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
@@ -2838,13 +2835,13 @@
       <c r="F86" s="16"/>
       <c r="G86" s="17"/>
       <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="14"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
@@ -2857,13 +2854,13 @@
       <c r="F87" s="16"/>
       <c r="G87" s="17"/>
       <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="14"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
@@ -2876,13 +2873,13 @@
       <c r="F88" s="16"/>
       <c r="G88" s="17"/>
       <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="14"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
@@ -2895,13 +2892,13 @@
       <c r="F89" s="16"/>
       <c r="G89" s="17"/>
       <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="14"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
@@ -2914,13 +2911,13 @@
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
       <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="14"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
@@ -2933,13 +2930,13 @@
       <c r="F91" s="16"/>
       <c r="G91" s="17"/>
       <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="14"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
@@ -2952,13 +2949,13 @@
       <c r="F92" s="16"/>
       <c r="G92" s="17"/>
       <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="14"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
@@ -2971,13 +2968,13 @@
       <c r="F93" s="16"/>
       <c r="G93" s="17"/>
       <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="14"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
@@ -2990,13 +2987,13 @@
       <c r="F94" s="16"/>
       <c r="G94" s="17"/>
       <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="14"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
@@ -3009,13 +3006,13 @@
       <c r="F95" s="16"/>
       <c r="G95" s="17"/>
       <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="14"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
@@ -3028,13 +3025,13 @@
       <c r="F96" s="16"/>
       <c r="G96" s="17"/>
       <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="14"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
@@ -3047,13 +3044,13 @@
       <c r="F97" s="16"/>
       <c r="G97" s="17"/>
       <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="14"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
@@ -3066,13 +3063,13 @@
       <c r="F98" s="16"/>
       <c r="G98" s="17"/>
       <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="14"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
@@ -3085,13 +3082,13 @@
       <c r="F99" s="16"/>
       <c r="G99" s="17"/>
       <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="14"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
@@ -3104,13 +3101,13 @@
       <c r="F100" s="16"/>
       <c r="G100" s="17"/>
       <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="14"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
@@ -3123,13 +3120,13 @@
       <c r="F101" s="16"/>
       <c r="G101" s="17"/>
       <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="14"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
@@ -3142,13 +3139,13 @@
       <c r="F102" s="16"/>
       <c r="G102" s="17"/>
       <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="14"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
@@ -3161,13 +3158,13 @@
       <c r="F103" s="16"/>
       <c r="G103" s="17"/>
       <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="14"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
@@ -3180,13 +3177,13 @@
       <c r="F104" s="16"/>
       <c r="G104" s="17"/>
       <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="18"/>
-      <c r="O104" s="14"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
@@ -3199,13 +3196,13 @@
       <c r="F105" s="16"/>
       <c r="G105" s="17"/>
       <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="14"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
@@ -3218,13 +3215,13 @@
       <c r="F106" s="16"/>
       <c r="G106" s="17"/>
       <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="18"/>
-      <c r="O106" s="14"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
@@ -3237,13 +3234,13 @@
       <c r="F107" s="16"/>
       <c r="G107" s="17"/>
       <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="14"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="14"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
@@ -3256,13 +3253,13 @@
       <c r="F108" s="16"/>
       <c r="G108" s="17"/>
       <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="14"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
@@ -3275,13 +3272,13 @@
       <c r="F109" s="16"/>
       <c r="G109" s="17"/>
       <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="14"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
@@ -3294,13 +3291,13 @@
       <c r="F110" s="16"/>
       <c r="G110" s="17"/>
       <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14"/>
-      <c r="K110" s="14"/>
-      <c r="L110" s="14"/>
-      <c r="M110" s="14"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="14"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
@@ -3313,13 +3310,13 @@
       <c r="F111" s="16"/>
       <c r="G111" s="17"/>
       <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="14"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
@@ -3332,13 +3329,13 @@
       <c r="F112" s="16"/>
       <c r="G112" s="17"/>
       <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="14"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="14"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
@@ -3351,13 +3348,13 @@
       <c r="F113" s="16"/>
       <c r="G113" s="17"/>
       <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="14"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="14"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
@@ -3370,13 +3367,13 @@
       <c r="F114" s="16"/>
       <c r="G114" s="17"/>
       <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="14"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
@@ -3389,13 +3386,13 @@
       <c r="F115" s="16"/>
       <c r="G115" s="17"/>
       <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-      <c r="K115" s="14"/>
-      <c r="L115" s="14"/>
-      <c r="M115" s="14"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="14"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
@@ -3408,13 +3405,13 @@
       <c r="F116" s="16"/>
       <c r="G116" s="17"/>
       <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
-      <c r="L116" s="14"/>
-      <c r="M116" s="14"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="14"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
@@ -3427,13 +3424,13 @@
       <c r="F117" s="16"/>
       <c r="G117" s="17"/>
       <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
-      <c r="L117" s="14"/>
-      <c r="M117" s="14"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="14"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
@@ -3446,13 +3443,13 @@
       <c r="F118" s="16"/>
       <c r="G118" s="17"/>
       <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
-      <c r="L118" s="14"/>
-      <c r="M118" s="14"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="14"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
@@ -3465,13 +3462,13 @@
       <c r="F119" s="16"/>
       <c r="G119" s="17"/>
       <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="14"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
@@ -3484,13 +3481,13 @@
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
       <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="14"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="13">
@@ -3503,13 +3500,13 @@
       <c r="F121" s="16"/>
       <c r="G121" s="17"/>
       <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14"/>
-      <c r="L121" s="14"/>
-      <c r="M121" s="14"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="14"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
@@ -3522,13 +3519,13 @@
       <c r="F122" s="16"/>
       <c r="G122" s="17"/>
       <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
-      <c r="L122" s="14"/>
-      <c r="M122" s="14"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="14"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="13">
@@ -3541,13 +3538,13 @@
       <c r="F123" s="16"/>
       <c r="G123" s="17"/>
       <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14"/>
-      <c r="L123" s="14"/>
-      <c r="M123" s="14"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="14"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
@@ -3560,13 +3557,13 @@
       <c r="F124" s="16"/>
       <c r="G124" s="17"/>
       <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
-      <c r="L124" s="14"/>
-      <c r="M124" s="14"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="14"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="13">
@@ -3579,13 +3576,13 @@
       <c r="F125" s="16"/>
       <c r="G125" s="17"/>
       <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
-      <c r="L125" s="14"/>
-      <c r="M125" s="14"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="14"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
@@ -3598,13 +3595,13 @@
       <c r="F126" s="16"/>
       <c r="G126" s="17"/>
       <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="14"/>
-      <c r="K126" s="14"/>
-      <c r="L126" s="14"/>
-      <c r="M126" s="14"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="14"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
@@ -3617,13 +3614,13 @@
       <c r="F127" s="16"/>
       <c r="G127" s="17"/>
       <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
-      <c r="K127" s="14"/>
-      <c r="L127" s="14"/>
-      <c r="M127" s="14"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="14"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
@@ -3636,13 +3633,13 @@
       <c r="F128" s="16"/>
       <c r="G128" s="17"/>
       <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
-      <c r="K128" s="14"/>
-      <c r="L128" s="14"/>
-      <c r="M128" s="14"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="14"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
@@ -3655,13 +3652,13 @@
       <c r="F129" s="16"/>
       <c r="G129" s="17"/>
       <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-      <c r="K129" s="14"/>
-      <c r="L129" s="14"/>
-      <c r="M129" s="14"/>
-      <c r="N129" s="18"/>
-      <c r="O129" s="14"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="13">
@@ -3674,13 +3671,13 @@
       <c r="F130" s="16"/>
       <c r="G130" s="17"/>
       <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
-      <c r="K130" s="14"/>
-      <c r="L130" s="14"/>
-      <c r="M130" s="14"/>
-      <c r="N130" s="18"/>
-      <c r="O130" s="14"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="13">
@@ -3693,13 +3690,13 @@
       <c r="F131" s="16"/>
       <c r="G131" s="17"/>
       <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
-      <c r="L131" s="14"/>
-      <c r="M131" s="14"/>
-      <c r="N131" s="18"/>
-      <c r="O131" s="14"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="13">
@@ -3712,13 +3709,13 @@
       <c r="F132" s="16"/>
       <c r="G132" s="17"/>
       <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
-      <c r="L132" s="14"/>
-      <c r="M132" s="14"/>
-      <c r="N132" s="18"/>
-      <c r="O132" s="14"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="13">
@@ -3731,13 +3728,13 @@
       <c r="F133" s="16"/>
       <c r="G133" s="17"/>
       <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14"/>
-      <c r="N133" s="18"/>
-      <c r="O133" s="14"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="13">
@@ -3750,13 +3747,13 @@
       <c r="F134" s="16"/>
       <c r="G134" s="17"/>
       <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14"/>
-      <c r="M134" s="14"/>
-      <c r="N134" s="18"/>
-      <c r="O134" s="14"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="13">
@@ -3769,13 +3766,13 @@
       <c r="F135" s="16"/>
       <c r="G135" s="17"/>
       <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14"/>
-      <c r="L135" s="14"/>
-      <c r="M135" s="14"/>
-      <c r="N135" s="18"/>
-      <c r="O135" s="14"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="13">
@@ -3788,13 +3785,13 @@
       <c r="F136" s="16"/>
       <c r="G136" s="17"/>
       <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
-      <c r="L136" s="14"/>
-      <c r="M136" s="14"/>
-      <c r="N136" s="18"/>
-      <c r="O136" s="14"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
@@ -3807,13 +3804,13 @@
       <c r="F137" s="16"/>
       <c r="G137" s="17"/>
       <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-      <c r="K137" s="14"/>
-      <c r="L137" s="14"/>
-      <c r="M137" s="14"/>
-      <c r="N137" s="18"/>
-      <c r="O137" s="14"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="13">
@@ -3826,13 +3823,13 @@
       <c r="F138" s="16"/>
       <c r="G138" s="17"/>
       <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="14"/>
-      <c r="K138" s="14"/>
-      <c r="L138" s="14"/>
-      <c r="M138" s="14"/>
-      <c r="N138" s="18"/>
-      <c r="O138" s="14"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="13">
@@ -3845,13 +3842,13 @@
       <c r="F139" s="16"/>
       <c r="G139" s="17"/>
       <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-      <c r="K139" s="14"/>
-      <c r="L139" s="14"/>
-      <c r="M139" s="14"/>
-      <c r="N139" s="18"/>
-      <c r="O139" s="14"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="13">
@@ -3864,13 +3861,13 @@
       <c r="F140" s="16"/>
       <c r="G140" s="17"/>
       <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="14"/>
-      <c r="K140" s="14"/>
-      <c r="L140" s="14"/>
-      <c r="M140" s="14"/>
-      <c r="N140" s="18"/>
-      <c r="O140" s="14"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="13">
@@ -3883,13 +3880,13 @@
       <c r="F141" s="16"/>
       <c r="G141" s="17"/>
       <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
-      <c r="K141" s="14"/>
-      <c r="L141" s="14"/>
-      <c r="M141" s="14"/>
-      <c r="N141" s="18"/>
-      <c r="O141" s="14"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
@@ -3902,13 +3899,13 @@
       <c r="F142" s="16"/>
       <c r="G142" s="17"/>
       <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="14"/>
-      <c r="K142" s="14"/>
-      <c r="L142" s="14"/>
-      <c r="M142" s="14"/>
-      <c r="N142" s="18"/>
-      <c r="O142" s="14"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="13">
@@ -3921,13 +3918,13 @@
       <c r="F143" s="16"/>
       <c r="G143" s="17"/>
       <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
-      <c r="K143" s="14"/>
-      <c r="L143" s="14"/>
-      <c r="M143" s="14"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="14"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="13">
@@ -3940,13 +3937,13 @@
       <c r="F144" s="16"/>
       <c r="G144" s="17"/>
       <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="14"/>
-      <c r="K144" s="14"/>
-      <c r="L144" s="14"/>
-      <c r="M144" s="14"/>
-      <c r="N144" s="18"/>
-      <c r="O144" s="14"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="13">
@@ -3959,13 +3956,13 @@
       <c r="F145" s="16"/>
       <c r="G145" s="17"/>
       <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="14"/>
-      <c r="K145" s="14"/>
-      <c r="L145" s="14"/>
-      <c r="M145" s="14"/>
-      <c r="N145" s="18"/>
-      <c r="O145" s="14"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="13">
@@ -3978,13 +3975,13 @@
       <c r="F146" s="16"/>
       <c r="G146" s="17"/>
       <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="14"/>
-      <c r="K146" s="14"/>
-      <c r="L146" s="14"/>
-      <c r="M146" s="14"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="14"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
@@ -3997,13 +3994,13 @@
       <c r="F147" s="16"/>
       <c r="G147" s="17"/>
       <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="14"/>
-      <c r="K147" s="14"/>
-      <c r="L147" s="14"/>
-      <c r="M147" s="14"/>
-      <c r="N147" s="18"/>
-      <c r="O147" s="14"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="13">
@@ -4016,13 +4013,13 @@
       <c r="F148" s="16"/>
       <c r="G148" s="17"/>
       <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="14"/>
-      <c r="K148" s="14"/>
-      <c r="L148" s="14"/>
-      <c r="M148" s="14"/>
-      <c r="N148" s="18"/>
-      <c r="O148" s="14"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="13">
@@ -4035,13 +4032,13 @@
       <c r="F149" s="16"/>
       <c r="G149" s="17"/>
       <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="14"/>
-      <c r="K149" s="14"/>
-      <c r="L149" s="14"/>
-      <c r="M149" s="14"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="14"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="13">
@@ -4054,13 +4051,13 @@
       <c r="F150" s="16"/>
       <c r="G150" s="17"/>
       <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="14"/>
-      <c r="K150" s="14"/>
-      <c r="L150" s="14"/>
-      <c r="M150" s="14"/>
-      <c r="N150" s="18"/>
-      <c r="O150" s="14"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="N150" s="17"/>
+      <c r="O150" s="17"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="13">
@@ -4073,13 +4070,13 @@
       <c r="F151" s="16"/>
       <c r="G151" s="17"/>
       <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="14"/>
-      <c r="K151" s="14"/>
-      <c r="L151" s="14"/>
-      <c r="M151" s="14"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="14"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="13">
@@ -4092,13 +4089,13 @@
       <c r="F152" s="16"/>
       <c r="G152" s="17"/>
       <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="14"/>
-      <c r="K152" s="14"/>
-      <c r="L152" s="14"/>
-      <c r="M152" s="14"/>
-      <c r="N152" s="18"/>
-      <c r="O152" s="14"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
+      <c r="M152" s="17"/>
+      <c r="N152" s="17"/>
+      <c r="O152" s="17"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
@@ -4111,13 +4108,13 @@
       <c r="F153" s="16"/>
       <c r="G153" s="17"/>
       <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="14"/>
-      <c r="K153" s="14"/>
-      <c r="L153" s="14"/>
-      <c r="M153" s="14"/>
-      <c r="N153" s="18"/>
-      <c r="O153" s="14"/>
+      <c r="I153" s="17"/>
+      <c r="J153" s="17"/>
+      <c r="K153" s="17"/>
+      <c r="L153" s="17"/>
+      <c r="M153" s="17"/>
+      <c r="N153" s="17"/>
+      <c r="O153" s="17"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
@@ -4130,13 +4127,13 @@
       <c r="F154" s="16"/>
       <c r="G154" s="17"/>
       <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="14"/>
-      <c r="K154" s="14"/>
-      <c r="L154" s="14"/>
-      <c r="M154" s="14"/>
-      <c r="N154" s="18"/>
-      <c r="O154" s="14"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="17"/>
+      <c r="M154" s="17"/>
+      <c r="N154" s="17"/>
+      <c r="O154" s="17"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
@@ -4149,13 +4146,13 @@
       <c r="F155" s="16"/>
       <c r="G155" s="17"/>
       <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="14"/>
-      <c r="K155" s="14"/>
-      <c r="L155" s="14"/>
-      <c r="M155" s="14"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="14"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="17"/>
+      <c r="N155" s="17"/>
+      <c r="O155" s="17"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
@@ -4168,13 +4165,13 @@
       <c r="F156" s="16"/>
       <c r="G156" s="17"/>
       <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="14"/>
-      <c r="K156" s="14"/>
-      <c r="L156" s="14"/>
-      <c r="M156" s="14"/>
-      <c r="N156" s="18"/>
-      <c r="O156" s="14"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="17"/>
+      <c r="M156" s="17"/>
+      <c r="N156" s="17"/>
+      <c r="O156" s="17"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
@@ -4187,13 +4184,13 @@
       <c r="F157" s="16"/>
       <c r="G157" s="17"/>
       <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="14"/>
-      <c r="K157" s="14"/>
-      <c r="L157" s="14"/>
-      <c r="M157" s="14"/>
-      <c r="N157" s="18"/>
-      <c r="O157" s="14"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
+      <c r="M157" s="17"/>
+      <c r="N157" s="17"/>
+      <c r="O157" s="17"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
@@ -4206,13 +4203,13 @@
       <c r="F158" s="16"/>
       <c r="G158" s="17"/>
       <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="14"/>
-      <c r="K158" s="14"/>
-      <c r="L158" s="14"/>
-      <c r="M158" s="14"/>
-      <c r="N158" s="18"/>
-      <c r="O158" s="14"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="13">
@@ -4225,13 +4222,13 @@
       <c r="F159" s="16"/>
       <c r="G159" s="17"/>
       <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="14"/>
-      <c r="K159" s="14"/>
-      <c r="L159" s="14"/>
-      <c r="M159" s="14"/>
-      <c r="N159" s="18"/>
-      <c r="O159" s="14"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+      <c r="M159" s="17"/>
+      <c r="N159" s="17"/>
+      <c r="O159" s="17"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="13">
@@ -4244,13 +4241,13 @@
       <c r="F160" s="16"/>
       <c r="G160" s="17"/>
       <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="14"/>
-      <c r="K160" s="14"/>
-      <c r="L160" s="14"/>
-      <c r="M160" s="14"/>
-      <c r="N160" s="18"/>
-      <c r="O160" s="14"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
+      <c r="M160" s="17"/>
+      <c r="N160" s="17"/>
+      <c r="O160" s="17"/>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="13">
@@ -4263,13 +4260,13 @@
       <c r="F161" s="16"/>
       <c r="G161" s="17"/>
       <c r="H161" s="14"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="14"/>
-      <c r="K161" s="14"/>
-      <c r="L161" s="14"/>
-      <c r="M161" s="14"/>
-      <c r="N161" s="18"/>
-      <c r="O161" s="14"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="17"/>
+      <c r="N161" s="17"/>
+      <c r="O161" s="17"/>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="13">
@@ -4282,13 +4279,13 @@
       <c r="F162" s="16"/>
       <c r="G162" s="17"/>
       <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="14"/>
-      <c r="K162" s="14"/>
-      <c r="L162" s="14"/>
-      <c r="M162" s="14"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="14"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="17"/>
+      <c r="N162" s="17"/>
+      <c r="O162" s="17"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
@@ -4301,13 +4298,13 @@
       <c r="F163" s="16"/>
       <c r="G163" s="17"/>
       <c r="H163" s="14"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="14"/>
-      <c r="K163" s="14"/>
-      <c r="L163" s="14"/>
-      <c r="M163" s="14"/>
-      <c r="N163" s="18"/>
-      <c r="O163" s="14"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="17"/>
+      <c r="N163" s="17"/>
+      <c r="O163" s="17"/>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="13">
@@ -4320,13 +4317,13 @@
       <c r="F164" s="16"/>
       <c r="G164" s="17"/>
       <c r="H164" s="14"/>
-      <c r="I164" s="14"/>
-      <c r="J164" s="14"/>
-      <c r="K164" s="14"/>
-      <c r="L164" s="14"/>
-      <c r="M164" s="14"/>
-      <c r="N164" s="18"/>
-      <c r="O164" s="14"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="17"/>
+      <c r="M164" s="17"/>
+      <c r="N164" s="17"/>
+      <c r="O164" s="17"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="13">
@@ -4339,13 +4336,13 @@
       <c r="F165" s="16"/>
       <c r="G165" s="17"/>
       <c r="H165" s="14"/>
-      <c r="I165" s="14"/>
-      <c r="J165" s="14"/>
-      <c r="K165" s="14"/>
-      <c r="L165" s="14"/>
-      <c r="M165" s="14"/>
-      <c r="N165" s="18"/>
-      <c r="O165" s="14"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
+      <c r="M165" s="17"/>
+      <c r="N165" s="17"/>
+      <c r="O165" s="17"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
@@ -4358,13 +4355,13 @@
       <c r="F166" s="16"/>
       <c r="G166" s="17"/>
       <c r="H166" s="14"/>
-      <c r="I166" s="14"/>
-      <c r="J166" s="14"/>
-      <c r="K166" s="14"/>
-      <c r="L166" s="14"/>
-      <c r="M166" s="14"/>
-      <c r="N166" s="18"/>
-      <c r="O166" s="14"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+      <c r="M166" s="17"/>
+      <c r="N166" s="17"/>
+      <c r="O166" s="17"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
@@ -4377,13 +4374,13 @@
       <c r="F167" s="16"/>
       <c r="G167" s="17"/>
       <c r="H167" s="14"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="14"/>
-      <c r="K167" s="14"/>
-      <c r="L167" s="14"/>
-      <c r="M167" s="14"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="14"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
+      <c r="M167" s="17"/>
+      <c r="N167" s="17"/>
+      <c r="O167" s="17"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="13">
@@ -4396,13 +4393,13 @@
       <c r="F168" s="16"/>
       <c r="G168" s="17"/>
       <c r="H168" s="14"/>
-      <c r="I168" s="14"/>
-      <c r="J168" s="14"/>
-      <c r="K168" s="14"/>
-      <c r="L168" s="14"/>
-      <c r="M168" s="14"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="14"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17"/>
+      <c r="M168" s="17"/>
+      <c r="N168" s="17"/>
+      <c r="O168" s="17"/>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="13">
@@ -4415,13 +4412,13 @@
       <c r="F169" s="16"/>
       <c r="G169" s="17"/>
       <c r="H169" s="14"/>
-      <c r="I169" s="14"/>
-      <c r="J169" s="14"/>
-      <c r="K169" s="14"/>
-      <c r="L169" s="14"/>
-      <c r="M169" s="14"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="14"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
+      <c r="M169" s="17"/>
+      <c r="N169" s="17"/>
+      <c r="O169" s="17"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="13">
@@ -4434,13 +4431,13 @@
       <c r="F170" s="16"/>
       <c r="G170" s="17"/>
       <c r="H170" s="14"/>
-      <c r="I170" s="14"/>
-      <c r="J170" s="14"/>
-      <c r="K170" s="14"/>
-      <c r="L170" s="14"/>
-      <c r="M170" s="14"/>
-      <c r="N170" s="18"/>
-      <c r="O170" s="14"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
+      <c r="L170" s="17"/>
+      <c r="M170" s="17"/>
+      <c r="N170" s="17"/>
+      <c r="O170" s="17"/>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="13">
@@ -4453,13 +4450,13 @@
       <c r="F171" s="16"/>
       <c r="G171" s="17"/>
       <c r="H171" s="14"/>
-      <c r="I171" s="14"/>
-      <c r="J171" s="14"/>
-      <c r="K171" s="14"/>
-      <c r="L171" s="14"/>
-      <c r="M171" s="14"/>
-      <c r="N171" s="18"/>
-      <c r="O171" s="14"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
+      <c r="M171" s="17"/>
+      <c r="N171" s="17"/>
+      <c r="O171" s="17"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="13">
@@ -4472,13 +4469,13 @@
       <c r="F172" s="16"/>
       <c r="G172" s="17"/>
       <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="14"/>
-      <c r="K172" s="14"/>
-      <c r="L172" s="14"/>
-      <c r="M172" s="14"/>
-      <c r="N172" s="18"/>
-      <c r="O172" s="14"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+      <c r="M172" s="17"/>
+      <c r="N172" s="17"/>
+      <c r="O172" s="17"/>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="13">
@@ -4491,13 +4488,13 @@
       <c r="F173" s="16"/>
       <c r="G173" s="17"/>
       <c r="H173" s="14"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="14"/>
-      <c r="K173" s="14"/>
-      <c r="L173" s="14"/>
-      <c r="M173" s="14"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="14"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17"/>
+      <c r="M173" s="17"/>
+      <c r="N173" s="17"/>
+      <c r="O173" s="17"/>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="13">
@@ -4510,13 +4507,13 @@
       <c r="F174" s="16"/>
       <c r="G174" s="17"/>
       <c r="H174" s="14"/>
-      <c r="I174" s="14"/>
-      <c r="J174" s="14"/>
-      <c r="K174" s="14"/>
-      <c r="L174" s="14"/>
-      <c r="M174" s="14"/>
-      <c r="N174" s="18"/>
-      <c r="O174" s="14"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="17"/>
+      <c r="L174" s="17"/>
+      <c r="M174" s="17"/>
+      <c r="N174" s="17"/>
+      <c r="O174" s="17"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
@@ -4529,13 +4526,13 @@
       <c r="F175" s="16"/>
       <c r="G175" s="17"/>
       <c r="H175" s="14"/>
-      <c r="I175" s="14"/>
-      <c r="J175" s="14"/>
-      <c r="K175" s="14"/>
-      <c r="L175" s="14"/>
-      <c r="M175" s="14"/>
-      <c r="N175" s="18"/>
-      <c r="O175" s="14"/>
+      <c r="I175" s="17"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="17"/>
+      <c r="M175" s="17"/>
+      <c r="N175" s="17"/>
+      <c r="O175" s="17"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="13">
@@ -4548,13 +4545,13 @@
       <c r="F176" s="16"/>
       <c r="G176" s="17"/>
       <c r="H176" s="14"/>
-      <c r="I176" s="14"/>
-      <c r="J176" s="14"/>
-      <c r="K176" s="14"/>
-      <c r="L176" s="14"/>
-      <c r="M176" s="14"/>
-      <c r="N176" s="18"/>
-      <c r="O176" s="14"/>
+      <c r="I176" s="17"/>
+      <c r="J176" s="17"/>
+      <c r="K176" s="17"/>
+      <c r="L176" s="17"/>
+      <c r="M176" s="17"/>
+      <c r="N176" s="17"/>
+      <c r="O176" s="17"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="13">
@@ -4567,13 +4564,13 @@
       <c r="F177" s="16"/>
       <c r="G177" s="17"/>
       <c r="H177" s="14"/>
-      <c r="I177" s="14"/>
-      <c r="J177" s="14"/>
-      <c r="K177" s="14"/>
-      <c r="L177" s="14"/>
-      <c r="M177" s="14"/>
-      <c r="N177" s="18"/>
-      <c r="O177" s="14"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+      <c r="M177" s="17"/>
+      <c r="N177" s="17"/>
+      <c r="O177" s="17"/>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="13">
@@ -4586,13 +4583,13 @@
       <c r="F178" s="16"/>
       <c r="G178" s="17"/>
       <c r="H178" s="14"/>
-      <c r="I178" s="14"/>
-      <c r="J178" s="14"/>
-      <c r="K178" s="14"/>
-      <c r="L178" s="14"/>
-      <c r="M178" s="14"/>
-      <c r="N178" s="18"/>
-      <c r="O178" s="14"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="17"/>
+      <c r="M178" s="17"/>
+      <c r="N178" s="17"/>
+      <c r="O178" s="17"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
@@ -4605,13 +4602,13 @@
       <c r="F179" s="16"/>
       <c r="G179" s="17"/>
       <c r="H179" s="14"/>
-      <c r="I179" s="14"/>
-      <c r="J179" s="14"/>
-      <c r="K179" s="14"/>
-      <c r="L179" s="14"/>
-      <c r="M179" s="14"/>
-      <c r="N179" s="18"/>
-      <c r="O179" s="14"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
+      <c r="L179" s="17"/>
+      <c r="M179" s="17"/>
+      <c r="N179" s="17"/>
+      <c r="O179" s="17"/>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="13">
@@ -4624,13 +4621,13 @@
       <c r="F180" s="16"/>
       <c r="G180" s="17"/>
       <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="14"/>
-      <c r="K180" s="14"/>
-      <c r="L180" s="14"/>
-      <c r="M180" s="14"/>
-      <c r="N180" s="18"/>
-      <c r="O180" s="14"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="17"/>
+      <c r="K180" s="17"/>
+      <c r="L180" s="17"/>
+      <c r="M180" s="17"/>
+      <c r="N180" s="17"/>
+      <c r="O180" s="17"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="13">
@@ -4643,13 +4640,13 @@
       <c r="F181" s="16"/>
       <c r="G181" s="17"/>
       <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="14"/>
-      <c r="K181" s="14"/>
-      <c r="L181" s="14"/>
-      <c r="M181" s="14"/>
-      <c r="N181" s="18"/>
-      <c r="O181" s="14"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
+      <c r="M181" s="17"/>
+      <c r="N181" s="17"/>
+      <c r="O181" s="17"/>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
@@ -4662,13 +4659,13 @@
       <c r="F182" s="16"/>
       <c r="G182" s="17"/>
       <c r="H182" s="14"/>
-      <c r="I182" s="14"/>
-      <c r="J182" s="14"/>
-      <c r="K182" s="14"/>
-      <c r="L182" s="14"/>
-      <c r="M182" s="14"/>
-      <c r="N182" s="18"/>
-      <c r="O182" s="14"/>
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="17"/>
+      <c r="L182" s="17"/>
+      <c r="M182" s="17"/>
+      <c r="N182" s="17"/>
+      <c r="O182" s="17"/>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="13">
@@ -4681,13 +4678,13 @@
       <c r="F183" s="16"/>
       <c r="G183" s="17"/>
       <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="14"/>
-      <c r="K183" s="14"/>
-      <c r="L183" s="14"/>
-      <c r="M183" s="14"/>
-      <c r="N183" s="18"/>
-      <c r="O183" s="14"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="17"/>
+      <c r="L183" s="17"/>
+      <c r="M183" s="17"/>
+      <c r="N183" s="17"/>
+      <c r="O183" s="17"/>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="13">
@@ -4700,13 +4697,13 @@
       <c r="F184" s="16"/>
       <c r="G184" s="17"/>
       <c r="H184" s="14"/>
-      <c r="I184" s="14"/>
-      <c r="J184" s="14"/>
-      <c r="K184" s="14"/>
-      <c r="L184" s="14"/>
-      <c r="M184" s="14"/>
-      <c r="N184" s="18"/>
-      <c r="O184" s="14"/>
+      <c r="I184" s="17"/>
+      <c r="J184" s="17"/>
+      <c r="K184" s="17"/>
+      <c r="L184" s="17"/>
+      <c r="M184" s="17"/>
+      <c r="N184" s="17"/>
+      <c r="O184" s="17"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="13">
@@ -4719,13 +4716,13 @@
       <c r="F185" s="16"/>
       <c r="G185" s="17"/>
       <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="14"/>
-      <c r="K185" s="14"/>
-      <c r="L185" s="14"/>
-      <c r="M185" s="14"/>
-      <c r="N185" s="18"/>
-      <c r="O185" s="14"/>
+      <c r="I185" s="17"/>
+      <c r="J185" s="17"/>
+      <c r="K185" s="17"/>
+      <c r="L185" s="17"/>
+      <c r="M185" s="17"/>
+      <c r="N185" s="17"/>
+      <c r="O185" s="17"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="13">
@@ -4738,13 +4735,13 @@
       <c r="F186" s="16"/>
       <c r="G186" s="17"/>
       <c r="H186" s="14"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="14"/>
-      <c r="K186" s="14"/>
-      <c r="L186" s="14"/>
-      <c r="M186" s="14"/>
-      <c r="N186" s="18"/>
-      <c r="O186" s="14"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="17"/>
+      <c r="K186" s="17"/>
+      <c r="L186" s="17"/>
+      <c r="M186" s="17"/>
+      <c r="N186" s="17"/>
+      <c r="O186" s="17"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="13">
@@ -4757,13 +4754,13 @@
       <c r="F187" s="16"/>
       <c r="G187" s="17"/>
       <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="14"/>
-      <c r="K187" s="14"/>
-      <c r="L187" s="14"/>
-      <c r="M187" s="14"/>
-      <c r="N187" s="18"/>
-      <c r="O187" s="14"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="17"/>
+      <c r="L187" s="17"/>
+      <c r="M187" s="17"/>
+      <c r="N187" s="17"/>
+      <c r="O187" s="17"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="13">
@@ -4776,13 +4773,13 @@
       <c r="F188" s="16"/>
       <c r="G188" s="17"/>
       <c r="H188" s="14"/>
-      <c r="I188" s="14"/>
-      <c r="J188" s="14"/>
-      <c r="K188" s="14"/>
-      <c r="L188" s="14"/>
-      <c r="M188" s="14"/>
-      <c r="N188" s="18"/>
-      <c r="O188" s="14"/>
+      <c r="I188" s="17"/>
+      <c r="J188" s="17"/>
+      <c r="K188" s="17"/>
+      <c r="L188" s="17"/>
+      <c r="M188" s="17"/>
+      <c r="N188" s="17"/>
+      <c r="O188" s="17"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
@@ -4795,13 +4792,13 @@
       <c r="F189" s="16"/>
       <c r="G189" s="17"/>
       <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="14"/>
-      <c r="K189" s="14"/>
-      <c r="L189" s="14"/>
-      <c r="M189" s="14"/>
-      <c r="N189" s="18"/>
-      <c r="O189" s="14"/>
+      <c r="I189" s="17"/>
+      <c r="J189" s="17"/>
+      <c r="K189" s="17"/>
+      <c r="L189" s="17"/>
+      <c r="M189" s="17"/>
+      <c r="N189" s="17"/>
+      <c r="O189" s="17"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="13">
@@ -4814,13 +4811,13 @@
       <c r="F190" s="16"/>
       <c r="G190" s="17"/>
       <c r="H190" s="14"/>
-      <c r="I190" s="14"/>
-      <c r="J190" s="14"/>
-      <c r="K190" s="14"/>
-      <c r="L190" s="14"/>
-      <c r="M190" s="14"/>
-      <c r="N190" s="18"/>
-      <c r="O190" s="14"/>
+      <c r="I190" s="17"/>
+      <c r="J190" s="17"/>
+      <c r="K190" s="17"/>
+      <c r="L190" s="17"/>
+      <c r="M190" s="17"/>
+      <c r="N190" s="17"/>
+      <c r="O190" s="17"/>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="13">
@@ -4833,13 +4830,13 @@
       <c r="F191" s="16"/>
       <c r="G191" s="17"/>
       <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="14"/>
-      <c r="K191" s="14"/>
-      <c r="L191" s="14"/>
-      <c r="M191" s="14"/>
-      <c r="N191" s="18"/>
-      <c r="O191" s="14"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="17"/>
+      <c r="L191" s="17"/>
+      <c r="M191" s="17"/>
+      <c r="N191" s="17"/>
+      <c r="O191" s="17"/>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="13">
@@ -4852,13 +4849,13 @@
       <c r="F192" s="16"/>
       <c r="G192" s="17"/>
       <c r="H192" s="14"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="14"/>
-      <c r="K192" s="14"/>
-      <c r="L192" s="14"/>
-      <c r="M192" s="14"/>
-      <c r="N192" s="18"/>
-      <c r="O192" s="14"/>
+      <c r="I192" s="17"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="17"/>
+      <c r="L192" s="17"/>
+      <c r="M192" s="17"/>
+      <c r="N192" s="17"/>
+      <c r="O192" s="17"/>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="13">
@@ -4871,13 +4868,13 @@
       <c r="F193" s="16"/>
       <c r="G193" s="17"/>
       <c r="H193" s="14"/>
-      <c r="I193" s="14"/>
-      <c r="J193" s="14"/>
-      <c r="K193" s="14"/>
-      <c r="L193" s="14"/>
-      <c r="M193" s="14"/>
-      <c r="N193" s="18"/>
-      <c r="O193" s="14"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="17"/>
+      <c r="L193" s="17"/>
+      <c r="M193" s="17"/>
+      <c r="N193" s="17"/>
+      <c r="O193" s="17"/>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
@@ -4890,13 +4887,13 @@
       <c r="F194" s="16"/>
       <c r="G194" s="17"/>
       <c r="H194" s="14"/>
-      <c r="I194" s="14"/>
-      <c r="J194" s="14"/>
-      <c r="K194" s="14"/>
-      <c r="L194" s="14"/>
-      <c r="M194" s="14"/>
-      <c r="N194" s="18"/>
-      <c r="O194" s="14"/>
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="17"/>
+      <c r="L194" s="17"/>
+      <c r="M194" s="17"/>
+      <c r="N194" s="17"/>
+      <c r="O194" s="17"/>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="13">
@@ -4909,13 +4906,13 @@
       <c r="F195" s="16"/>
       <c r="G195" s="17"/>
       <c r="H195" s="14"/>
-      <c r="I195" s="14"/>
-      <c r="J195" s="14"/>
-      <c r="K195" s="14"/>
-      <c r="L195" s="14"/>
-      <c r="M195" s="14"/>
-      <c r="N195" s="18"/>
-      <c r="O195" s="14"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="17"/>
+      <c r="K195" s="17"/>
+      <c r="L195" s="17"/>
+      <c r="M195" s="17"/>
+      <c r="N195" s="17"/>
+      <c r="O195" s="17"/>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="13">
@@ -4928,13 +4925,13 @@
       <c r="F196" s="16"/>
       <c r="G196" s="17"/>
       <c r="H196" s="14"/>
-      <c r="I196" s="14"/>
-      <c r="J196" s="14"/>
-      <c r="K196" s="14"/>
-      <c r="L196" s="14"/>
-      <c r="M196" s="14"/>
-      <c r="N196" s="18"/>
-      <c r="O196" s="14"/>
+      <c r="I196" s="17"/>
+      <c r="J196" s="17"/>
+      <c r="K196" s="17"/>
+      <c r="L196" s="17"/>
+      <c r="M196" s="17"/>
+      <c r="N196" s="17"/>
+      <c r="O196" s="17"/>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="13">
@@ -4947,13 +4944,13 @@
       <c r="F197" s="16"/>
       <c r="G197" s="17"/>
       <c r="H197" s="14"/>
-      <c r="I197" s="14"/>
-      <c r="J197" s="14"/>
-      <c r="K197" s="14"/>
-      <c r="L197" s="14"/>
-      <c r="M197" s="14"/>
-      <c r="N197" s="18"/>
-      <c r="O197" s="14"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="17"/>
+      <c r="L197" s="17"/>
+      <c r="M197" s="17"/>
+      <c r="N197" s="17"/>
+      <c r="O197" s="17"/>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="13">
@@ -4966,13 +4963,13 @@
       <c r="F198" s="16"/>
       <c r="G198" s="17"/>
       <c r="H198" s="14"/>
-      <c r="I198" s="14"/>
-      <c r="J198" s="14"/>
-      <c r="K198" s="14"/>
-      <c r="L198" s="14"/>
-      <c r="M198" s="14"/>
-      <c r="N198" s="18"/>
-      <c r="O198" s="14"/>
+      <c r="I198" s="17"/>
+      <c r="J198" s="17"/>
+      <c r="K198" s="17"/>
+      <c r="L198" s="17"/>
+      <c r="M198" s="17"/>
+      <c r="N198" s="17"/>
+      <c r="O198" s="17"/>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="13">
@@ -4985,13 +4982,13 @@
       <c r="F199" s="16"/>
       <c r="G199" s="17"/>
       <c r="H199" s="14"/>
-      <c r="I199" s="14"/>
-      <c r="J199" s="14"/>
-      <c r="K199" s="14"/>
-      <c r="L199" s="14"/>
-      <c r="M199" s="14"/>
-      <c r="N199" s="18"/>
-      <c r="O199" s="14"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="17"/>
+      <c r="L199" s="17"/>
+      <c r="M199" s="17"/>
+      <c r="N199" s="17"/>
+      <c r="O199" s="17"/>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="13">
@@ -5004,13 +5001,13 @@
       <c r="F200" s="16"/>
       <c r="G200" s="17"/>
       <c r="H200" s="14"/>
-      <c r="I200" s="14"/>
-      <c r="J200" s="14"/>
-      <c r="K200" s="14"/>
-      <c r="L200" s="14"/>
-      <c r="M200" s="14"/>
-      <c r="N200" s="18"/>
-      <c r="O200" s="14"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="17"/>
+      <c r="L200" s="17"/>
+      <c r="M200" s="17"/>
+      <c r="N200" s="17"/>
+      <c r="O200" s="17"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="13">
@@ -5023,13 +5020,13 @@
       <c r="F201" s="16"/>
       <c r="G201" s="17"/>
       <c r="H201" s="14"/>
-      <c r="I201" s="14"/>
-      <c r="J201" s="14"/>
-      <c r="K201" s="14"/>
-      <c r="L201" s="14"/>
-      <c r="M201" s="14"/>
-      <c r="N201" s="18"/>
-      <c r="O201" s="14"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
+      <c r="K201" s="17"/>
+      <c r="L201" s="17"/>
+      <c r="M201" s="17"/>
+      <c r="N201" s="17"/>
+      <c r="O201" s="17"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="13">
@@ -5042,13 +5039,13 @@
       <c r="F202" s="16"/>
       <c r="G202" s="17"/>
       <c r="H202" s="14"/>
-      <c r="I202" s="14"/>
-      <c r="J202" s="14"/>
-      <c r="K202" s="14"/>
-      <c r="L202" s="14"/>
-      <c r="M202" s="14"/>
-      <c r="N202" s="18"/>
-      <c r="O202" s="14"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="17"/>
+      <c r="L202" s="17"/>
+      <c r="M202" s="17"/>
+      <c r="N202" s="17"/>
+      <c r="O202" s="17"/>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="13">
@@ -5061,13 +5058,13 @@
       <c r="F203" s="16"/>
       <c r="G203" s="17"/>
       <c r="H203" s="14"/>
-      <c r="I203" s="14"/>
-      <c r="J203" s="14"/>
-      <c r="K203" s="14"/>
-      <c r="L203" s="14"/>
-      <c r="M203" s="14"/>
-      <c r="N203" s="18"/>
-      <c r="O203" s="14"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
+      <c r="K203" s="17"/>
+      <c r="L203" s="17"/>
+      <c r="M203" s="17"/>
+      <c r="N203" s="17"/>
+      <c r="O203" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5082,49 +5079,49 @@
           <x14:formula1>
             <xm:f>'Lista desplegable'!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H203 I4:O5</xm:sqref>
+          <xm:sqref>H4:H203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0518D584-A0C1-4365-89EA-826AE3A8816B}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I6:I203</xm:sqref>
+          <xm:sqref>I4:I203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B54BFE0-82F1-4F3E-AA97-46420FC127F5}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J203</xm:sqref>
+          <xm:sqref>J4:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9396F51-934C-4AB3-9DCC-8961272525B8}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$F$2:$F$20</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K203</xm:sqref>
+          <xm:sqref>K4:K203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65B6212A-C284-4CA4-9971-E9BF4DF90BA5}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L203</xm:sqref>
+          <xm:sqref>L4:L203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7ABA6FFD-3407-42CF-992F-1DCAAD0754EF}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$H$2:$H$11</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M203</xm:sqref>
+          <xm:sqref>M4:M203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F03CF08C-290F-4862-AC0A-01CA329CA59F}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$I$2:$I$9</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N203</xm:sqref>
+          <xm:sqref>N4:N203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1337F6A1-B813-4316-B79F-E2EB5D27EF01}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$J$2:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>O6:O203</xm:sqref>
+          <xm:sqref>O4:O203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54DCB291-8EC9-4633-BC55-6BE451134F0A}">
           <x14:formula1>
@@ -5143,7 +5140,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,13 +5244,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB34B52-82B7-4633-BD36-52262EF75F31}">
   <dimension ref="A1:J990"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="57" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
@@ -5264,3401 +5261,3401 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>0</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>4</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>0.1</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <v>15</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <v>2</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <v>0</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="31">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>5</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>8</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <v>0.5</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <v>100</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <v>3.4</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="30">
         <v>18</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="31">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>19</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>16</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <v>1</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="34">
+      <c r="G5" s="35"/>
+      <c r="H5" s="33">
         <v>4.1399999999999997</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <v>28</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="31">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="35" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>1.5</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="30">
+      <c r="G6" s="35"/>
+      <c r="H6" s="29">
         <v>5</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="30">
         <v>35</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="35" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>2</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="34">
+      <c r="G7" s="35"/>
+      <c r="H7" s="33">
         <v>6.9</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="30">
         <v>38</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="F8" s="29">
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="F8" s="28">
         <v>2.5</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="30">
+      <c r="G8" s="39"/>
+      <c r="H8" s="29">
         <v>8</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="30">
         <v>55</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="F9" s="29">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="F9" s="28">
         <v>3</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="34">
+      <c r="G9" s="35"/>
+      <c r="H9" s="33">
         <v>9.66</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="30">
         <v>65</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="F10" s="29">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="F10" s="28">
         <v>3.5</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="42">
+      <c r="G10" s="35"/>
+      <c r="H10" s="41">
         <v>11.04</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="F11" s="29">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="F11" s="28">
         <v>4</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="34">
+      <c r="G11" s="35"/>
+      <c r="H11" s="33">
         <v>13.8</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="56" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="F12" s="29">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="F12" s="28">
         <v>6</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="F13" s="29">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="F13" s="28">
         <v>7</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="F14" s="29">
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="F14" s="28">
         <v>8</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="F15" s="29">
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="F15" s="28">
         <v>10</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="F16" s="29">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="F16" s="28">
         <v>11</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="F17" s="29">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="F17" s="28">
         <v>15</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="F18" s="29">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="F18" s="28">
         <v>20</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="55" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="F19" s="29">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="F19" s="28">
         <v>33</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="F20" s="29">
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="F20" s="28">
         <v>35</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="38"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="37"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="52" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="52" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="52" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
+      <c r="B33" s="56"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
+      <c r="B34" s="56"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
+      <c r="B35" s="56"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="57"/>
+      <c r="B36" s="56"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="57"/>
+      <c r="B37" s="56"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
+      <c r="B38" s="56"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
+      <c r="B39" s="56"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
+      <c r="B40" s="56"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="57"/>
+      <c r="B41" s="56"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
+      <c r="B42" s="56"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
+      <c r="B43" s="56"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
+      <c r="B45" s="56"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
+      <c r="B46" s="56"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="57"/>
+      <c r="B47" s="56"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="57"/>
+      <c r="B48" s="56"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
+      <c r="B49" s="56"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="57"/>
+      <c r="B50" s="56"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
+      <c r="B51" s="56"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
+      <c r="B52" s="56"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
+      <c r="B53" s="56"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="57"/>
+      <c r="B54" s="56"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
+      <c r="B55" s="56"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
+      <c r="B56" s="56"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
+      <c r="B57" s="56"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
+      <c r="B58" s="56"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
+      <c r="B59" s="56"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="57"/>
+      <c r="B60" s="56"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="57"/>
+      <c r="B61" s="56"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
+      <c r="B62" s="56"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="57"/>
+      <c r="B63" s="56"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
+      <c r="B64" s="56"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
+      <c r="B65" s="56"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="57"/>
+      <c r="B66" s="56"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
+      <c r="B67" s="56"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="57"/>
+      <c r="B68" s="56"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
+      <c r="B69" s="56"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="57"/>
+      <c r="B70" s="56"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
+      <c r="B71" s="56"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="57"/>
+      <c r="B72" s="56"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="57"/>
+      <c r="B73" s="56"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
+      <c r="B74" s="56"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="57"/>
+      <c r="B75" s="56"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
+      <c r="B76" s="56"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="57"/>
+      <c r="B77" s="56"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="57"/>
+      <c r="B78" s="56"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="57"/>
+      <c r="B79" s="56"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="57"/>
+      <c r="B80" s="56"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="57"/>
+      <c r="B81" s="56"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
+      <c r="B82" s="56"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="57"/>
+      <c r="B83" s="56"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="57"/>
+      <c r="B84" s="56"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
+      <c r="B85" s="56"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
+      <c r="B86" s="56"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="57"/>
+      <c r="B87" s="56"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="57"/>
+      <c r="B88" s="56"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="57"/>
+      <c r="B89" s="56"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="57"/>
+      <c r="B90" s="56"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="57"/>
+      <c r="B91" s="56"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="57"/>
+      <c r="B92" s="56"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="57"/>
+      <c r="B93" s="56"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="57"/>
+      <c r="B94" s="56"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="57"/>
+      <c r="B95" s="56"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="57"/>
+      <c r="B96" s="56"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
+      <c r="B97" s="56"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="57"/>
+      <c r="B98" s="56"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="57"/>
+      <c r="B99" s="56"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="57"/>
+      <c r="B100" s="56"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="57"/>
+      <c r="B101" s="56"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="57"/>
+      <c r="B102" s="56"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="57"/>
+      <c r="B103" s="56"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
+      <c r="B104" s="56"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
+      <c r="B105" s="56"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="57"/>
+      <c r="B106" s="56"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="57"/>
+      <c r="B107" s="56"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
+      <c r="B108" s="56"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="57"/>
+      <c r="B109" s="56"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="57"/>
+      <c r="B110" s="56"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
+      <c r="B111" s="56"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="57"/>
+      <c r="B112" s="56"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="57"/>
+      <c r="B113" s="56"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="57"/>
+      <c r="B114" s="56"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="57"/>
+      <c r="B115" s="56"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="57"/>
+      <c r="B116" s="56"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="57"/>
+      <c r="B117" s="56"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="57"/>
+      <c r="B118" s="56"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="57"/>
+      <c r="B119" s="56"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="57"/>
+      <c r="B120" s="56"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="57"/>
+      <c r="B121" s="56"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="57"/>
+      <c r="B122" s="56"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="57"/>
+      <c r="B123" s="56"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="57"/>
+      <c r="B124" s="56"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="57"/>
+      <c r="B125" s="56"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="57"/>
+      <c r="B126" s="56"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="57"/>
+      <c r="B127" s="56"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="57"/>
+      <c r="B128" s="56"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="57"/>
+      <c r="B129" s="56"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="57"/>
+      <c r="B130" s="56"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="57"/>
+      <c r="B131" s="56"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="57"/>
+      <c r="B132" s="56"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="57"/>
+      <c r="B133" s="56"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="57"/>
+      <c r="B134" s="56"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="57"/>
+      <c r="B135" s="56"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="57"/>
+      <c r="B136" s="56"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="57"/>
+      <c r="B137" s="56"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="57"/>
+      <c r="B138" s="56"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="57"/>
+      <c r="B139" s="56"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="57"/>
+      <c r="B140" s="56"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="57"/>
+      <c r="B141" s="56"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="57"/>
+      <c r="B142" s="56"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="57"/>
+      <c r="B143" s="56"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="57"/>
+      <c r="B144" s="56"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="57"/>
+      <c r="B145" s="56"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="57"/>
+      <c r="B146" s="56"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="57"/>
+      <c r="B147" s="56"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="57"/>
+      <c r="B148" s="56"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="57"/>
+      <c r="B149" s="56"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="57"/>
+      <c r="B150" s="56"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="57"/>
+      <c r="B151" s="56"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="57"/>
+      <c r="B152" s="56"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="57"/>
+      <c r="B153" s="56"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="57"/>
+      <c r="B154" s="56"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="57"/>
+      <c r="B155" s="56"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="57"/>
+      <c r="B156" s="56"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="57"/>
+      <c r="B157" s="56"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="57"/>
+      <c r="B158" s="56"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="57"/>
+      <c r="B159" s="56"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="57"/>
+      <c r="B160" s="56"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="57"/>
+      <c r="B161" s="56"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="57"/>
+      <c r="B162" s="56"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="57"/>
+      <c r="B163" s="56"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="57"/>
+      <c r="B164" s="56"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="57"/>
+      <c r="B165" s="56"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="57"/>
+      <c r="B166" s="56"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="57"/>
+      <c r="B167" s="56"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="57"/>
+      <c r="B168" s="56"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="57"/>
+      <c r="B169" s="56"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="57"/>
+      <c r="B170" s="56"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="57"/>
+      <c r="B171" s="56"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="57"/>
+      <c r="B172" s="56"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="57"/>
+      <c r="B173" s="56"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="57"/>
+      <c r="B174" s="56"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="57"/>
+      <c r="B175" s="56"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="57"/>
+      <c r="B176" s="56"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="57"/>
+      <c r="B177" s="56"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="57"/>
+      <c r="B178" s="56"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="57"/>
+      <c r="B179" s="56"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="57"/>
+      <c r="B180" s="56"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="57"/>
+      <c r="B181" s="56"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="57"/>
+      <c r="B182" s="56"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="57"/>
+      <c r="B183" s="56"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="57"/>
+      <c r="B184" s="56"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="57"/>
+      <c r="B185" s="56"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="57"/>
+      <c r="B186" s="56"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="57"/>
+      <c r="B187" s="56"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="57"/>
+      <c r="B188" s="56"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="57"/>
+      <c r="B189" s="56"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="57"/>
+      <c r="B190" s="56"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="57"/>
+      <c r="B191" s="56"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="57"/>
+      <c r="B192" s="56"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="57"/>
+      <c r="B193" s="56"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="57"/>
+      <c r="B194" s="56"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="57"/>
+      <c r="B195" s="56"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="57"/>
+      <c r="B196" s="56"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="57"/>
+      <c r="B197" s="56"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="57"/>
+      <c r="B198" s="56"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="57"/>
+      <c r="B199" s="56"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="57"/>
+      <c r="B200" s="56"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="57"/>
+      <c r="B201" s="56"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="57"/>
+      <c r="B202" s="56"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="57"/>
+      <c r="B203" s="56"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="57"/>
+      <c r="B204" s="56"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="57"/>
+      <c r="B205" s="56"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="57"/>
+      <c r="B206" s="56"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="57"/>
+      <c r="B207" s="56"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="57"/>
+      <c r="B208" s="56"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="57"/>
+      <c r="B209" s="56"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="57"/>
+      <c r="B210" s="56"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="57"/>
+      <c r="B211" s="56"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="57"/>
+      <c r="B212" s="56"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="57"/>
+      <c r="B213" s="56"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="57"/>
+      <c r="B214" s="56"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="57"/>
+      <c r="B215" s="56"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="57"/>
+      <c r="B216" s="56"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="57"/>
+      <c r="B217" s="56"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="57"/>
+      <c r="B218" s="56"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="57"/>
+      <c r="B219" s="56"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="57"/>
+      <c r="B220" s="56"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="57"/>
+      <c r="B221" s="56"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="57"/>
+      <c r="B222" s="56"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="57"/>
+      <c r="B223" s="56"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="57"/>
+      <c r="B224" s="56"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="57"/>
+      <c r="B225" s="56"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="57"/>
+      <c r="B226" s="56"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="57"/>
+      <c r="B227" s="56"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="57"/>
+      <c r="B228" s="56"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="57"/>
+      <c r="B229" s="56"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="57"/>
+      <c r="B230" s="56"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="57"/>
+      <c r="B231" s="56"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="57"/>
+      <c r="B232" s="56"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="57"/>
+      <c r="B233" s="56"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="57"/>
+      <c r="B234" s="56"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="57"/>
+      <c r="B235" s="56"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="57"/>
+      <c r="B236" s="56"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="57"/>
+      <c r="B237" s="56"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="57"/>
+      <c r="B238" s="56"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="57"/>
+      <c r="B239" s="56"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="57"/>
+      <c r="B240" s="56"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="57"/>
+      <c r="B241" s="56"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="57"/>
+      <c r="B242" s="56"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="57"/>
+      <c r="B243" s="56"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="57"/>
+      <c r="B244" s="56"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="57"/>
+      <c r="B245" s="56"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="57"/>
+      <c r="B246" s="56"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="57"/>
+      <c r="B247" s="56"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="57"/>
+      <c r="B248" s="56"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="57"/>
+      <c r="B249" s="56"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="57"/>
+      <c r="B250" s="56"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="57"/>
+      <c r="B251" s="56"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="57"/>
+      <c r="B252" s="56"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="57"/>
+      <c r="B253" s="56"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="57"/>
+      <c r="B254" s="56"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="57"/>
+      <c r="B255" s="56"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="57"/>
+      <c r="B256" s="56"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="57"/>
+      <c r="B257" s="56"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="57"/>
+      <c r="B258" s="56"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="57"/>
+      <c r="B259" s="56"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="57"/>
+      <c r="B260" s="56"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="57"/>
+      <c r="B261" s="56"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="57"/>
+      <c r="B262" s="56"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="57"/>
+      <c r="B263" s="56"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="57"/>
+      <c r="B264" s="56"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="57"/>
+      <c r="B265" s="56"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="57"/>
+      <c r="B266" s="56"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="57"/>
+      <c r="B267" s="56"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="57"/>
+      <c r="B268" s="56"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="57"/>
+      <c r="B269" s="56"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="57"/>
+      <c r="B270" s="56"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="57"/>
+      <c r="B271" s="56"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="57"/>
+      <c r="B272" s="56"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="57"/>
+      <c r="B273" s="56"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="57"/>
+      <c r="B274" s="56"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" s="57"/>
+      <c r="B275" s="56"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="57"/>
+      <c r="B276" s="56"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="57"/>
+      <c r="B277" s="56"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="57"/>
+      <c r="B278" s="56"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="57"/>
+      <c r="B279" s="56"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" s="57"/>
+      <c r="B280" s="56"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="57"/>
+      <c r="B281" s="56"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="57"/>
+      <c r="B282" s="56"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" s="57"/>
+      <c r="B283" s="56"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="57"/>
+      <c r="B284" s="56"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" s="57"/>
+      <c r="B285" s="56"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="57"/>
+      <c r="B286" s="56"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" s="57"/>
+      <c r="B287" s="56"/>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" s="57"/>
+      <c r="B288" s="56"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" s="57"/>
+      <c r="B289" s="56"/>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="57"/>
+      <c r="B290" s="56"/>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="57"/>
+      <c r="B291" s="56"/>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="57"/>
+      <c r="B292" s="56"/>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" s="57"/>
+      <c r="B293" s="56"/>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" s="57"/>
+      <c r="B294" s="56"/>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" s="57"/>
+      <c r="B295" s="56"/>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" s="57"/>
+      <c r="B296" s="56"/>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" s="57"/>
+      <c r="B297" s="56"/>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="57"/>
+      <c r="B298" s="56"/>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" s="57"/>
+      <c r="B299" s="56"/>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" s="57"/>
+      <c r="B300" s="56"/>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="57"/>
+      <c r="B301" s="56"/>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" s="57"/>
+      <c r="B302" s="56"/>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" s="57"/>
+      <c r="B303" s="56"/>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" s="57"/>
+      <c r="B304" s="56"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" s="57"/>
+      <c r="B305" s="56"/>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" s="57"/>
+      <c r="B306" s="56"/>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B307" s="57"/>
+      <c r="B307" s="56"/>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" s="57"/>
+      <c r="B308" s="56"/>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" s="57"/>
+      <c r="B309" s="56"/>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" s="57"/>
+      <c r="B310" s="56"/>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" s="57"/>
+      <c r="B311" s="56"/>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" s="57"/>
+      <c r="B312" s="56"/>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" s="57"/>
+      <c r="B313" s="56"/>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" s="57"/>
+      <c r="B314" s="56"/>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" s="57"/>
+      <c r="B315" s="56"/>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="57"/>
+      <c r="B316" s="56"/>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" s="57"/>
+      <c r="B317" s="56"/>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" s="57"/>
+      <c r="B318" s="56"/>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B319" s="57"/>
+      <c r="B319" s="56"/>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B320" s="57"/>
+      <c r="B320" s="56"/>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B321" s="57"/>
+      <c r="B321" s="56"/>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" s="57"/>
+      <c r="B322" s="56"/>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" s="57"/>
+      <c r="B323" s="56"/>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" s="57"/>
+      <c r="B324" s="56"/>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" s="57"/>
+      <c r="B325" s="56"/>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" s="57"/>
+      <c r="B326" s="56"/>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B327" s="57"/>
+      <c r="B327" s="56"/>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" s="57"/>
+      <c r="B328" s="56"/>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" s="57"/>
+      <c r="B329" s="56"/>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B330" s="57"/>
+      <c r="B330" s="56"/>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B331" s="57"/>
+      <c r="B331" s="56"/>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" s="57"/>
+      <c r="B332" s="56"/>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B333" s="57"/>
+      <c r="B333" s="56"/>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B334" s="57"/>
+      <c r="B334" s="56"/>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B335" s="57"/>
+      <c r="B335" s="56"/>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B336" s="57"/>
+      <c r="B336" s="56"/>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" s="57"/>
+      <c r="B337" s="56"/>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" s="57"/>
+      <c r="B338" s="56"/>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B339" s="57"/>
+      <c r="B339" s="56"/>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B340" s="57"/>
+      <c r="B340" s="56"/>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" s="57"/>
+      <c r="B341" s="56"/>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" s="57"/>
+      <c r="B342" s="56"/>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" s="57"/>
+      <c r="B343" s="56"/>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" s="57"/>
+      <c r="B344" s="56"/>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" s="57"/>
+      <c r="B345" s="56"/>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" s="57"/>
+      <c r="B346" s="56"/>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" s="57"/>
+      <c r="B347" s="56"/>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" s="57"/>
+      <c r="B348" s="56"/>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" s="57"/>
+      <c r="B349" s="56"/>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" s="57"/>
+      <c r="B350" s="56"/>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" s="57"/>
+      <c r="B351" s="56"/>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" s="57"/>
+      <c r="B352" s="56"/>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" s="57"/>
+      <c r="B353" s="56"/>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" s="57"/>
+      <c r="B354" s="56"/>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" s="57"/>
+      <c r="B355" s="56"/>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" s="57"/>
+      <c r="B356" s="56"/>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" s="57"/>
+      <c r="B357" s="56"/>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" s="57"/>
+      <c r="B358" s="56"/>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" s="57"/>
+      <c r="B359" s="56"/>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B360" s="57"/>
+      <c r="B360" s="56"/>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B361" s="57"/>
+      <c r="B361" s="56"/>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" s="57"/>
+      <c r="B362" s="56"/>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B363" s="57"/>
+      <c r="B363" s="56"/>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B364" s="57"/>
+      <c r="B364" s="56"/>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" s="57"/>
+      <c r="B365" s="56"/>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" s="57"/>
+      <c r="B366" s="56"/>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" s="57"/>
+      <c r="B367" s="56"/>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" s="57"/>
+      <c r="B368" s="56"/>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" s="57"/>
+      <c r="B369" s="56"/>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" s="57"/>
+      <c r="B370" s="56"/>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" s="57"/>
+      <c r="B371" s="56"/>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B372" s="57"/>
+      <c r="B372" s="56"/>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" s="57"/>
+      <c r="B373" s="56"/>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" s="57"/>
+      <c r="B374" s="56"/>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" s="57"/>
+      <c r="B375" s="56"/>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" s="57"/>
+      <c r="B376" s="56"/>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" s="57"/>
+      <c r="B377" s="56"/>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B378" s="57"/>
+      <c r="B378" s="56"/>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B379" s="57"/>
+      <c r="B379" s="56"/>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" s="57"/>
+      <c r="B380" s="56"/>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B381" s="57"/>
+      <c r="B381" s="56"/>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B382" s="57"/>
+      <c r="B382" s="56"/>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" s="57"/>
+      <c r="B383" s="56"/>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" s="57"/>
+      <c r="B384" s="56"/>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B385" s="57"/>
+      <c r="B385" s="56"/>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" s="57"/>
+      <c r="B386" s="56"/>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B387" s="57"/>
+      <c r="B387" s="56"/>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" s="57"/>
+      <c r="B388" s="56"/>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" s="57"/>
+      <c r="B389" s="56"/>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B390" s="57"/>
+      <c r="B390" s="56"/>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" s="57"/>
+      <c r="B391" s="56"/>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B392" s="57"/>
+      <c r="B392" s="56"/>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B393" s="57"/>
+      <c r="B393" s="56"/>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B394" s="57"/>
+      <c r="B394" s="56"/>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" s="57"/>
+      <c r="B395" s="56"/>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B396" s="57"/>
+      <c r="B396" s="56"/>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B397" s="57"/>
+      <c r="B397" s="56"/>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" s="57"/>
+      <c r="B398" s="56"/>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B399" s="57"/>
+      <c r="B399" s="56"/>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B400" s="57"/>
+      <c r="B400" s="56"/>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B401" s="57"/>
+      <c r="B401" s="56"/>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B402" s="57"/>
+      <c r="B402" s="56"/>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B403" s="57"/>
+      <c r="B403" s="56"/>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" s="57"/>
+      <c r="B404" s="56"/>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B405" s="57"/>
+      <c r="B405" s="56"/>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" s="57"/>
+      <c r="B406" s="56"/>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B407" s="57"/>
+      <c r="B407" s="56"/>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" s="57"/>
+      <c r="B408" s="56"/>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B409" s="57"/>
+      <c r="B409" s="56"/>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" s="57"/>
+      <c r="B410" s="56"/>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B411" s="57"/>
+      <c r="B411" s="56"/>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B412" s="57"/>
+      <c r="B412" s="56"/>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B413" s="57"/>
+      <c r="B413" s="56"/>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B414" s="57"/>
+      <c r="B414" s="56"/>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B415" s="57"/>
+      <c r="B415" s="56"/>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B416" s="57"/>
+      <c r="B416" s="56"/>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B417" s="57"/>
+      <c r="B417" s="56"/>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B418" s="57"/>
+      <c r="B418" s="56"/>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B419" s="57"/>
+      <c r="B419" s="56"/>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B420" s="57"/>
+      <c r="B420" s="56"/>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B421" s="57"/>
+      <c r="B421" s="56"/>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B422" s="57"/>
+      <c r="B422" s="56"/>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B423" s="57"/>
+      <c r="B423" s="56"/>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B424" s="57"/>
+      <c r="B424" s="56"/>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B425" s="57"/>
+      <c r="B425" s="56"/>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B426" s="57"/>
+      <c r="B426" s="56"/>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B427" s="57"/>
+      <c r="B427" s="56"/>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" s="57"/>
+      <c r="B428" s="56"/>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B429" s="57"/>
+      <c r="B429" s="56"/>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B430" s="57"/>
+      <c r="B430" s="56"/>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B431" s="57"/>
+      <c r="B431" s="56"/>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B432" s="57"/>
+      <c r="B432" s="56"/>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B433" s="57"/>
+      <c r="B433" s="56"/>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B434" s="57"/>
+      <c r="B434" s="56"/>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B435" s="57"/>
+      <c r="B435" s="56"/>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B436" s="57"/>
+      <c r="B436" s="56"/>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B437" s="57"/>
+      <c r="B437" s="56"/>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B438" s="57"/>
+      <c r="B438" s="56"/>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B439" s="57"/>
+      <c r="B439" s="56"/>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B440" s="57"/>
+      <c r="B440" s="56"/>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B441" s="57"/>
+      <c r="B441" s="56"/>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B442" s="57"/>
+      <c r="B442" s="56"/>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B443" s="57"/>
+      <c r="B443" s="56"/>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B444" s="57"/>
+      <c r="B444" s="56"/>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B445" s="57"/>
+      <c r="B445" s="56"/>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B446" s="57"/>
+      <c r="B446" s="56"/>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B447" s="57"/>
+      <c r="B447" s="56"/>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B448" s="57"/>
+      <c r="B448" s="56"/>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B449" s="57"/>
+      <c r="B449" s="56"/>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B450" s="57"/>
+      <c r="B450" s="56"/>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B451" s="57"/>
+      <c r="B451" s="56"/>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B452" s="57"/>
+      <c r="B452" s="56"/>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B453" s="57"/>
+      <c r="B453" s="56"/>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B454" s="57"/>
+      <c r="B454" s="56"/>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B455" s="57"/>
+      <c r="B455" s="56"/>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B456" s="57"/>
+      <c r="B456" s="56"/>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B457" s="57"/>
+      <c r="B457" s="56"/>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B458" s="57"/>
+      <c r="B458" s="56"/>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B459" s="57"/>
+      <c r="B459" s="56"/>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B460" s="57"/>
+      <c r="B460" s="56"/>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B461" s="57"/>
+      <c r="B461" s="56"/>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B462" s="57"/>
+      <c r="B462" s="56"/>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B463" s="57"/>
+      <c r="B463" s="56"/>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B464" s="57"/>
+      <c r="B464" s="56"/>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B465" s="57"/>
+      <c r="B465" s="56"/>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B466" s="57"/>
+      <c r="B466" s="56"/>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B467" s="57"/>
+      <c r="B467" s="56"/>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B468" s="57"/>
+      <c r="B468" s="56"/>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B469" s="57"/>
+      <c r="B469" s="56"/>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B470" s="57"/>
+      <c r="B470" s="56"/>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B471" s="57"/>
+      <c r="B471" s="56"/>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B472" s="57"/>
+      <c r="B472" s="56"/>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B473" s="57"/>
+      <c r="B473" s="56"/>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B474" s="57"/>
+      <c r="B474" s="56"/>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B475" s="57"/>
+      <c r="B475" s="56"/>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B476" s="57"/>
+      <c r="B476" s="56"/>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B477" s="57"/>
+      <c r="B477" s="56"/>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B478" s="57"/>
+      <c r="B478" s="56"/>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B479" s="57"/>
+      <c r="B479" s="56"/>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B480" s="57"/>
+      <c r="B480" s="56"/>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B481" s="57"/>
+      <c r="B481" s="56"/>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B482" s="57"/>
+      <c r="B482" s="56"/>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B483" s="57"/>
+      <c r="B483" s="56"/>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B484" s="57"/>
+      <c r="B484" s="56"/>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B485" s="57"/>
+      <c r="B485" s="56"/>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B486" s="57"/>
+      <c r="B486" s="56"/>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B487" s="57"/>
+      <c r="B487" s="56"/>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B488" s="57"/>
+      <c r="B488" s="56"/>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B489" s="57"/>
+      <c r="B489" s="56"/>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B490" s="57"/>
+      <c r="B490" s="56"/>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B491" s="57"/>
+      <c r="B491" s="56"/>
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B492" s="57"/>
+      <c r="B492" s="56"/>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B493" s="57"/>
+      <c r="B493" s="56"/>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B494" s="57"/>
+      <c r="B494" s="56"/>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B495" s="57"/>
+      <c r="B495" s="56"/>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B496" s="57"/>
+      <c r="B496" s="56"/>
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B497" s="57"/>
+      <c r="B497" s="56"/>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B498" s="57"/>
+      <c r="B498" s="56"/>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B499" s="57"/>
+      <c r="B499" s="56"/>
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B500" s="57"/>
+      <c r="B500" s="56"/>
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B501" s="57"/>
+      <c r="B501" s="56"/>
     </row>
     <row r="502" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B502" s="57"/>
+      <c r="B502" s="56"/>
     </row>
     <row r="503" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B503" s="57"/>
+      <c r="B503" s="56"/>
     </row>
     <row r="504" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B504" s="57"/>
+      <c r="B504" s="56"/>
     </row>
     <row r="505" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B505" s="57"/>
+      <c r="B505" s="56"/>
     </row>
     <row r="506" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B506" s="57"/>
+      <c r="B506" s="56"/>
     </row>
     <row r="507" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B507" s="57"/>
+      <c r="B507" s="56"/>
     </row>
     <row r="508" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B508" s="57"/>
+      <c r="B508" s="56"/>
     </row>
     <row r="509" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B509" s="57"/>
+      <c r="B509" s="56"/>
     </row>
     <row r="510" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B510" s="57"/>
+      <c r="B510" s="56"/>
     </row>
     <row r="511" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B511" s="57"/>
+      <c r="B511" s="56"/>
     </row>
     <row r="512" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B512" s="57"/>
+      <c r="B512" s="56"/>
     </row>
     <row r="513" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B513" s="57"/>
+      <c r="B513" s="56"/>
     </row>
     <row r="514" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B514" s="57"/>
+      <c r="B514" s="56"/>
     </row>
     <row r="515" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B515" s="57"/>
+      <c r="B515" s="56"/>
     </row>
     <row r="516" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B516" s="57"/>
+      <c r="B516" s="56"/>
     </row>
     <row r="517" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B517" s="57"/>
+      <c r="B517" s="56"/>
     </row>
     <row r="518" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B518" s="57"/>
+      <c r="B518" s="56"/>
     </row>
     <row r="519" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B519" s="57"/>
+      <c r="B519" s="56"/>
     </row>
     <row r="520" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B520" s="57"/>
+      <c r="B520" s="56"/>
     </row>
     <row r="521" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B521" s="57"/>
+      <c r="B521" s="56"/>
     </row>
     <row r="522" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B522" s="57"/>
+      <c r="B522" s="56"/>
     </row>
     <row r="523" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B523" s="57"/>
+      <c r="B523" s="56"/>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B524" s="57"/>
+      <c r="B524" s="56"/>
     </row>
     <row r="525" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B525" s="57"/>
+      <c r="B525" s="56"/>
     </row>
     <row r="526" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B526" s="57"/>
+      <c r="B526" s="56"/>
     </row>
     <row r="527" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B527" s="57"/>
+      <c r="B527" s="56"/>
     </row>
     <row r="528" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B528" s="57"/>
+      <c r="B528" s="56"/>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B529" s="57"/>
+      <c r="B529" s="56"/>
     </row>
     <row r="530" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B530" s="57"/>
+      <c r="B530" s="56"/>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B531" s="57"/>
+      <c r="B531" s="56"/>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B532" s="57"/>
+      <c r="B532" s="56"/>
     </row>
     <row r="533" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B533" s="57"/>
+      <c r="B533" s="56"/>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B534" s="57"/>
+      <c r="B534" s="56"/>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B535" s="57"/>
+      <c r="B535" s="56"/>
     </row>
     <row r="536" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B536" s="57"/>
+      <c r="B536" s="56"/>
     </row>
     <row r="537" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B537" s="57"/>
+      <c r="B537" s="56"/>
     </row>
     <row r="538" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B538" s="57"/>
+      <c r="B538" s="56"/>
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B539" s="57"/>
+      <c r="B539" s="56"/>
     </row>
     <row r="540" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B540" s="57"/>
+      <c r="B540" s="56"/>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B541" s="57"/>
+      <c r="B541" s="56"/>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B542" s="57"/>
+      <c r="B542" s="56"/>
     </row>
     <row r="543" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B543" s="57"/>
+      <c r="B543" s="56"/>
     </row>
     <row r="544" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B544" s="57"/>
+      <c r="B544" s="56"/>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B545" s="57"/>
+      <c r="B545" s="56"/>
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B546" s="57"/>
+      <c r="B546" s="56"/>
     </row>
     <row r="547" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B547" s="57"/>
+      <c r="B547" s="56"/>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B548" s="57"/>
+      <c r="B548" s="56"/>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B549" s="57"/>
+      <c r="B549" s="56"/>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B550" s="57"/>
+      <c r="B550" s="56"/>
     </row>
     <row r="551" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B551" s="57"/>
+      <c r="B551" s="56"/>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B552" s="57"/>
+      <c r="B552" s="56"/>
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B553" s="57"/>
+      <c r="B553" s="56"/>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B554" s="57"/>
+      <c r="B554" s="56"/>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B555" s="57"/>
+      <c r="B555" s="56"/>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B556" s="57"/>
+      <c r="B556" s="56"/>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B557" s="57"/>
+      <c r="B557" s="56"/>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B558" s="57"/>
+      <c r="B558" s="56"/>
     </row>
     <row r="559" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B559" s="57"/>
+      <c r="B559" s="56"/>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B560" s="57"/>
+      <c r="B560" s="56"/>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B561" s="57"/>
+      <c r="B561" s="56"/>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B562" s="57"/>
+      <c r="B562" s="56"/>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B563" s="57"/>
+      <c r="B563" s="56"/>
     </row>
     <row r="564" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B564" s="57"/>
+      <c r="B564" s="56"/>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B565" s="57"/>
+      <c r="B565" s="56"/>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B566" s="57"/>
+      <c r="B566" s="56"/>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B567" s="57"/>
+      <c r="B567" s="56"/>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B568" s="57"/>
+      <c r="B568" s="56"/>
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B569" s="57"/>
+      <c r="B569" s="56"/>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B570" s="57"/>
+      <c r="B570" s="56"/>
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B571" s="57"/>
+      <c r="B571" s="56"/>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B572" s="57"/>
+      <c r="B572" s="56"/>
     </row>
     <row r="573" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B573" s="57"/>
+      <c r="B573" s="56"/>
     </row>
     <row r="574" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B574" s="57"/>
+      <c r="B574" s="56"/>
     </row>
     <row r="575" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B575" s="57"/>
+      <c r="B575" s="56"/>
     </row>
     <row r="576" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B576" s="57"/>
+      <c r="B576" s="56"/>
     </row>
     <row r="577" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B577" s="57"/>
+      <c r="B577" s="56"/>
     </row>
     <row r="578" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B578" s="57"/>
+      <c r="B578" s="56"/>
     </row>
     <row r="579" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B579" s="57"/>
+      <c r="B579" s="56"/>
     </row>
     <row r="580" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B580" s="57"/>
+      <c r="B580" s="56"/>
     </row>
     <row r="581" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B581" s="57"/>
+      <c r="B581" s="56"/>
     </row>
     <row r="582" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B582" s="57"/>
+      <c r="B582" s="56"/>
     </row>
     <row r="583" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B583" s="57"/>
+      <c r="B583" s="56"/>
     </row>
     <row r="584" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B584" s="57"/>
+      <c r="B584" s="56"/>
     </row>
     <row r="585" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B585" s="57"/>
+      <c r="B585" s="56"/>
     </row>
     <row r="586" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B586" s="57"/>
+      <c r="B586" s="56"/>
     </row>
     <row r="587" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B587" s="57"/>
+      <c r="B587" s="56"/>
     </row>
     <row r="588" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B588" s="57"/>
+      <c r="B588" s="56"/>
     </row>
     <row r="589" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B589" s="57"/>
+      <c r="B589" s="56"/>
     </row>
     <row r="590" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B590" s="57"/>
+      <c r="B590" s="56"/>
     </row>
     <row r="591" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B591" s="57"/>
+      <c r="B591" s="56"/>
     </row>
     <row r="592" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B592" s="57"/>
+      <c r="B592" s="56"/>
     </row>
     <row r="593" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B593" s="57"/>
+      <c r="B593" s="56"/>
     </row>
     <row r="594" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B594" s="57"/>
+      <c r="B594" s="56"/>
     </row>
     <row r="595" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B595" s="57"/>
+      <c r="B595" s="56"/>
     </row>
     <row r="596" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B596" s="57"/>
+      <c r="B596" s="56"/>
     </row>
     <row r="597" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B597" s="57"/>
+      <c r="B597" s="56"/>
     </row>
     <row r="598" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B598" s="57"/>
+      <c r="B598" s="56"/>
     </row>
     <row r="599" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B599" s="57"/>
+      <c r="B599" s="56"/>
     </row>
     <row r="600" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B600" s="57"/>
+      <c r="B600" s="56"/>
     </row>
     <row r="601" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B601" s="57"/>
+      <c r="B601" s="56"/>
     </row>
     <row r="602" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B602" s="57"/>
+      <c r="B602" s="56"/>
     </row>
     <row r="603" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B603" s="57"/>
+      <c r="B603" s="56"/>
     </row>
     <row r="604" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B604" s="57"/>
+      <c r="B604" s="56"/>
     </row>
     <row r="605" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B605" s="57"/>
+      <c r="B605" s="56"/>
     </row>
     <row r="606" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B606" s="57"/>
+      <c r="B606" s="56"/>
     </row>
     <row r="607" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B607" s="57"/>
+      <c r="B607" s="56"/>
     </row>
     <row r="608" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B608" s="57"/>
+      <c r="B608" s="56"/>
     </row>
     <row r="609" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B609" s="57"/>
+      <c r="B609" s="56"/>
     </row>
     <row r="610" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B610" s="57"/>
+      <c r="B610" s="56"/>
     </row>
     <row r="611" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B611" s="57"/>
+      <c r="B611" s="56"/>
     </row>
     <row r="612" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B612" s="57"/>
+      <c r="B612" s="56"/>
     </row>
     <row r="613" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B613" s="57"/>
+      <c r="B613" s="56"/>
     </row>
     <row r="614" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B614" s="57"/>
+      <c r="B614" s="56"/>
     </row>
     <row r="615" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B615" s="57"/>
+      <c r="B615" s="56"/>
     </row>
     <row r="616" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B616" s="57"/>
+      <c r="B616" s="56"/>
     </row>
     <row r="617" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B617" s="57"/>
+      <c r="B617" s="56"/>
     </row>
     <row r="618" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B618" s="57"/>
+      <c r="B618" s="56"/>
     </row>
     <row r="619" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B619" s="57"/>
+      <c r="B619" s="56"/>
     </row>
     <row r="620" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B620" s="57"/>
+      <c r="B620" s="56"/>
     </row>
     <row r="621" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B621" s="57"/>
+      <c r="B621" s="56"/>
     </row>
     <row r="622" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B622" s="57"/>
+      <c r="B622" s="56"/>
     </row>
     <row r="623" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B623" s="57"/>
+      <c r="B623" s="56"/>
     </row>
     <row r="624" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B624" s="57"/>
+      <c r="B624" s="56"/>
     </row>
     <row r="625" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B625" s="57"/>
+      <c r="B625" s="56"/>
     </row>
     <row r="626" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B626" s="57"/>
+      <c r="B626" s="56"/>
     </row>
     <row r="627" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B627" s="57"/>
+      <c r="B627" s="56"/>
     </row>
     <row r="628" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B628" s="57"/>
+      <c r="B628" s="56"/>
     </row>
     <row r="629" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B629" s="57"/>
+      <c r="B629" s="56"/>
     </row>
     <row r="630" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B630" s="57"/>
+      <c r="B630" s="56"/>
     </row>
     <row r="631" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B631" s="57"/>
+      <c r="B631" s="56"/>
     </row>
     <row r="632" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B632" s="57"/>
+      <c r="B632" s="56"/>
     </row>
     <row r="633" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B633" s="57"/>
+      <c r="B633" s="56"/>
     </row>
     <row r="634" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B634" s="57"/>
+      <c r="B634" s="56"/>
     </row>
     <row r="635" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B635" s="57"/>
+      <c r="B635" s="56"/>
     </row>
     <row r="636" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B636" s="57"/>
+      <c r="B636" s="56"/>
     </row>
     <row r="637" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B637" s="57"/>
+      <c r="B637" s="56"/>
     </row>
     <row r="638" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B638" s="57"/>
+      <c r="B638" s="56"/>
     </row>
     <row r="639" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B639" s="57"/>
+      <c r="B639" s="56"/>
     </row>
     <row r="640" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B640" s="57"/>
+      <c r="B640" s="56"/>
     </row>
     <row r="641" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B641" s="57"/>
+      <c r="B641" s="56"/>
     </row>
     <row r="642" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B642" s="57"/>
+      <c r="B642" s="56"/>
     </row>
     <row r="643" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B643" s="57"/>
+      <c r="B643" s="56"/>
     </row>
     <row r="644" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B644" s="57"/>
+      <c r="B644" s="56"/>
     </row>
     <row r="645" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B645" s="57"/>
+      <c r="B645" s="56"/>
     </row>
     <row r="646" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B646" s="57"/>
+      <c r="B646" s="56"/>
     </row>
     <row r="647" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B647" s="57"/>
+      <c r="B647" s="56"/>
     </row>
     <row r="648" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B648" s="57"/>
+      <c r="B648" s="56"/>
     </row>
     <row r="649" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B649" s="57"/>
+      <c r="B649" s="56"/>
     </row>
     <row r="650" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B650" s="57"/>
+      <c r="B650" s="56"/>
     </row>
     <row r="651" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B651" s="57"/>
+      <c r="B651" s="56"/>
     </row>
     <row r="652" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B652" s="57"/>
+      <c r="B652" s="56"/>
     </row>
     <row r="653" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B653" s="57"/>
+      <c r="B653" s="56"/>
     </row>
     <row r="654" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B654" s="57"/>
+      <c r="B654" s="56"/>
     </row>
     <row r="655" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B655" s="57"/>
+      <c r="B655" s="56"/>
     </row>
     <row r="656" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B656" s="57"/>
+      <c r="B656" s="56"/>
     </row>
     <row r="657" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B657" s="57"/>
+      <c r="B657" s="56"/>
     </row>
     <row r="658" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B658" s="57"/>
+      <c r="B658" s="56"/>
     </row>
     <row r="659" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B659" s="57"/>
+      <c r="B659" s="56"/>
     </row>
     <row r="660" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B660" s="57"/>
+      <c r="B660" s="56"/>
     </row>
     <row r="661" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B661" s="57"/>
+      <c r="B661" s="56"/>
     </row>
     <row r="662" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B662" s="57"/>
+      <c r="B662" s="56"/>
     </row>
     <row r="663" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B663" s="57"/>
+      <c r="B663" s="56"/>
     </row>
     <row r="664" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B664" s="57"/>
+      <c r="B664" s="56"/>
     </row>
     <row r="665" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B665" s="57"/>
+      <c r="B665" s="56"/>
     </row>
     <row r="666" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B666" s="57"/>
+      <c r="B666" s="56"/>
     </row>
     <row r="667" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B667" s="57"/>
+      <c r="B667" s="56"/>
     </row>
     <row r="668" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B668" s="57"/>
+      <c r="B668" s="56"/>
     </row>
     <row r="669" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B669" s="57"/>
+      <c r="B669" s="56"/>
     </row>
     <row r="670" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B670" s="57"/>
+      <c r="B670" s="56"/>
     </row>
     <row r="671" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B671" s="57"/>
+      <c r="B671" s="56"/>
     </row>
     <row r="672" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B672" s="57"/>
+      <c r="B672" s="56"/>
     </row>
     <row r="673" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B673" s="57"/>
+      <c r="B673" s="56"/>
     </row>
     <row r="674" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B674" s="57"/>
+      <c r="B674" s="56"/>
     </row>
     <row r="675" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B675" s="57"/>
+      <c r="B675" s="56"/>
     </row>
     <row r="676" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B676" s="57"/>
+      <c r="B676" s="56"/>
     </row>
     <row r="677" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B677" s="57"/>
+      <c r="B677" s="56"/>
     </row>
     <row r="678" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B678" s="57"/>
+      <c r="B678" s="56"/>
     </row>
     <row r="679" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B679" s="57"/>
+      <c r="B679" s="56"/>
     </row>
     <row r="680" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B680" s="57"/>
+      <c r="B680" s="56"/>
     </row>
     <row r="681" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B681" s="57"/>
+      <c r="B681" s="56"/>
     </row>
     <row r="682" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B682" s="57"/>
+      <c r="B682" s="56"/>
     </row>
     <row r="683" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B683" s="57"/>
+      <c r="B683" s="56"/>
     </row>
     <row r="684" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B684" s="57"/>
+      <c r="B684" s="56"/>
     </row>
     <row r="685" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B685" s="57"/>
+      <c r="B685" s="56"/>
     </row>
     <row r="686" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B686" s="57"/>
+      <c r="B686" s="56"/>
     </row>
     <row r="687" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B687" s="57"/>
+      <c r="B687" s="56"/>
     </row>
     <row r="688" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B688" s="57"/>
+      <c r="B688" s="56"/>
     </row>
     <row r="689" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B689" s="57"/>
+      <c r="B689" s="56"/>
     </row>
     <row r="690" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B690" s="57"/>
+      <c r="B690" s="56"/>
     </row>
     <row r="691" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B691" s="57"/>
+      <c r="B691" s="56"/>
     </row>
     <row r="692" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B692" s="57"/>
+      <c r="B692" s="56"/>
     </row>
     <row r="693" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B693" s="57"/>
+      <c r="B693" s="56"/>
     </row>
     <row r="694" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B694" s="57"/>
+      <c r="B694" s="56"/>
     </row>
     <row r="695" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B695" s="57"/>
+      <c r="B695" s="56"/>
     </row>
     <row r="696" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B696" s="57"/>
+      <c r="B696" s="56"/>
     </row>
     <row r="697" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B697" s="57"/>
+      <c r="B697" s="56"/>
     </row>
     <row r="698" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B698" s="57"/>
+      <c r="B698" s="56"/>
     </row>
     <row r="699" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B699" s="57"/>
+      <c r="B699" s="56"/>
     </row>
     <row r="700" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B700" s="57"/>
+      <c r="B700" s="56"/>
     </row>
     <row r="701" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B701" s="57"/>
+      <c r="B701" s="56"/>
     </row>
     <row r="702" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B702" s="57"/>
+      <c r="B702" s="56"/>
     </row>
     <row r="703" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B703" s="57"/>
+      <c r="B703" s="56"/>
     </row>
     <row r="704" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B704" s="57"/>
+      <c r="B704" s="56"/>
     </row>
     <row r="705" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B705" s="57"/>
+      <c r="B705" s="56"/>
     </row>
     <row r="706" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B706" s="57"/>
+      <c r="B706" s="56"/>
     </row>
     <row r="707" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B707" s="57"/>
+      <c r="B707" s="56"/>
     </row>
     <row r="708" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B708" s="57"/>
+      <c r="B708" s="56"/>
     </row>
     <row r="709" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B709" s="57"/>
+      <c r="B709" s="56"/>
     </row>
     <row r="710" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B710" s="57"/>
+      <c r="B710" s="56"/>
     </row>
     <row r="711" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B711" s="57"/>
+      <c r="B711" s="56"/>
     </row>
     <row r="712" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B712" s="57"/>
+      <c r="B712" s="56"/>
     </row>
     <row r="713" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B713" s="57"/>
+      <c r="B713" s="56"/>
     </row>
     <row r="714" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B714" s="57"/>
+      <c r="B714" s="56"/>
     </row>
     <row r="715" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B715" s="57"/>
+      <c r="B715" s="56"/>
     </row>
     <row r="716" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B716" s="57"/>
+      <c r="B716" s="56"/>
     </row>
     <row r="717" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B717" s="57"/>
+      <c r="B717" s="56"/>
     </row>
     <row r="718" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B718" s="57"/>
+      <c r="B718" s="56"/>
     </row>
     <row r="719" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B719" s="57"/>
+      <c r="B719" s="56"/>
     </row>
     <row r="720" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B720" s="57"/>
+      <c r="B720" s="56"/>
     </row>
     <row r="721" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B721" s="57"/>
+      <c r="B721" s="56"/>
     </row>
     <row r="722" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B722" s="57"/>
+      <c r="B722" s="56"/>
     </row>
     <row r="723" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B723" s="57"/>
+      <c r="B723" s="56"/>
     </row>
     <row r="724" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B724" s="57"/>
+      <c r="B724" s="56"/>
     </row>
     <row r="725" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B725" s="57"/>
+      <c r="B725" s="56"/>
     </row>
     <row r="726" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B726" s="57"/>
+      <c r="B726" s="56"/>
     </row>
     <row r="727" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B727" s="57"/>
+      <c r="B727" s="56"/>
     </row>
     <row r="728" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B728" s="57"/>
+      <c r="B728" s="56"/>
     </row>
     <row r="729" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B729" s="57"/>
+      <c r="B729" s="56"/>
     </row>
     <row r="730" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B730" s="57"/>
+      <c r="B730" s="56"/>
     </row>
     <row r="731" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B731" s="57"/>
+      <c r="B731" s="56"/>
     </row>
     <row r="732" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B732" s="57"/>
+      <c r="B732" s="56"/>
     </row>
     <row r="733" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B733" s="57"/>
+      <c r="B733" s="56"/>
     </row>
     <row r="734" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B734" s="57"/>
+      <c r="B734" s="56"/>
     </row>
     <row r="735" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B735" s="57"/>
+      <c r="B735" s="56"/>
     </row>
     <row r="736" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B736" s="57"/>
+      <c r="B736" s="56"/>
     </row>
     <row r="737" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B737" s="57"/>
+      <c r="B737" s="56"/>
     </row>
     <row r="738" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B738" s="57"/>
+      <c r="B738" s="56"/>
     </row>
     <row r="739" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B739" s="57"/>
+      <c r="B739" s="56"/>
     </row>
     <row r="740" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B740" s="57"/>
+      <c r="B740" s="56"/>
     </row>
     <row r="741" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B741" s="57"/>
+      <c r="B741" s="56"/>
     </row>
     <row r="742" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B742" s="57"/>
+      <c r="B742" s="56"/>
     </row>
     <row r="743" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B743" s="57"/>
+      <c r="B743" s="56"/>
     </row>
     <row r="744" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B744" s="57"/>
+      <c r="B744" s="56"/>
     </row>
     <row r="745" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B745" s="57"/>
+      <c r="B745" s="56"/>
     </row>
     <row r="746" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B746" s="57"/>
+      <c r="B746" s="56"/>
     </row>
     <row r="747" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B747" s="57"/>
+      <c r="B747" s="56"/>
     </row>
     <row r="748" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B748" s="57"/>
+      <c r="B748" s="56"/>
     </row>
     <row r="749" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B749" s="57"/>
+      <c r="B749" s="56"/>
     </row>
     <row r="750" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B750" s="57"/>
+      <c r="B750" s="56"/>
     </row>
     <row r="751" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B751" s="57"/>
+      <c r="B751" s="56"/>
     </row>
     <row r="752" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B752" s="57"/>
+      <c r="B752" s="56"/>
     </row>
     <row r="753" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B753" s="57"/>
+      <c r="B753" s="56"/>
     </row>
     <row r="754" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B754" s="57"/>
+      <c r="B754" s="56"/>
     </row>
     <row r="755" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B755" s="57"/>
+      <c r="B755" s="56"/>
     </row>
     <row r="756" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B756" s="57"/>
+      <c r="B756" s="56"/>
     </row>
     <row r="757" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B757" s="57"/>
+      <c r="B757" s="56"/>
     </row>
     <row r="758" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B758" s="57"/>
+      <c r="B758" s="56"/>
     </row>
     <row r="759" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B759" s="57"/>
+      <c r="B759" s="56"/>
     </row>
     <row r="760" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B760" s="57"/>
+      <c r="B760" s="56"/>
     </row>
     <row r="761" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B761" s="57"/>
+      <c r="B761" s="56"/>
     </row>
     <row r="762" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B762" s="57"/>
+      <c r="B762" s="56"/>
     </row>
     <row r="763" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B763" s="57"/>
+      <c r="B763" s="56"/>
     </row>
     <row r="764" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B764" s="57"/>
+      <c r="B764" s="56"/>
     </row>
     <row r="765" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B765" s="57"/>
+      <c r="B765" s="56"/>
     </row>
     <row r="766" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B766" s="57"/>
+      <c r="B766" s="56"/>
     </row>
     <row r="767" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B767" s="57"/>
+      <c r="B767" s="56"/>
     </row>
     <row r="768" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B768" s="57"/>
+      <c r="B768" s="56"/>
     </row>
     <row r="769" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B769" s="57"/>
+      <c r="B769" s="56"/>
     </row>
     <row r="770" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B770" s="57"/>
+      <c r="B770" s="56"/>
     </row>
     <row r="771" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B771" s="57"/>
+      <c r="B771" s="56"/>
     </row>
     <row r="772" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B772" s="57"/>
+      <c r="B772" s="56"/>
     </row>
     <row r="773" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B773" s="57"/>
+      <c r="B773" s="56"/>
     </row>
     <row r="774" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B774" s="57"/>
+      <c r="B774" s="56"/>
     </row>
     <row r="775" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B775" s="57"/>
+      <c r="B775" s="56"/>
     </row>
     <row r="776" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B776" s="57"/>
+      <c r="B776" s="56"/>
     </row>
     <row r="777" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B777" s="57"/>
+      <c r="B777" s="56"/>
     </row>
     <row r="778" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B778" s="57"/>
+      <c r="B778" s="56"/>
     </row>
     <row r="779" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B779" s="57"/>
+      <c r="B779" s="56"/>
     </row>
     <row r="780" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B780" s="57"/>
+      <c r="B780" s="56"/>
     </row>
     <row r="781" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B781" s="57"/>
+      <c r="B781" s="56"/>
     </row>
     <row r="782" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B782" s="57"/>
+      <c r="B782" s="56"/>
     </row>
     <row r="783" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B783" s="57"/>
+      <c r="B783" s="56"/>
     </row>
     <row r="784" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B784" s="57"/>
+      <c r="B784" s="56"/>
     </row>
     <row r="785" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B785" s="57"/>
+      <c r="B785" s="56"/>
     </row>
     <row r="786" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B786" s="57"/>
+      <c r="B786" s="56"/>
     </row>
     <row r="787" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B787" s="57"/>
+      <c r="B787" s="56"/>
     </row>
     <row r="788" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B788" s="57"/>
+      <c r="B788" s="56"/>
     </row>
     <row r="789" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B789" s="57"/>
+      <c r="B789" s="56"/>
     </row>
     <row r="790" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B790" s="57"/>
+      <c r="B790" s="56"/>
     </row>
     <row r="791" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B791" s="57"/>
+      <c r="B791" s="56"/>
     </row>
     <row r="792" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B792" s="57"/>
+      <c r="B792" s="56"/>
     </row>
     <row r="793" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B793" s="57"/>
+      <c r="B793" s="56"/>
     </row>
     <row r="794" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B794" s="57"/>
+      <c r="B794" s="56"/>
     </row>
     <row r="795" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B795" s="57"/>
+      <c r="B795" s="56"/>
     </row>
     <row r="796" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B796" s="57"/>
+      <c r="B796" s="56"/>
     </row>
     <row r="797" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B797" s="57"/>
+      <c r="B797" s="56"/>
     </row>
     <row r="798" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B798" s="57"/>
+      <c r="B798" s="56"/>
     </row>
     <row r="799" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B799" s="57"/>
+      <c r="B799" s="56"/>
     </row>
     <row r="800" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B800" s="57"/>
+      <c r="B800" s="56"/>
     </row>
     <row r="801" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B801" s="57"/>
+      <c r="B801" s="56"/>
     </row>
     <row r="802" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B802" s="57"/>
+      <c r="B802" s="56"/>
     </row>
     <row r="803" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B803" s="57"/>
+      <c r="B803" s="56"/>
     </row>
     <row r="804" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B804" s="57"/>
+      <c r="B804" s="56"/>
     </row>
     <row r="805" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B805" s="57"/>
+      <c r="B805" s="56"/>
     </row>
     <row r="806" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B806" s="57"/>
+      <c r="B806" s="56"/>
     </row>
     <row r="807" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B807" s="57"/>
+      <c r="B807" s="56"/>
     </row>
     <row r="808" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B808" s="57"/>
+      <c r="B808" s="56"/>
     </row>
     <row r="809" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B809" s="57"/>
+      <c r="B809" s="56"/>
     </row>
     <row r="810" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B810" s="57"/>
+      <c r="B810" s="56"/>
     </row>
     <row r="811" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B811" s="57"/>
+      <c r="B811" s="56"/>
     </row>
     <row r="812" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B812" s="57"/>
+      <c r="B812" s="56"/>
     </row>
     <row r="813" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B813" s="57"/>
+      <c r="B813" s="56"/>
     </row>
     <row r="814" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B814" s="57"/>
+      <c r="B814" s="56"/>
     </row>
     <row r="815" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B815" s="57"/>
+      <c r="B815" s="56"/>
     </row>
     <row r="816" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B816" s="57"/>
+      <c r="B816" s="56"/>
     </row>
     <row r="817" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B817" s="57"/>
+      <c r="B817" s="56"/>
     </row>
     <row r="818" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B818" s="57"/>
+      <c r="B818" s="56"/>
     </row>
     <row r="819" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B819" s="57"/>
+      <c r="B819" s="56"/>
     </row>
     <row r="820" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B820" s="57"/>
+      <c r="B820" s="56"/>
     </row>
     <row r="821" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B821" s="57"/>
+      <c r="B821" s="56"/>
     </row>
     <row r="822" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B822" s="57"/>
+      <c r="B822" s="56"/>
     </row>
     <row r="823" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B823" s="57"/>
+      <c r="B823" s="56"/>
     </row>
     <row r="824" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B824" s="57"/>
+      <c r="B824" s="56"/>
     </row>
     <row r="825" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B825" s="57"/>
+      <c r="B825" s="56"/>
     </row>
     <row r="826" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B826" s="57"/>
+      <c r="B826" s="56"/>
     </row>
     <row r="827" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B827" s="57"/>
+      <c r="B827" s="56"/>
     </row>
     <row r="828" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B828" s="57"/>
+      <c r="B828" s="56"/>
     </row>
     <row r="829" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B829" s="57"/>
+      <c r="B829" s="56"/>
     </row>
     <row r="830" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B830" s="57"/>
+      <c r="B830" s="56"/>
     </row>
     <row r="831" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B831" s="57"/>
+      <c r="B831" s="56"/>
     </row>
     <row r="832" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B832" s="57"/>
+      <c r="B832" s="56"/>
     </row>
     <row r="833" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B833" s="57"/>
+      <c r="B833" s="56"/>
     </row>
     <row r="834" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B834" s="57"/>
+      <c r="B834" s="56"/>
     </row>
     <row r="835" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B835" s="57"/>
+      <c r="B835" s="56"/>
     </row>
     <row r="836" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B836" s="57"/>
+      <c r="B836" s="56"/>
     </row>
     <row r="837" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B837" s="57"/>
+      <c r="B837" s="56"/>
     </row>
     <row r="838" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B838" s="57"/>
+      <c r="B838" s="56"/>
     </row>
     <row r="839" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B839" s="57"/>
+      <c r="B839" s="56"/>
     </row>
     <row r="840" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B840" s="57"/>
+      <c r="B840" s="56"/>
     </row>
     <row r="841" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B841" s="57"/>
+      <c r="B841" s="56"/>
     </row>
     <row r="842" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B842" s="57"/>
+      <c r="B842" s="56"/>
     </row>
     <row r="843" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B843" s="57"/>
+      <c r="B843" s="56"/>
     </row>
     <row r="844" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B844" s="57"/>
+      <c r="B844" s="56"/>
     </row>
     <row r="845" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B845" s="57"/>
+      <c r="B845" s="56"/>
     </row>
     <row r="846" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B846" s="57"/>
+      <c r="B846" s="56"/>
     </row>
     <row r="847" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B847" s="57"/>
+      <c r="B847" s="56"/>
     </row>
     <row r="848" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B848" s="57"/>
+      <c r="B848" s="56"/>
     </row>
     <row r="849" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B849" s="57"/>
+      <c r="B849" s="56"/>
     </row>
     <row r="850" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B850" s="57"/>
+      <c r="B850" s="56"/>
     </row>
     <row r="851" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B851" s="57"/>
+      <c r="B851" s="56"/>
     </row>
     <row r="852" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B852" s="57"/>
+      <c r="B852" s="56"/>
     </row>
     <row r="853" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B853" s="57"/>
+      <c r="B853" s="56"/>
     </row>
     <row r="854" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B854" s="57"/>
+      <c r="B854" s="56"/>
     </row>
     <row r="855" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B855" s="57"/>
+      <c r="B855" s="56"/>
     </row>
     <row r="856" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B856" s="57"/>
+      <c r="B856" s="56"/>
     </row>
     <row r="857" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B857" s="57"/>
+      <c r="B857" s="56"/>
     </row>
     <row r="858" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B858" s="57"/>
+      <c r="B858" s="56"/>
     </row>
     <row r="859" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B859" s="57"/>
+      <c r="B859" s="56"/>
     </row>
     <row r="860" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B860" s="57"/>
+      <c r="B860" s="56"/>
     </row>
     <row r="861" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B861" s="57"/>
+      <c r="B861" s="56"/>
     </row>
     <row r="862" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B862" s="57"/>
+      <c r="B862" s="56"/>
     </row>
     <row r="863" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B863" s="57"/>
+      <c r="B863" s="56"/>
     </row>
     <row r="864" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B864" s="57"/>
+      <c r="B864" s="56"/>
     </row>
     <row r="865" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B865" s="57"/>
+      <c r="B865" s="56"/>
     </row>
     <row r="866" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B866" s="57"/>
+      <c r="B866" s="56"/>
     </row>
     <row r="867" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B867" s="57"/>
+      <c r="B867" s="56"/>
     </row>
     <row r="868" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B868" s="57"/>
+      <c r="B868" s="56"/>
     </row>
     <row r="869" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B869" s="57"/>
+      <c r="B869" s="56"/>
     </row>
     <row r="870" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B870" s="57"/>
+      <c r="B870" s="56"/>
     </row>
     <row r="871" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B871" s="57"/>
+      <c r="B871" s="56"/>
     </row>
     <row r="872" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B872" s="57"/>
+      <c r="B872" s="56"/>
     </row>
     <row r="873" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B873" s="57"/>
+      <c r="B873" s="56"/>
     </row>
     <row r="874" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B874" s="57"/>
+      <c r="B874" s="56"/>
     </row>
     <row r="875" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B875" s="57"/>
+      <c r="B875" s="56"/>
     </row>
     <row r="876" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B876" s="57"/>
+      <c r="B876" s="56"/>
     </row>
     <row r="877" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B877" s="57"/>
+      <c r="B877" s="56"/>
     </row>
     <row r="878" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B878" s="57"/>
+      <c r="B878" s="56"/>
     </row>
     <row r="879" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B879" s="57"/>
+      <c r="B879" s="56"/>
     </row>
     <row r="880" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B880" s="57"/>
+      <c r="B880" s="56"/>
     </row>
     <row r="881" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B881" s="57"/>
+      <c r="B881" s="56"/>
     </row>
     <row r="882" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B882" s="57"/>
+      <c r="B882" s="56"/>
     </row>
     <row r="883" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B883" s="57"/>
+      <c r="B883" s="56"/>
     </row>
     <row r="884" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B884" s="57"/>
+      <c r="B884" s="56"/>
     </row>
     <row r="885" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B885" s="57"/>
+      <c r="B885" s="56"/>
     </row>
     <row r="886" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B886" s="57"/>
+      <c r="B886" s="56"/>
     </row>
     <row r="887" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B887" s="57"/>
+      <c r="B887" s="56"/>
     </row>
     <row r="888" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B888" s="57"/>
+      <c r="B888" s="56"/>
     </row>
     <row r="889" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B889" s="57"/>
+      <c r="B889" s="56"/>
     </row>
     <row r="890" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B890" s="57"/>
+      <c r="B890" s="56"/>
     </row>
     <row r="891" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B891" s="57"/>
+      <c r="B891" s="56"/>
     </row>
     <row r="892" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B892" s="57"/>
+      <c r="B892" s="56"/>
     </row>
     <row r="893" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B893" s="57"/>
+      <c r="B893" s="56"/>
     </row>
     <row r="894" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B894" s="57"/>
+      <c r="B894" s="56"/>
     </row>
     <row r="895" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B895" s="57"/>
+      <c r="B895" s="56"/>
     </row>
     <row r="896" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B896" s="57"/>
+      <c r="B896" s="56"/>
     </row>
     <row r="897" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B897" s="57"/>
+      <c r="B897" s="56"/>
     </row>
     <row r="898" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B898" s="57"/>
+      <c r="B898" s="56"/>
     </row>
     <row r="899" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B899" s="57"/>
+      <c r="B899" s="56"/>
     </row>
     <row r="900" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B900" s="57"/>
+      <c r="B900" s="56"/>
     </row>
     <row r="901" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B901" s="57"/>
+      <c r="B901" s="56"/>
     </row>
     <row r="902" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B902" s="57"/>
+      <c r="B902" s="56"/>
     </row>
     <row r="903" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B903" s="57"/>
+      <c r="B903" s="56"/>
     </row>
     <row r="904" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B904" s="57"/>
+      <c r="B904" s="56"/>
     </row>
     <row r="905" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B905" s="57"/>
+      <c r="B905" s="56"/>
     </row>
     <row r="906" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B906" s="57"/>
+      <c r="B906" s="56"/>
     </row>
     <row r="907" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B907" s="57"/>
+      <c r="B907" s="56"/>
     </row>
     <row r="908" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B908" s="57"/>
+      <c r="B908" s="56"/>
     </row>
     <row r="909" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B909" s="57"/>
+      <c r="B909" s="56"/>
     </row>
     <row r="910" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B910" s="57"/>
+      <c r="B910" s="56"/>
     </row>
     <row r="911" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B911" s="57"/>
+      <c r="B911" s="56"/>
     </row>
     <row r="912" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B912" s="57"/>
+      <c r="B912" s="56"/>
     </row>
     <row r="913" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B913" s="57"/>
+      <c r="B913" s="56"/>
     </row>
     <row r="914" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B914" s="57"/>
+      <c r="B914" s="56"/>
     </row>
     <row r="915" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B915" s="57"/>
+      <c r="B915" s="56"/>
     </row>
     <row r="916" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B916" s="57"/>
+      <c r="B916" s="56"/>
     </row>
     <row r="917" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B917" s="57"/>
+      <c r="B917" s="56"/>
     </row>
     <row r="918" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B918" s="57"/>
+      <c r="B918" s="56"/>
     </row>
     <row r="919" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B919" s="57"/>
+      <c r="B919" s="56"/>
     </row>
     <row r="920" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B920" s="57"/>
+      <c r="B920" s="56"/>
     </row>
     <row r="921" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B921" s="57"/>
+      <c r="B921" s="56"/>
     </row>
     <row r="922" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B922" s="57"/>
+      <c r="B922" s="56"/>
     </row>
     <row r="923" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B923" s="57"/>
+      <c r="B923" s="56"/>
     </row>
     <row r="924" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B924" s="57"/>
+      <c r="B924" s="56"/>
     </row>
     <row r="925" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B925" s="57"/>
+      <c r="B925" s="56"/>
     </row>
     <row r="926" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B926" s="57"/>
+      <c r="B926" s="56"/>
     </row>
     <row r="927" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B927" s="57"/>
+      <c r="B927" s="56"/>
     </row>
     <row r="928" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B928" s="57"/>
+      <c r="B928" s="56"/>
     </row>
     <row r="929" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B929" s="57"/>
+      <c r="B929" s="56"/>
     </row>
     <row r="930" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B930" s="57"/>
+      <c r="B930" s="56"/>
     </row>
     <row r="931" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B931" s="57"/>
+      <c r="B931" s="56"/>
     </row>
     <row r="932" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B932" s="57"/>
+      <c r="B932" s="56"/>
     </row>
     <row r="933" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B933" s="57"/>
+      <c r="B933" s="56"/>
     </row>
     <row r="934" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B934" s="57"/>
+      <c r="B934" s="56"/>
     </row>
     <row r="935" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B935" s="57"/>
+      <c r="B935" s="56"/>
     </row>
     <row r="936" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B936" s="57"/>
+      <c r="B936" s="56"/>
     </row>
     <row r="937" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B937" s="57"/>
+      <c r="B937" s="56"/>
     </row>
     <row r="938" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B938" s="57"/>
+      <c r="B938" s="56"/>
     </row>
     <row r="939" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B939" s="57"/>
+      <c r="B939" s="56"/>
     </row>
     <row r="940" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B940" s="57"/>
+      <c r="B940" s="56"/>
     </row>
     <row r="941" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B941" s="57"/>
+      <c r="B941" s="56"/>
     </row>
     <row r="942" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B942" s="57"/>
+      <c r="B942" s="56"/>
     </row>
     <row r="943" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B943" s="57"/>
+      <c r="B943" s="56"/>
     </row>
     <row r="944" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B944" s="57"/>
+      <c r="B944" s="56"/>
     </row>
     <row r="945" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B945" s="57"/>
+      <c r="B945" s="56"/>
     </row>
     <row r="946" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B946" s="57"/>
+      <c r="B946" s="56"/>
     </row>
     <row r="947" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B947" s="57"/>
+      <c r="B947" s="56"/>
     </row>
     <row r="948" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B948" s="57"/>
+      <c r="B948" s="56"/>
     </row>
     <row r="949" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B949" s="57"/>
+      <c r="B949" s="56"/>
     </row>
     <row r="950" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B950" s="57"/>
+      <c r="B950" s="56"/>
     </row>
     <row r="951" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B951" s="57"/>
+      <c r="B951" s="56"/>
     </row>
     <row r="952" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B952" s="57"/>
+      <c r="B952" s="56"/>
     </row>
     <row r="953" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B953" s="57"/>
+      <c r="B953" s="56"/>
     </row>
     <row r="954" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B954" s="57"/>
+      <c r="B954" s="56"/>
     </row>
     <row r="955" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B955" s="57"/>
+      <c r="B955" s="56"/>
     </row>
     <row r="956" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B956" s="57"/>
+      <c r="B956" s="56"/>
     </row>
     <row r="957" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B957" s="57"/>
+      <c r="B957" s="56"/>
     </row>
     <row r="958" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B958" s="57"/>
+      <c r="B958" s="56"/>
     </row>
     <row r="959" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B959" s="57"/>
+      <c r="B959" s="56"/>
     </row>
     <row r="960" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B960" s="57"/>
+      <c r="B960" s="56"/>
     </row>
     <row r="961" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B961" s="57"/>
+      <c r="B961" s="56"/>
     </row>
     <row r="962" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B962" s="57"/>
+      <c r="B962" s="56"/>
     </row>
     <row r="963" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B963" s="57"/>
+      <c r="B963" s="56"/>
     </row>
     <row r="964" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B964" s="57"/>
+      <c r="B964" s="56"/>
     </row>
     <row r="965" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B965" s="57"/>
+      <c r="B965" s="56"/>
     </row>
     <row r="966" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B966" s="57"/>
+      <c r="B966" s="56"/>
     </row>
     <row r="967" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B967" s="57"/>
+      <c r="B967" s="56"/>
     </row>
     <row r="968" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B968" s="57"/>
+      <c r="B968" s="56"/>
     </row>
     <row r="969" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B969" s="57"/>
+      <c r="B969" s="56"/>
     </row>
     <row r="970" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B970" s="57"/>
+      <c r="B970" s="56"/>
     </row>
     <row r="971" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B971" s="57"/>
+      <c r="B971" s="56"/>
     </row>
     <row r="972" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B972" s="57"/>
+      <c r="B972" s="56"/>
     </row>
     <row r="973" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B973" s="57"/>
+      <c r="B973" s="56"/>
     </row>
     <row r="974" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B974" s="57"/>
+      <c r="B974" s="56"/>
     </row>
     <row r="975" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B975" s="57"/>
+      <c r="B975" s="56"/>
     </row>
     <row r="976" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B976" s="57"/>
+      <c r="B976" s="56"/>
     </row>
     <row r="977" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B977" s="57"/>
+      <c r="B977" s="56"/>
     </row>
     <row r="978" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B978" s="57"/>
+      <c r="B978" s="56"/>
     </row>
     <row r="979" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B979" s="57"/>
+      <c r="B979" s="56"/>
     </row>
     <row r="980" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B980" s="57"/>
+      <c r="B980" s="56"/>
     </row>
     <row r="981" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B981" s="57"/>
+      <c r="B981" s="56"/>
     </row>
     <row r="982" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B982" s="57"/>
+      <c r="B982" s="56"/>
     </row>
     <row r="983" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B983" s="57"/>
+      <c r="B983" s="56"/>
     </row>
     <row r="984" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B984" s="57"/>
+      <c r="B984" s="56"/>
     </row>
     <row r="985" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B985" s="57"/>
+      <c r="B985" s="56"/>
     </row>
     <row r="986" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B986" s="57"/>
+      <c r="B986" s="56"/>
     </row>
     <row r="987" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B987" s="57"/>
+      <c r="B987" s="56"/>
     </row>
     <row r="988" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B988" s="57"/>
+      <c r="B988" s="56"/>
     </row>
     <row r="989" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B989" s="57"/>
+      <c r="B989" s="56"/>
     </row>
     <row r="990" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B990" s="57"/>
+      <c r="B990" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/DownloadExcels/Productos.xlsx
+++ b/public/DownloadExcels/Productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\Carlos\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314675C3-A4BB-4DB4-87EC-A8797C51DA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA63EC2-E710-452D-8577-7A80668E6926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D2BB3EA-D40E-4AFC-8C62-09AC02EACA3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{3D2BB3EA-D40E-4AFC-8C62-09AC02EACA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -764,6 +764,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1133,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB7640F-D0A1-410F-B1A7-024A7E8A96F3}">
   <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,13 +1280,13 @@
       <c r="F4" s="58"/>
       <c r="G4" s="17"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -1296,13 +1299,13 @@
       <c r="F5" s="58"/>
       <c r="G5" s="17"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
@@ -1315,13 +1318,13 @@
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -1334,13 +1337,13 @@
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -1353,13 +1356,13 @@
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -1372,13 +1375,13 @@
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -1391,13 +1394,13 @@
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -1410,13 +1413,13 @@
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -1429,13 +1432,13 @@
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -1448,13 +1451,13 @@
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -1467,13 +1470,13 @@
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -1486,13 +1489,13 @@
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -1505,13 +1508,13 @@
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -1524,13 +1527,13 @@
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -1543,13 +1546,13 @@
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -1562,13 +1565,13 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -1581,13 +1584,13 @@
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -1600,13 +1603,13 @@
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -1619,13 +1622,13 @@
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -1638,13 +1641,13 @@
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -1657,13 +1660,13 @@
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -1676,13 +1679,13 @@
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -1695,13 +1698,13 @@
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -1714,13 +1717,13 @@
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -1733,13 +1736,13 @@
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -1752,13 +1755,13 @@
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -1771,13 +1774,13 @@
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
@@ -1790,13 +1793,13 @@
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -1809,13 +1812,13 @@
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -1828,13 +1831,13 @@
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
@@ -1847,13 +1850,13 @@
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -1866,13 +1869,13 @@
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -1885,13 +1888,13 @@
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
       <c r="H36" s="14"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
@@ -1904,13 +1907,13 @@
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
       <c r="H37" s="14"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -1923,13 +1926,13 @@
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
       <c r="H38" s="14"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
@@ -1942,13 +1945,13 @@
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
       <c r="H39" s="14"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
@@ -1961,13 +1964,13 @@
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
@@ -1980,13 +1983,13 @@
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
       <c r="H41" s="14"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
@@ -1999,13 +2002,13 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
@@ -2018,13 +2021,13 @@
       <c r="F43" s="16"/>
       <c r="G43" s="17"/>
       <c r="H43" s="14"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
@@ -2037,13 +2040,13 @@
       <c r="F44" s="16"/>
       <c r="G44" s="17"/>
       <c r="H44" s="14"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
@@ -2056,13 +2059,13 @@
       <c r="F45" s="16"/>
       <c r="G45" s="17"/>
       <c r="H45" s="14"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
@@ -2075,13 +2078,13 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
       <c r="H46" s="14"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
@@ -2094,13 +2097,13 @@
       <c r="F47" s="16"/>
       <c r="G47" s="17"/>
       <c r="H47" s="14"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
@@ -2113,13 +2116,13 @@
       <c r="F48" s="16"/>
       <c r="G48" s="17"/>
       <c r="H48" s="14"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
@@ -2132,13 +2135,13 @@
       <c r="F49" s="16"/>
       <c r="G49" s="17"/>
       <c r="H49" s="14"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
@@ -2151,13 +2154,13 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
       <c r="H50" s="14"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
@@ -2170,13 +2173,13 @@
       <c r="F51" s="16"/>
       <c r="G51" s="17"/>
       <c r="H51" s="14"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
@@ -2189,13 +2192,13 @@
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
@@ -2208,13 +2211,13 @@
       <c r="F53" s="16"/>
       <c r="G53" s="17"/>
       <c r="H53" s="14"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
@@ -2227,13 +2230,13 @@
       <c r="F54" s="16"/>
       <c r="G54" s="17"/>
       <c r="H54" s="14"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
@@ -2246,13 +2249,13 @@
       <c r="F55" s="16"/>
       <c r="G55" s="17"/>
       <c r="H55" s="14"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
@@ -2265,13 +2268,13 @@
       <c r="F56" s="16"/>
       <c r="G56" s="17"/>
       <c r="H56" s="14"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
@@ -2284,13 +2287,13 @@
       <c r="F57" s="16"/>
       <c r="G57" s="17"/>
       <c r="H57" s="14"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
@@ -2303,13 +2306,13 @@
       <c r="F58" s="16"/>
       <c r="G58" s="17"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="61"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
@@ -2322,13 +2325,13 @@
       <c r="F59" s="16"/>
       <c r="G59" s="17"/>
       <c r="H59" s="14"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
@@ -2341,13 +2344,13 @@
       <c r="F60" s="16"/>
       <c r="G60" s="17"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
@@ -2360,13 +2363,13 @@
       <c r="F61" s="16"/>
       <c r="G61" s="17"/>
       <c r="H61" s="14"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
@@ -2379,13 +2382,13 @@
       <c r="F62" s="16"/>
       <c r="G62" s="17"/>
       <c r="H62" s="14"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
@@ -2398,13 +2401,13 @@
       <c r="F63" s="16"/>
       <c r="G63" s="17"/>
       <c r="H63" s="14"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
@@ -2417,13 +2420,13 @@
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
       <c r="H64" s="14"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
@@ -2436,13 +2439,13 @@
       <c r="F65" s="16"/>
       <c r="G65" s="17"/>
       <c r="H65" s="14"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
@@ -2455,13 +2458,13 @@
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
@@ -2474,13 +2477,13 @@
       <c r="F67" s="16"/>
       <c r="G67" s="17"/>
       <c r="H67" s="14"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="61"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
@@ -2493,13 +2496,13 @@
       <c r="F68" s="16"/>
       <c r="G68" s="17"/>
       <c r="H68" s="14"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
@@ -2512,13 +2515,13 @@
       <c r="F69" s="16"/>
       <c r="G69" s="17"/>
       <c r="H69" s="14"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
@@ -2531,13 +2534,13 @@
       <c r="F70" s="16"/>
       <c r="G70" s="17"/>
       <c r="H70" s="14"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="61"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
@@ -2550,13 +2553,13 @@
       <c r="F71" s="16"/>
       <c r="G71" s="17"/>
       <c r="H71" s="14"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
@@ -2569,13 +2572,13 @@
       <c r="F72" s="16"/>
       <c r="G72" s="17"/>
       <c r="H72" s="14"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
@@ -2588,13 +2591,13 @@
       <c r="F73" s="16"/>
       <c r="G73" s="17"/>
       <c r="H73" s="14"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="61"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
@@ -2607,13 +2610,13 @@
       <c r="F74" s="16"/>
       <c r="G74" s="17"/>
       <c r="H74" s="14"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
@@ -2626,13 +2629,13 @@
       <c r="F75" s="16"/>
       <c r="G75" s="17"/>
       <c r="H75" s="14"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="61"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
@@ -2645,13 +2648,13 @@
       <c r="F76" s="16"/>
       <c r="G76" s="17"/>
       <c r="H76" s="14"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="61"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
@@ -2664,13 +2667,13 @@
       <c r="F77" s="16"/>
       <c r="G77" s="17"/>
       <c r="H77" s="14"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="61"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
@@ -2683,13 +2686,13 @@
       <c r="F78" s="16"/>
       <c r="G78" s="17"/>
       <c r="H78" s="14"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
@@ -2702,13 +2705,13 @@
       <c r="F79" s="16"/>
       <c r="G79" s="17"/>
       <c r="H79" s="14"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="61"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="61"/>
+      <c r="O79" s="61"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
@@ -2721,13 +2724,13 @@
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
       <c r="H80" s="14"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="61"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
@@ -2740,13 +2743,13 @@
       <c r="F81" s="16"/>
       <c r="G81" s="17"/>
       <c r="H81" s="14"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
@@ -2759,13 +2762,13 @@
       <c r="F82" s="16"/>
       <c r="G82" s="17"/>
       <c r="H82" s="14"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
@@ -2778,13 +2781,13 @@
       <c r="F83" s="16"/>
       <c r="G83" s="17"/>
       <c r="H83" s="14"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="61"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
@@ -2797,13 +2800,13 @@
       <c r="F84" s="16"/>
       <c r="G84" s="17"/>
       <c r="H84" s="14"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="61"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
@@ -2816,13 +2819,13 @@
       <c r="F85" s="16"/>
       <c r="G85" s="17"/>
       <c r="H85" s="14"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
@@ -2835,13 +2838,13 @@
       <c r="F86" s="16"/>
       <c r="G86" s="17"/>
       <c r="H86" s="14"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="61"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
@@ -2854,13 +2857,13 @@
       <c r="F87" s="16"/>
       <c r="G87" s="17"/>
       <c r="H87" s="14"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
@@ -2873,13 +2876,13 @@
       <c r="F88" s="16"/>
       <c r="G88" s="17"/>
       <c r="H88" s="14"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="61"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
@@ -2892,13 +2895,13 @@
       <c r="F89" s="16"/>
       <c r="G89" s="17"/>
       <c r="H89" s="14"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="61"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
@@ -2911,13 +2914,13 @@
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
       <c r="H90" s="14"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
@@ -2930,13 +2933,13 @@
       <c r="F91" s="16"/>
       <c r="G91" s="17"/>
       <c r="H91" s="14"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="61"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="61"/>
+      <c r="N91" s="61"/>
+      <c r="O91" s="61"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
@@ -2949,13 +2952,13 @@
       <c r="F92" s="16"/>
       <c r="G92" s="17"/>
       <c r="H92" s="14"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="61"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="61"/>
+      <c r="N92" s="61"/>
+      <c r="O92" s="61"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
@@ -2968,13 +2971,13 @@
       <c r="F93" s="16"/>
       <c r="G93" s="17"/>
       <c r="H93" s="14"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="61"/>
+      <c r="K93" s="61"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="61"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="61"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
@@ -2987,13 +2990,13 @@
       <c r="F94" s="16"/>
       <c r="G94" s="17"/>
       <c r="H94" s="14"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="61"/>
+      <c r="K94" s="61"/>
+      <c r="L94" s="61"/>
+      <c r="M94" s="61"/>
+      <c r="N94" s="61"/>
+      <c r="O94" s="61"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
@@ -3006,13 +3009,13 @@
       <c r="F95" s="16"/>
       <c r="G95" s="17"/>
       <c r="H95" s="14"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="61"/>
+      <c r="K95" s="61"/>
+      <c r="L95" s="61"/>
+      <c r="M95" s="61"/>
+      <c r="N95" s="61"/>
+      <c r="O95" s="61"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
@@ -3025,13 +3028,13 @@
       <c r="F96" s="16"/>
       <c r="G96" s="17"/>
       <c r="H96" s="14"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="61"/>
+      <c r="K96" s="61"/>
+      <c r="L96" s="61"/>
+      <c r="M96" s="61"/>
+      <c r="N96" s="61"/>
+      <c r="O96" s="61"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
@@ -3044,13 +3047,13 @@
       <c r="F97" s="16"/>
       <c r="G97" s="17"/>
       <c r="H97" s="14"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="61"/>
+      <c r="K97" s="61"/>
+      <c r="L97" s="61"/>
+      <c r="M97" s="61"/>
+      <c r="N97" s="61"/>
+      <c r="O97" s="61"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
@@ -3063,13 +3066,13 @@
       <c r="F98" s="16"/>
       <c r="G98" s="17"/>
       <c r="H98" s="14"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="61"/>
+      <c r="K98" s="61"/>
+      <c r="L98" s="61"/>
+      <c r="M98" s="61"/>
+      <c r="N98" s="61"/>
+      <c r="O98" s="61"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
@@ -3082,13 +3085,13 @@
       <c r="F99" s="16"/>
       <c r="G99" s="17"/>
       <c r="H99" s="14"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="61"/>
+      <c r="K99" s="61"/>
+      <c r="L99" s="61"/>
+      <c r="M99" s="61"/>
+      <c r="N99" s="61"/>
+      <c r="O99" s="61"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
@@ -3101,13 +3104,13 @@
       <c r="F100" s="16"/>
       <c r="G100" s="17"/>
       <c r="H100" s="14"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="61"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="61"/>
+      <c r="N100" s="61"/>
+      <c r="O100" s="61"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
@@ -3120,13 +3123,13 @@
       <c r="F101" s="16"/>
       <c r="G101" s="17"/>
       <c r="H101" s="14"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="61"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="61"/>
+      <c r="N101" s="61"/>
+      <c r="O101" s="61"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
@@ -3139,13 +3142,13 @@
       <c r="F102" s="16"/>
       <c r="G102" s="17"/>
       <c r="H102" s="14"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
+      <c r="I102" s="61"/>
+      <c r="J102" s="61"/>
+      <c r="K102" s="61"/>
+      <c r="L102" s="61"/>
+      <c r="M102" s="61"/>
+      <c r="N102" s="61"/>
+      <c r="O102" s="61"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
@@ -3158,13 +3161,13 @@
       <c r="F103" s="16"/>
       <c r="G103" s="17"/>
       <c r="H103" s="14"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="61"/>
+      <c r="K103" s="61"/>
+      <c r="L103" s="61"/>
+      <c r="M103" s="61"/>
+      <c r="N103" s="61"/>
+      <c r="O103" s="61"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
@@ -3177,13 +3180,13 @@
       <c r="F104" s="16"/>
       <c r="G104" s="17"/>
       <c r="H104" s="14"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="61"/>
+      <c r="L104" s="61"/>
+      <c r="M104" s="61"/>
+      <c r="N104" s="61"/>
+      <c r="O104" s="61"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
@@ -3196,13 +3199,13 @@
       <c r="F105" s="16"/>
       <c r="G105" s="17"/>
       <c r="H105" s="14"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="61"/>
+      <c r="L105" s="61"/>
+      <c r="M105" s="61"/>
+      <c r="N105" s="61"/>
+      <c r="O105" s="61"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
@@ -3215,13 +3218,13 @@
       <c r="F106" s="16"/>
       <c r="G106" s="17"/>
       <c r="H106" s="14"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
+      <c r="I106" s="61"/>
+      <c r="J106" s="61"/>
+      <c r="K106" s="61"/>
+      <c r="L106" s="61"/>
+      <c r="M106" s="61"/>
+      <c r="N106" s="61"/>
+      <c r="O106" s="61"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
@@ -3234,13 +3237,13 @@
       <c r="F107" s="16"/>
       <c r="G107" s="17"/>
       <c r="H107" s="14"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
+      <c r="I107" s="61"/>
+      <c r="J107" s="61"/>
+      <c r="K107" s="61"/>
+      <c r="L107" s="61"/>
+      <c r="M107" s="61"/>
+      <c r="N107" s="61"/>
+      <c r="O107" s="61"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
@@ -3253,13 +3256,13 @@
       <c r="F108" s="16"/>
       <c r="G108" s="17"/>
       <c r="H108" s="14"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="61"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="61"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="61"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
@@ -3272,13 +3275,13 @@
       <c r="F109" s="16"/>
       <c r="G109" s="17"/>
       <c r="H109" s="14"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="61"/>
+      <c r="K109" s="61"/>
+      <c r="L109" s="61"/>
+      <c r="M109" s="61"/>
+      <c r="N109" s="61"/>
+      <c r="O109" s="61"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
@@ -3291,13 +3294,13 @@
       <c r="F110" s="16"/>
       <c r="G110" s="17"/>
       <c r="H110" s="14"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="61"/>
+      <c r="K110" s="61"/>
+      <c r="L110" s="61"/>
+      <c r="M110" s="61"/>
+      <c r="N110" s="61"/>
+      <c r="O110" s="61"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
@@ -3310,13 +3313,13 @@
       <c r="F111" s="16"/>
       <c r="G111" s="17"/>
       <c r="H111" s="14"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="61"/>
+      <c r="K111" s="61"/>
+      <c r="L111" s="61"/>
+      <c r="M111" s="61"/>
+      <c r="N111" s="61"/>
+      <c r="O111" s="61"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
@@ -3329,13 +3332,13 @@
       <c r="F112" s="16"/>
       <c r="G112" s="17"/>
       <c r="H112" s="14"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
+      <c r="I112" s="61"/>
+      <c r="J112" s="61"/>
+      <c r="K112" s="61"/>
+      <c r="L112" s="61"/>
+      <c r="M112" s="61"/>
+      <c r="N112" s="61"/>
+      <c r="O112" s="61"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
@@ -3348,13 +3351,13 @@
       <c r="F113" s="16"/>
       <c r="G113" s="17"/>
       <c r="H113" s="14"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="61"/>
+      <c r="K113" s="61"/>
+      <c r="L113" s="61"/>
+      <c r="M113" s="61"/>
+      <c r="N113" s="61"/>
+      <c r="O113" s="61"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
@@ -3367,13 +3370,13 @@
       <c r="F114" s="16"/>
       <c r="G114" s="17"/>
       <c r="H114" s="14"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="61"/>
+      <c r="L114" s="61"/>
+      <c r="M114" s="61"/>
+      <c r="N114" s="61"/>
+      <c r="O114" s="61"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
@@ -3386,13 +3389,13 @@
       <c r="F115" s="16"/>
       <c r="G115" s="17"/>
       <c r="H115" s="14"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
+      <c r="I115" s="61"/>
+      <c r="J115" s="61"/>
+      <c r="K115" s="61"/>
+      <c r="L115" s="61"/>
+      <c r="M115" s="61"/>
+      <c r="N115" s="61"/>
+      <c r="O115" s="61"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
@@ -3405,13 +3408,13 @@
       <c r="F116" s="16"/>
       <c r="G116" s="17"/>
       <c r="H116" s="14"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
+      <c r="I116" s="61"/>
+      <c r="J116" s="61"/>
+      <c r="K116" s="61"/>
+      <c r="L116" s="61"/>
+      <c r="M116" s="61"/>
+      <c r="N116" s="61"/>
+      <c r="O116" s="61"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
@@ -3424,13 +3427,13 @@
       <c r="F117" s="16"/>
       <c r="G117" s="17"/>
       <c r="H117" s="14"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
+      <c r="I117" s="61"/>
+      <c r="J117" s="61"/>
+      <c r="K117" s="61"/>
+      <c r="L117" s="61"/>
+      <c r="M117" s="61"/>
+      <c r="N117" s="61"/>
+      <c r="O117" s="61"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
@@ -3443,13 +3446,13 @@
       <c r="F118" s="16"/>
       <c r="G118" s="17"/>
       <c r="H118" s="14"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
+      <c r="I118" s="61"/>
+      <c r="J118" s="61"/>
+      <c r="K118" s="61"/>
+      <c r="L118" s="61"/>
+      <c r="M118" s="61"/>
+      <c r="N118" s="61"/>
+      <c r="O118" s="61"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
@@ -3462,13 +3465,13 @@
       <c r="F119" s="16"/>
       <c r="G119" s="17"/>
       <c r="H119" s="14"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
+      <c r="I119" s="61"/>
+      <c r="J119" s="61"/>
+      <c r="K119" s="61"/>
+      <c r="L119" s="61"/>
+      <c r="M119" s="61"/>
+      <c r="N119" s="61"/>
+      <c r="O119" s="61"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
@@ -3481,13 +3484,13 @@
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
       <c r="H120" s="14"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
+      <c r="I120" s="61"/>
+      <c r="J120" s="61"/>
+      <c r="K120" s="61"/>
+      <c r="L120" s="61"/>
+      <c r="M120" s="61"/>
+      <c r="N120" s="61"/>
+      <c r="O120" s="61"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="13">
@@ -3500,13 +3503,13 @@
       <c r="F121" s="16"/>
       <c r="G121" s="17"/>
       <c r="H121" s="14"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="61"/>
+      <c r="L121" s="61"/>
+      <c r="M121" s="61"/>
+      <c r="N121" s="61"/>
+      <c r="O121" s="61"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
@@ -3519,13 +3522,13 @@
       <c r="F122" s="16"/>
       <c r="G122" s="17"/>
       <c r="H122" s="14"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
+      <c r="I122" s="61"/>
+      <c r="J122" s="61"/>
+      <c r="K122" s="61"/>
+      <c r="L122" s="61"/>
+      <c r="M122" s="61"/>
+      <c r="N122" s="61"/>
+      <c r="O122" s="61"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="13">
@@ -3538,13 +3541,13 @@
       <c r="F123" s="16"/>
       <c r="G123" s="17"/>
       <c r="H123" s="14"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="61"/>
+      <c r="L123" s="61"/>
+      <c r="M123" s="61"/>
+      <c r="N123" s="61"/>
+      <c r="O123" s="61"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
@@ -3557,13 +3560,13 @@
       <c r="F124" s="16"/>
       <c r="G124" s="17"/>
       <c r="H124" s="14"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="17"/>
-      <c r="K124" s="17"/>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
+      <c r="I124" s="61"/>
+      <c r="J124" s="61"/>
+      <c r="K124" s="61"/>
+      <c r="L124" s="61"/>
+      <c r="M124" s="61"/>
+      <c r="N124" s="61"/>
+      <c r="O124" s="61"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="13">
@@ -3576,13 +3579,13 @@
       <c r="F125" s="16"/>
       <c r="G125" s="17"/>
       <c r="H125" s="14"/>
-      <c r="I125" s="17"/>
-      <c r="J125" s="17"/>
-      <c r="K125" s="17"/>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="61"/>
+      <c r="L125" s="61"/>
+      <c r="M125" s="61"/>
+      <c r="N125" s="61"/>
+      <c r="O125" s="61"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
@@ -3595,13 +3598,13 @@
       <c r="F126" s="16"/>
       <c r="G126" s="17"/>
       <c r="H126" s="14"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="17"/>
-      <c r="K126" s="17"/>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
+      <c r="I126" s="61"/>
+      <c r="J126" s="61"/>
+      <c r="K126" s="61"/>
+      <c r="L126" s="61"/>
+      <c r="M126" s="61"/>
+      <c r="N126" s="61"/>
+      <c r="O126" s="61"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
@@ -3614,13 +3617,13 @@
       <c r="F127" s="16"/>
       <c r="G127" s="17"/>
       <c r="H127" s="14"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17"/>
-      <c r="K127" s="17"/>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
+      <c r="I127" s="61"/>
+      <c r="J127" s="61"/>
+      <c r="K127" s="61"/>
+      <c r="L127" s="61"/>
+      <c r="M127" s="61"/>
+      <c r="N127" s="61"/>
+      <c r="O127" s="61"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
@@ -3633,13 +3636,13 @@
       <c r="F128" s="16"/>
       <c r="G128" s="17"/>
       <c r="H128" s="14"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17"/>
-      <c r="K128" s="17"/>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
+      <c r="I128" s="61"/>
+      <c r="J128" s="61"/>
+      <c r="K128" s="61"/>
+      <c r="L128" s="61"/>
+      <c r="M128" s="61"/>
+      <c r="N128" s="61"/>
+      <c r="O128" s="61"/>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
@@ -3652,13 +3655,13 @@
       <c r="F129" s="16"/>
       <c r="G129" s="17"/>
       <c r="H129" s="14"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17"/>
-      <c r="K129" s="17"/>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
+      <c r="I129" s="61"/>
+      <c r="J129" s="61"/>
+      <c r="K129" s="61"/>
+      <c r="L129" s="61"/>
+      <c r="M129" s="61"/>
+      <c r="N129" s="61"/>
+      <c r="O129" s="61"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="13">
@@ -3671,13 +3674,13 @@
       <c r="F130" s="16"/>
       <c r="G130" s="17"/>
       <c r="H130" s="14"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="17"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
+      <c r="I130" s="61"/>
+      <c r="J130" s="61"/>
+      <c r="K130" s="61"/>
+      <c r="L130" s="61"/>
+      <c r="M130" s="61"/>
+      <c r="N130" s="61"/>
+      <c r="O130" s="61"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="13">
@@ -3690,13 +3693,13 @@
       <c r="F131" s="16"/>
       <c r="G131" s="17"/>
       <c r="H131" s="14"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
+      <c r="I131" s="61"/>
+      <c r="J131" s="61"/>
+      <c r="K131" s="61"/>
+      <c r="L131" s="61"/>
+      <c r="M131" s="61"/>
+      <c r="N131" s="61"/>
+      <c r="O131" s="61"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="13">
@@ -3709,13 +3712,13 @@
       <c r="F132" s="16"/>
       <c r="G132" s="17"/>
       <c r="H132" s="14"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="17"/>
-      <c r="K132" s="17"/>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
+      <c r="I132" s="61"/>
+      <c r="J132" s="61"/>
+      <c r="K132" s="61"/>
+      <c r="L132" s="61"/>
+      <c r="M132" s="61"/>
+      <c r="N132" s="61"/>
+      <c r="O132" s="61"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="13">
@@ -3728,13 +3731,13 @@
       <c r="F133" s="16"/>
       <c r="G133" s="17"/>
       <c r="H133" s="14"/>
-      <c r="I133" s="17"/>
-      <c r="J133" s="17"/>
-      <c r="K133" s="17"/>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
+      <c r="I133" s="61"/>
+      <c r="J133" s="61"/>
+      <c r="K133" s="61"/>
+      <c r="L133" s="61"/>
+      <c r="M133" s="61"/>
+      <c r="N133" s="61"/>
+      <c r="O133" s="61"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="13">
@@ -3747,13 +3750,13 @@
       <c r="F134" s="16"/>
       <c r="G134" s="17"/>
       <c r="H134" s="14"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="17"/>
-      <c r="K134" s="17"/>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
+      <c r="I134" s="61"/>
+      <c r="J134" s="61"/>
+      <c r="K134" s="61"/>
+      <c r="L134" s="61"/>
+      <c r="M134" s="61"/>
+      <c r="N134" s="61"/>
+      <c r="O134" s="61"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="13">
@@ -3766,13 +3769,13 @@
       <c r="F135" s="16"/>
       <c r="G135" s="17"/>
       <c r="H135" s="14"/>
-      <c r="I135" s="17"/>
-      <c r="J135" s="17"/>
-      <c r="K135" s="17"/>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
+      <c r="I135" s="61"/>
+      <c r="J135" s="61"/>
+      <c r="K135" s="61"/>
+      <c r="L135" s="61"/>
+      <c r="M135" s="61"/>
+      <c r="N135" s="61"/>
+      <c r="O135" s="61"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="13">
@@ -3785,13 +3788,13 @@
       <c r="F136" s="16"/>
       <c r="G136" s="17"/>
       <c r="H136" s="14"/>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
-      <c r="K136" s="17"/>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
+      <c r="I136" s="61"/>
+      <c r="J136" s="61"/>
+      <c r="K136" s="61"/>
+      <c r="L136" s="61"/>
+      <c r="M136" s="61"/>
+      <c r="N136" s="61"/>
+      <c r="O136" s="61"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
@@ -3804,13 +3807,13 @@
       <c r="F137" s="16"/>
       <c r="G137" s="17"/>
       <c r="H137" s="14"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
-      <c r="K137" s="17"/>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
+      <c r="I137" s="61"/>
+      <c r="J137" s="61"/>
+      <c r="K137" s="61"/>
+      <c r="L137" s="61"/>
+      <c r="M137" s="61"/>
+      <c r="N137" s="61"/>
+      <c r="O137" s="61"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="13">
@@ -3823,13 +3826,13 @@
       <c r="F138" s="16"/>
       <c r="G138" s="17"/>
       <c r="H138" s="14"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
-      <c r="K138" s="17"/>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
+      <c r="I138" s="61"/>
+      <c r="J138" s="61"/>
+      <c r="K138" s="61"/>
+      <c r="L138" s="61"/>
+      <c r="M138" s="61"/>
+      <c r="N138" s="61"/>
+      <c r="O138" s="61"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="13">
@@ -3842,13 +3845,13 @@
       <c r="F139" s="16"/>
       <c r="G139" s="17"/>
       <c r="H139" s="14"/>
-      <c r="I139" s="17"/>
-      <c r="J139" s="17"/>
-      <c r="K139" s="17"/>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
+      <c r="I139" s="61"/>
+      <c r="J139" s="61"/>
+      <c r="K139" s="61"/>
+      <c r="L139" s="61"/>
+      <c r="M139" s="61"/>
+      <c r="N139" s="61"/>
+      <c r="O139" s="61"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="13">
@@ -3861,13 +3864,13 @@
       <c r="F140" s="16"/>
       <c r="G140" s="17"/>
       <c r="H140" s="14"/>
-      <c r="I140" s="17"/>
-      <c r="J140" s="17"/>
-      <c r="K140" s="17"/>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
+      <c r="I140" s="61"/>
+      <c r="J140" s="61"/>
+      <c r="K140" s="61"/>
+      <c r="L140" s="61"/>
+      <c r="M140" s="61"/>
+      <c r="N140" s="61"/>
+      <c r="O140" s="61"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="13">
@@ -3880,13 +3883,13 @@
       <c r="F141" s="16"/>
       <c r="G141" s="17"/>
       <c r="H141" s="14"/>
-      <c r="I141" s="17"/>
-      <c r="J141" s="17"/>
-      <c r="K141" s="17"/>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
+      <c r="I141" s="61"/>
+      <c r="J141" s="61"/>
+      <c r="K141" s="61"/>
+      <c r="L141" s="61"/>
+      <c r="M141" s="61"/>
+      <c r="N141" s="61"/>
+      <c r="O141" s="61"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
@@ -3899,13 +3902,13 @@
       <c r="F142" s="16"/>
       <c r="G142" s="17"/>
       <c r="H142" s="14"/>
-      <c r="I142" s="17"/>
-      <c r="J142" s="17"/>
-      <c r="K142" s="17"/>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
+      <c r="I142" s="61"/>
+      <c r="J142" s="61"/>
+      <c r="K142" s="61"/>
+      <c r="L142" s="61"/>
+      <c r="M142" s="61"/>
+      <c r="N142" s="61"/>
+      <c r="O142" s="61"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="13">
@@ -3918,13 +3921,13 @@
       <c r="F143" s="16"/>
       <c r="G143" s="17"/>
       <c r="H143" s="14"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17"/>
-      <c r="K143" s="17"/>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="61"/>
+      <c r="L143" s="61"/>
+      <c r="M143" s="61"/>
+      <c r="N143" s="61"/>
+      <c r="O143" s="61"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="13">
@@ -3937,13 +3940,13 @@
       <c r="F144" s="16"/>
       <c r="G144" s="17"/>
       <c r="H144" s="14"/>
-      <c r="I144" s="17"/>
-      <c r="J144" s="17"/>
-      <c r="K144" s="17"/>
-      <c r="L144" s="17"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
+      <c r="I144" s="61"/>
+      <c r="J144" s="61"/>
+      <c r="K144" s="61"/>
+      <c r="L144" s="61"/>
+      <c r="M144" s="61"/>
+      <c r="N144" s="61"/>
+      <c r="O144" s="61"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="13">
@@ -3956,13 +3959,13 @@
       <c r="F145" s="16"/>
       <c r="G145" s="17"/>
       <c r="H145" s="14"/>
-      <c r="I145" s="17"/>
-      <c r="J145" s="17"/>
-      <c r="K145" s="17"/>
-      <c r="L145" s="17"/>
-      <c r="M145" s="17"/>
-      <c r="N145" s="17"/>
-      <c r="O145" s="17"/>
+      <c r="I145" s="61"/>
+      <c r="J145" s="61"/>
+      <c r="K145" s="61"/>
+      <c r="L145" s="61"/>
+      <c r="M145" s="61"/>
+      <c r="N145" s="61"/>
+      <c r="O145" s="61"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="13">
@@ -3975,13 +3978,13 @@
       <c r="F146" s="16"/>
       <c r="G146" s="17"/>
       <c r="H146" s="14"/>
-      <c r="I146" s="17"/>
-      <c r="J146" s="17"/>
-      <c r="K146" s="17"/>
-      <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
-      <c r="N146" s="17"/>
-      <c r="O146" s="17"/>
+      <c r="I146" s="61"/>
+      <c r="J146" s="61"/>
+      <c r="K146" s="61"/>
+      <c r="L146" s="61"/>
+      <c r="M146" s="61"/>
+      <c r="N146" s="61"/>
+      <c r="O146" s="61"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
@@ -3994,13 +3997,13 @@
       <c r="F147" s="16"/>
       <c r="G147" s="17"/>
       <c r="H147" s="14"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="17"/>
-      <c r="K147" s="17"/>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
-      <c r="O147" s="17"/>
+      <c r="I147" s="61"/>
+      <c r="J147" s="61"/>
+      <c r="K147" s="61"/>
+      <c r="L147" s="61"/>
+      <c r="M147" s="61"/>
+      <c r="N147" s="61"/>
+      <c r="O147" s="61"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="13">
@@ -4013,13 +4016,13 @@
       <c r="F148" s="16"/>
       <c r="G148" s="17"/>
       <c r="H148" s="14"/>
-      <c r="I148" s="17"/>
-      <c r="J148" s="17"/>
-      <c r="K148" s="17"/>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
+      <c r="I148" s="61"/>
+      <c r="J148" s="61"/>
+      <c r="K148" s="61"/>
+      <c r="L148" s="61"/>
+      <c r="M148" s="61"/>
+      <c r="N148" s="61"/>
+      <c r="O148" s="61"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="13">
@@ -4032,13 +4035,13 @@
       <c r="F149" s="16"/>
       <c r="G149" s="17"/>
       <c r="H149" s="14"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="17"/>
-      <c r="K149" s="17"/>
-      <c r="L149" s="17"/>
-      <c r="M149" s="17"/>
-      <c r="N149" s="17"/>
-      <c r="O149" s="17"/>
+      <c r="I149" s="61"/>
+      <c r="J149" s="61"/>
+      <c r="K149" s="61"/>
+      <c r="L149" s="61"/>
+      <c r="M149" s="61"/>
+      <c r="N149" s="61"/>
+      <c r="O149" s="61"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="13">
@@ -4051,13 +4054,13 @@
       <c r="F150" s="16"/>
       <c r="G150" s="17"/>
       <c r="H150" s="14"/>
-      <c r="I150" s="17"/>
-      <c r="J150" s="17"/>
-      <c r="K150" s="17"/>
-      <c r="L150" s="17"/>
-      <c r="M150" s="17"/>
-      <c r="N150" s="17"/>
-      <c r="O150" s="17"/>
+      <c r="I150" s="61"/>
+      <c r="J150" s="61"/>
+      <c r="K150" s="61"/>
+      <c r="L150" s="61"/>
+      <c r="M150" s="61"/>
+      <c r="N150" s="61"/>
+      <c r="O150" s="61"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="13">
@@ -4070,13 +4073,13 @@
       <c r="F151" s="16"/>
       <c r="G151" s="17"/>
       <c r="H151" s="14"/>
-      <c r="I151" s="17"/>
-      <c r="J151" s="17"/>
-      <c r="K151" s="17"/>
-      <c r="L151" s="17"/>
-      <c r="M151" s="17"/>
-      <c r="N151" s="17"/>
-      <c r="O151" s="17"/>
+      <c r="I151" s="61"/>
+      <c r="J151" s="61"/>
+      <c r="K151" s="61"/>
+      <c r="L151" s="61"/>
+      <c r="M151" s="61"/>
+      <c r="N151" s="61"/>
+      <c r="O151" s="61"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="13">
@@ -4089,13 +4092,13 @@
       <c r="F152" s="16"/>
       <c r="G152" s="17"/>
       <c r="H152" s="14"/>
-      <c r="I152" s="17"/>
-      <c r="J152" s="17"/>
-      <c r="K152" s="17"/>
-      <c r="L152" s="17"/>
-      <c r="M152" s="17"/>
-      <c r="N152" s="17"/>
-      <c r="O152" s="17"/>
+      <c r="I152" s="61"/>
+      <c r="J152" s="61"/>
+      <c r="K152" s="61"/>
+      <c r="L152" s="61"/>
+      <c r="M152" s="61"/>
+      <c r="N152" s="61"/>
+      <c r="O152" s="61"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
@@ -4108,13 +4111,13 @@
       <c r="F153" s="16"/>
       <c r="G153" s="17"/>
       <c r="H153" s="14"/>
-      <c r="I153" s="17"/>
-      <c r="J153" s="17"/>
-      <c r="K153" s="17"/>
-      <c r="L153" s="17"/>
-      <c r="M153" s="17"/>
-      <c r="N153" s="17"/>
-      <c r="O153" s="17"/>
+      <c r="I153" s="61"/>
+      <c r="J153" s="61"/>
+      <c r="K153" s="61"/>
+      <c r="L153" s="61"/>
+      <c r="M153" s="61"/>
+      <c r="N153" s="61"/>
+      <c r="O153" s="61"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
@@ -4127,13 +4130,13 @@
       <c r="F154" s="16"/>
       <c r="G154" s="17"/>
       <c r="H154" s="14"/>
-      <c r="I154" s="17"/>
-      <c r="J154" s="17"/>
-      <c r="K154" s="17"/>
-      <c r="L154" s="17"/>
-      <c r="M154" s="17"/>
-      <c r="N154" s="17"/>
-      <c r="O154" s="17"/>
+      <c r="I154" s="61"/>
+      <c r="J154" s="61"/>
+      <c r="K154" s="61"/>
+      <c r="L154" s="61"/>
+      <c r="M154" s="61"/>
+      <c r="N154" s="61"/>
+      <c r="O154" s="61"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
@@ -4146,13 +4149,13 @@
       <c r="F155" s="16"/>
       <c r="G155" s="17"/>
       <c r="H155" s="14"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="17"/>
-      <c r="K155" s="17"/>
-      <c r="L155" s="17"/>
-      <c r="M155" s="17"/>
-      <c r="N155" s="17"/>
-      <c r="O155" s="17"/>
+      <c r="I155" s="61"/>
+      <c r="J155" s="61"/>
+      <c r="K155" s="61"/>
+      <c r="L155" s="61"/>
+      <c r="M155" s="61"/>
+      <c r="N155" s="61"/>
+      <c r="O155" s="61"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
@@ -4165,13 +4168,13 @@
       <c r="F156" s="16"/>
       <c r="G156" s="17"/>
       <c r="H156" s="14"/>
-      <c r="I156" s="17"/>
-      <c r="J156" s="17"/>
-      <c r="K156" s="17"/>
-      <c r="L156" s="17"/>
-      <c r="M156" s="17"/>
-      <c r="N156" s="17"/>
-      <c r="O156" s="17"/>
+      <c r="I156" s="61"/>
+      <c r="J156" s="61"/>
+      <c r="K156" s="61"/>
+      <c r="L156" s="61"/>
+      <c r="M156" s="61"/>
+      <c r="N156" s="61"/>
+      <c r="O156" s="61"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
@@ -4184,13 +4187,13 @@
       <c r="F157" s="16"/>
       <c r="G157" s="17"/>
       <c r="H157" s="14"/>
-      <c r="I157" s="17"/>
-      <c r="J157" s="17"/>
-      <c r="K157" s="17"/>
-      <c r="L157" s="17"/>
-      <c r="M157" s="17"/>
-      <c r="N157" s="17"/>
-      <c r="O157" s="17"/>
+      <c r="I157" s="61"/>
+      <c r="J157" s="61"/>
+      <c r="K157" s="61"/>
+      <c r="L157" s="61"/>
+      <c r="M157" s="61"/>
+      <c r="N157" s="61"/>
+      <c r="O157" s="61"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
@@ -4203,13 +4206,13 @@
       <c r="F158" s="16"/>
       <c r="G158" s="17"/>
       <c r="H158" s="14"/>
-      <c r="I158" s="17"/>
-      <c r="J158" s="17"/>
-      <c r="K158" s="17"/>
-      <c r="L158" s="17"/>
-      <c r="M158" s="17"/>
-      <c r="N158" s="17"/>
-      <c r="O158" s="17"/>
+      <c r="I158" s="61"/>
+      <c r="J158" s="61"/>
+      <c r="K158" s="61"/>
+      <c r="L158" s="61"/>
+      <c r="M158" s="61"/>
+      <c r="N158" s="61"/>
+      <c r="O158" s="61"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="13">
@@ -4222,13 +4225,13 @@
       <c r="F159" s="16"/>
       <c r="G159" s="17"/>
       <c r="H159" s="14"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="17"/>
-      <c r="K159" s="17"/>
-      <c r="L159" s="17"/>
-      <c r="M159" s="17"/>
-      <c r="N159" s="17"/>
-      <c r="O159" s="17"/>
+      <c r="I159" s="61"/>
+      <c r="J159" s="61"/>
+      <c r="K159" s="61"/>
+      <c r="L159" s="61"/>
+      <c r="M159" s="61"/>
+      <c r="N159" s="61"/>
+      <c r="O159" s="61"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="13">
@@ -4241,13 +4244,13 @@
       <c r="F160" s="16"/>
       <c r="G160" s="17"/>
       <c r="H160" s="14"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="17"/>
-      <c r="K160" s="17"/>
-      <c r="L160" s="17"/>
-      <c r="M160" s="17"/>
-      <c r="N160" s="17"/>
-      <c r="O160" s="17"/>
+      <c r="I160" s="61"/>
+      <c r="J160" s="61"/>
+      <c r="K160" s="61"/>
+      <c r="L160" s="61"/>
+      <c r="M160" s="61"/>
+      <c r="N160" s="61"/>
+      <c r="O160" s="61"/>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="13">
@@ -4260,13 +4263,13 @@
       <c r="F161" s="16"/>
       <c r="G161" s="17"/>
       <c r="H161" s="14"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="17"/>
-      <c r="K161" s="17"/>
-      <c r="L161" s="17"/>
-      <c r="M161" s="17"/>
-      <c r="N161" s="17"/>
-      <c r="O161" s="17"/>
+      <c r="I161" s="61"/>
+      <c r="J161" s="61"/>
+      <c r="K161" s="61"/>
+      <c r="L161" s="61"/>
+      <c r="M161" s="61"/>
+      <c r="N161" s="61"/>
+      <c r="O161" s="61"/>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="13">
@@ -4279,13 +4282,13 @@
       <c r="F162" s="16"/>
       <c r="G162" s="17"/>
       <c r="H162" s="14"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="17"/>
-      <c r="K162" s="17"/>
-      <c r="L162" s="17"/>
-      <c r="M162" s="17"/>
-      <c r="N162" s="17"/>
-      <c r="O162" s="17"/>
+      <c r="I162" s="61"/>
+      <c r="J162" s="61"/>
+      <c r="K162" s="61"/>
+      <c r="L162" s="61"/>
+      <c r="M162" s="61"/>
+      <c r="N162" s="61"/>
+      <c r="O162" s="61"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
@@ -4298,13 +4301,13 @@
       <c r="F163" s="16"/>
       <c r="G163" s="17"/>
       <c r="H163" s="14"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="17"/>
-      <c r="K163" s="17"/>
-      <c r="L163" s="17"/>
-      <c r="M163" s="17"/>
-      <c r="N163" s="17"/>
-      <c r="O163" s="17"/>
+      <c r="I163" s="61"/>
+      <c r="J163" s="61"/>
+      <c r="K163" s="61"/>
+      <c r="L163" s="61"/>
+      <c r="M163" s="61"/>
+      <c r="N163" s="61"/>
+      <c r="O163" s="61"/>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="13">
@@ -4317,13 +4320,13 @@
       <c r="F164" s="16"/>
       <c r="G164" s="17"/>
       <c r="H164" s="14"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17"/>
-      <c r="K164" s="17"/>
-      <c r="L164" s="17"/>
-      <c r="M164" s="17"/>
-      <c r="N164" s="17"/>
-      <c r="O164" s="17"/>
+      <c r="I164" s="61"/>
+      <c r="J164" s="61"/>
+      <c r="K164" s="61"/>
+      <c r="L164" s="61"/>
+      <c r="M164" s="61"/>
+      <c r="N164" s="61"/>
+      <c r="O164" s="61"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="13">
@@ -4336,13 +4339,13 @@
       <c r="F165" s="16"/>
       <c r="G165" s="17"/>
       <c r="H165" s="14"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="17"/>
-      <c r="M165" s="17"/>
-      <c r="N165" s="17"/>
-      <c r="O165" s="17"/>
+      <c r="I165" s="61"/>
+      <c r="J165" s="61"/>
+      <c r="K165" s="61"/>
+      <c r="L165" s="61"/>
+      <c r="M165" s="61"/>
+      <c r="N165" s="61"/>
+      <c r="O165" s="61"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
@@ -4355,13 +4358,13 @@
       <c r="F166" s="16"/>
       <c r="G166" s="17"/>
       <c r="H166" s="14"/>
-      <c r="I166" s="17"/>
-      <c r="J166" s="17"/>
-      <c r="K166" s="17"/>
-      <c r="L166" s="17"/>
-      <c r="M166" s="17"/>
-      <c r="N166" s="17"/>
-      <c r="O166" s="17"/>
+      <c r="I166" s="61"/>
+      <c r="J166" s="61"/>
+      <c r="K166" s="61"/>
+      <c r="L166" s="61"/>
+      <c r="M166" s="61"/>
+      <c r="N166" s="61"/>
+      <c r="O166" s="61"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
@@ -4374,13 +4377,13 @@
       <c r="F167" s="16"/>
       <c r="G167" s="17"/>
       <c r="H167" s="14"/>
-      <c r="I167" s="17"/>
-      <c r="J167" s="17"/>
-      <c r="K167" s="17"/>
-      <c r="L167" s="17"/>
-      <c r="M167" s="17"/>
-      <c r="N167" s="17"/>
-      <c r="O167" s="17"/>
+      <c r="I167" s="61"/>
+      <c r="J167" s="61"/>
+      <c r="K167" s="61"/>
+      <c r="L167" s="61"/>
+      <c r="M167" s="61"/>
+      <c r="N167" s="61"/>
+      <c r="O167" s="61"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="13">
@@ -4393,13 +4396,13 @@
       <c r="F168" s="16"/>
       <c r="G168" s="17"/>
       <c r="H168" s="14"/>
-      <c r="I168" s="17"/>
-      <c r="J168" s="17"/>
-      <c r="K168" s="17"/>
-      <c r="L168" s="17"/>
-      <c r="M168" s="17"/>
-      <c r="N168" s="17"/>
-      <c r="O168" s="17"/>
+      <c r="I168" s="61"/>
+      <c r="J168" s="61"/>
+      <c r="K168" s="61"/>
+      <c r="L168" s="61"/>
+      <c r="M168" s="61"/>
+      <c r="N168" s="61"/>
+      <c r="O168" s="61"/>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="13">
@@ -4412,13 +4415,13 @@
       <c r="F169" s="16"/>
       <c r="G169" s="17"/>
       <c r="H169" s="14"/>
-      <c r="I169" s="17"/>
-      <c r="J169" s="17"/>
-      <c r="K169" s="17"/>
-      <c r="L169" s="17"/>
-      <c r="M169" s="17"/>
-      <c r="N169" s="17"/>
-      <c r="O169" s="17"/>
+      <c r="I169" s="61"/>
+      <c r="J169" s="61"/>
+      <c r="K169" s="61"/>
+      <c r="L169" s="61"/>
+      <c r="M169" s="61"/>
+      <c r="N169" s="61"/>
+      <c r="O169" s="61"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="13">
@@ -4431,13 +4434,13 @@
       <c r="F170" s="16"/>
       <c r="G170" s="17"/>
       <c r="H170" s="14"/>
-      <c r="I170" s="17"/>
-      <c r="J170" s="17"/>
-      <c r="K170" s="17"/>
-      <c r="L170" s="17"/>
-      <c r="M170" s="17"/>
-      <c r="N170" s="17"/>
-      <c r="O170" s="17"/>
+      <c r="I170" s="61"/>
+      <c r="J170" s="61"/>
+      <c r="K170" s="61"/>
+      <c r="L170" s="61"/>
+      <c r="M170" s="61"/>
+      <c r="N170" s="61"/>
+      <c r="O170" s="61"/>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="13">
@@ -4450,13 +4453,13 @@
       <c r="F171" s="16"/>
       <c r="G171" s="17"/>
       <c r="H171" s="14"/>
-      <c r="I171" s="17"/>
-      <c r="J171" s="17"/>
-      <c r="K171" s="17"/>
-      <c r="L171" s="17"/>
-      <c r="M171" s="17"/>
-      <c r="N171" s="17"/>
-      <c r="O171" s="17"/>
+      <c r="I171" s="61"/>
+      <c r="J171" s="61"/>
+      <c r="K171" s="61"/>
+      <c r="L171" s="61"/>
+      <c r="M171" s="61"/>
+      <c r="N171" s="61"/>
+      <c r="O171" s="61"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="13">
@@ -4469,13 +4472,13 @@
       <c r="F172" s="16"/>
       <c r="G172" s="17"/>
       <c r="H172" s="14"/>
-      <c r="I172" s="17"/>
-      <c r="J172" s="17"/>
-      <c r="K172" s="17"/>
-      <c r="L172" s="17"/>
-      <c r="M172" s="17"/>
-      <c r="N172" s="17"/>
-      <c r="O172" s="17"/>
+      <c r="I172" s="61"/>
+      <c r="J172" s="61"/>
+      <c r="K172" s="61"/>
+      <c r="L172" s="61"/>
+      <c r="M172" s="61"/>
+      <c r="N172" s="61"/>
+      <c r="O172" s="61"/>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="13">
@@ -4488,13 +4491,13 @@
       <c r="F173" s="16"/>
       <c r="G173" s="17"/>
       <c r="H173" s="14"/>
-      <c r="I173" s="17"/>
-      <c r="J173" s="17"/>
-      <c r="K173" s="17"/>
-      <c r="L173" s="17"/>
-      <c r="M173" s="17"/>
-      <c r="N173" s="17"/>
-      <c r="O173" s="17"/>
+      <c r="I173" s="61"/>
+      <c r="J173" s="61"/>
+      <c r="K173" s="61"/>
+      <c r="L173" s="61"/>
+      <c r="M173" s="61"/>
+      <c r="N173" s="61"/>
+      <c r="O173" s="61"/>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="13">
@@ -4507,13 +4510,13 @@
       <c r="F174" s="16"/>
       <c r="G174" s="17"/>
       <c r="H174" s="14"/>
-      <c r="I174" s="17"/>
-      <c r="J174" s="17"/>
-      <c r="K174" s="17"/>
-      <c r="L174" s="17"/>
-      <c r="M174" s="17"/>
-      <c r="N174" s="17"/>
-      <c r="O174" s="17"/>
+      <c r="I174" s="61"/>
+      <c r="J174" s="61"/>
+      <c r="K174" s="61"/>
+      <c r="L174" s="61"/>
+      <c r="M174" s="61"/>
+      <c r="N174" s="61"/>
+      <c r="O174" s="61"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
@@ -4526,13 +4529,13 @@
       <c r="F175" s="16"/>
       <c r="G175" s="17"/>
       <c r="H175" s="14"/>
-      <c r="I175" s="17"/>
-      <c r="J175" s="17"/>
-      <c r="K175" s="17"/>
-      <c r="L175" s="17"/>
-      <c r="M175" s="17"/>
-      <c r="N175" s="17"/>
-      <c r="O175" s="17"/>
+      <c r="I175" s="61"/>
+      <c r="J175" s="61"/>
+      <c r="K175" s="61"/>
+      <c r="L175" s="61"/>
+      <c r="M175" s="61"/>
+      <c r="N175" s="61"/>
+      <c r="O175" s="61"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="13">
@@ -4545,13 +4548,13 @@
       <c r="F176" s="16"/>
       <c r="G176" s="17"/>
       <c r="H176" s="14"/>
-      <c r="I176" s="17"/>
-      <c r="J176" s="17"/>
-      <c r="K176" s="17"/>
-      <c r="L176" s="17"/>
-      <c r="M176" s="17"/>
-      <c r="N176" s="17"/>
-      <c r="O176" s="17"/>
+      <c r="I176" s="61"/>
+      <c r="J176" s="61"/>
+      <c r="K176" s="61"/>
+      <c r="L176" s="61"/>
+      <c r="M176" s="61"/>
+      <c r="N176" s="61"/>
+      <c r="O176" s="61"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="13">
@@ -4564,13 +4567,13 @@
       <c r="F177" s="16"/>
       <c r="G177" s="17"/>
       <c r="H177" s="14"/>
-      <c r="I177" s="17"/>
-      <c r="J177" s="17"/>
-      <c r="K177" s="17"/>
-      <c r="L177" s="17"/>
-      <c r="M177" s="17"/>
-      <c r="N177" s="17"/>
-      <c r="O177" s="17"/>
+      <c r="I177" s="61"/>
+      <c r="J177" s="61"/>
+      <c r="K177" s="61"/>
+      <c r="L177" s="61"/>
+      <c r="M177" s="61"/>
+      <c r="N177" s="61"/>
+      <c r="O177" s="61"/>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="13">
@@ -4583,13 +4586,13 @@
       <c r="F178" s="16"/>
       <c r="G178" s="17"/>
       <c r="H178" s="14"/>
-      <c r="I178" s="17"/>
-      <c r="J178" s="17"/>
-      <c r="K178" s="17"/>
-      <c r="L178" s="17"/>
-      <c r="M178" s="17"/>
-      <c r="N178" s="17"/>
-      <c r="O178" s="17"/>
+      <c r="I178" s="61"/>
+      <c r="J178" s="61"/>
+      <c r="K178" s="61"/>
+      <c r="L178" s="61"/>
+      <c r="M178" s="61"/>
+      <c r="N178" s="61"/>
+      <c r="O178" s="61"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
@@ -4602,13 +4605,13 @@
       <c r="F179" s="16"/>
       <c r="G179" s="17"/>
       <c r="H179" s="14"/>
-      <c r="I179" s="17"/>
-      <c r="J179" s="17"/>
-      <c r="K179" s="17"/>
-      <c r="L179" s="17"/>
-      <c r="M179" s="17"/>
-      <c r="N179" s="17"/>
-      <c r="O179" s="17"/>
+      <c r="I179" s="61"/>
+      <c r="J179" s="61"/>
+      <c r="K179" s="61"/>
+      <c r="L179" s="61"/>
+      <c r="M179" s="61"/>
+      <c r="N179" s="61"/>
+      <c r="O179" s="61"/>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="13">
@@ -4621,13 +4624,13 @@
       <c r="F180" s="16"/>
       <c r="G180" s="17"/>
       <c r="H180" s="14"/>
-      <c r="I180" s="17"/>
-      <c r="J180" s="17"/>
-      <c r="K180" s="17"/>
-      <c r="L180" s="17"/>
-      <c r="M180" s="17"/>
-      <c r="N180" s="17"/>
-      <c r="O180" s="17"/>
+      <c r="I180" s="61"/>
+      <c r="J180" s="61"/>
+      <c r="K180" s="61"/>
+      <c r="L180" s="61"/>
+      <c r="M180" s="61"/>
+      <c r="N180" s="61"/>
+      <c r="O180" s="61"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="13">
@@ -4640,13 +4643,13 @@
       <c r="F181" s="16"/>
       <c r="G181" s="17"/>
       <c r="H181" s="14"/>
-      <c r="I181" s="17"/>
-      <c r="J181" s="17"/>
-      <c r="K181" s="17"/>
-      <c r="L181" s="17"/>
-      <c r="M181" s="17"/>
-      <c r="N181" s="17"/>
-      <c r="O181" s="17"/>
+      <c r="I181" s="61"/>
+      <c r="J181" s="61"/>
+      <c r="K181" s="61"/>
+      <c r="L181" s="61"/>
+      <c r="M181" s="61"/>
+      <c r="N181" s="61"/>
+      <c r="O181" s="61"/>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
@@ -4659,13 +4662,13 @@
       <c r="F182" s="16"/>
       <c r="G182" s="17"/>
       <c r="H182" s="14"/>
-      <c r="I182" s="17"/>
-      <c r="J182" s="17"/>
-      <c r="K182" s="17"/>
-      <c r="L182" s="17"/>
-      <c r="M182" s="17"/>
-      <c r="N182" s="17"/>
-      <c r="O182" s="17"/>
+      <c r="I182" s="61"/>
+      <c r="J182" s="61"/>
+      <c r="K182" s="61"/>
+      <c r="L182" s="61"/>
+      <c r="M182" s="61"/>
+      <c r="N182" s="61"/>
+      <c r="O182" s="61"/>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="13">
@@ -4678,13 +4681,13 @@
       <c r="F183" s="16"/>
       <c r="G183" s="17"/>
       <c r="H183" s="14"/>
-      <c r="I183" s="17"/>
-      <c r="J183" s="17"/>
-      <c r="K183" s="17"/>
-      <c r="L183" s="17"/>
-      <c r="M183" s="17"/>
-      <c r="N183" s="17"/>
-      <c r="O183" s="17"/>
+      <c r="I183" s="61"/>
+      <c r="J183" s="61"/>
+      <c r="K183" s="61"/>
+      <c r="L183" s="61"/>
+      <c r="M183" s="61"/>
+      <c r="N183" s="61"/>
+      <c r="O183" s="61"/>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="13">
@@ -4697,13 +4700,13 @@
       <c r="F184" s="16"/>
       <c r="G184" s="17"/>
       <c r="H184" s="14"/>
-      <c r="I184" s="17"/>
-      <c r="J184" s="17"/>
-      <c r="K184" s="17"/>
-      <c r="L184" s="17"/>
-      <c r="M184" s="17"/>
-      <c r="N184" s="17"/>
-      <c r="O184" s="17"/>
+      <c r="I184" s="61"/>
+      <c r="J184" s="61"/>
+      <c r="K184" s="61"/>
+      <c r="L184" s="61"/>
+      <c r="M184" s="61"/>
+      <c r="N184" s="61"/>
+      <c r="O184" s="61"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="13">
@@ -4716,13 +4719,13 @@
       <c r="F185" s="16"/>
       <c r="G185" s="17"/>
       <c r="H185" s="14"/>
-      <c r="I185" s="17"/>
-      <c r="J185" s="17"/>
-      <c r="K185" s="17"/>
-      <c r="L185" s="17"/>
-      <c r="M185" s="17"/>
-      <c r="N185" s="17"/>
-      <c r="O185" s="17"/>
+      <c r="I185" s="61"/>
+      <c r="J185" s="61"/>
+      <c r="K185" s="61"/>
+      <c r="L185" s="61"/>
+      <c r="M185" s="61"/>
+      <c r="N185" s="61"/>
+      <c r="O185" s="61"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="13">
@@ -4735,13 +4738,13 @@
       <c r="F186" s="16"/>
       <c r="G186" s="17"/>
       <c r="H186" s="14"/>
-      <c r="I186" s="17"/>
-      <c r="J186" s="17"/>
-      <c r="K186" s="17"/>
-      <c r="L186" s="17"/>
-      <c r="M186" s="17"/>
-      <c r="N186" s="17"/>
-      <c r="O186" s="17"/>
+      <c r="I186" s="61"/>
+      <c r="J186" s="61"/>
+      <c r="K186" s="61"/>
+      <c r="L186" s="61"/>
+      <c r="M186" s="61"/>
+      <c r="N186" s="61"/>
+      <c r="O186" s="61"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="13">
@@ -4754,13 +4757,13 @@
       <c r="F187" s="16"/>
       <c r="G187" s="17"/>
       <c r="H187" s="14"/>
-      <c r="I187" s="17"/>
-      <c r="J187" s="17"/>
-      <c r="K187" s="17"/>
-      <c r="L187" s="17"/>
-      <c r="M187" s="17"/>
-      <c r="N187" s="17"/>
-      <c r="O187" s="17"/>
+      <c r="I187" s="61"/>
+      <c r="J187" s="61"/>
+      <c r="K187" s="61"/>
+      <c r="L187" s="61"/>
+      <c r="M187" s="61"/>
+      <c r="N187" s="61"/>
+      <c r="O187" s="61"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="13">
@@ -4773,13 +4776,13 @@
       <c r="F188" s="16"/>
       <c r="G188" s="17"/>
       <c r="H188" s="14"/>
-      <c r="I188" s="17"/>
-      <c r="J188" s="17"/>
-      <c r="K188" s="17"/>
-      <c r="L188" s="17"/>
-      <c r="M188" s="17"/>
-      <c r="N188" s="17"/>
-      <c r="O188" s="17"/>
+      <c r="I188" s="61"/>
+      <c r="J188" s="61"/>
+      <c r="K188" s="61"/>
+      <c r="L188" s="61"/>
+      <c r="M188" s="61"/>
+      <c r="N188" s="61"/>
+      <c r="O188" s="61"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
@@ -4792,13 +4795,13 @@
       <c r="F189" s="16"/>
       <c r="G189" s="17"/>
       <c r="H189" s="14"/>
-      <c r="I189" s="17"/>
-      <c r="J189" s="17"/>
-      <c r="K189" s="17"/>
-      <c r="L189" s="17"/>
-      <c r="M189" s="17"/>
-      <c r="N189" s="17"/>
-      <c r="O189" s="17"/>
+      <c r="I189" s="61"/>
+      <c r="J189" s="61"/>
+      <c r="K189" s="61"/>
+      <c r="L189" s="61"/>
+      <c r="M189" s="61"/>
+      <c r="N189" s="61"/>
+      <c r="O189" s="61"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="13">
@@ -4811,13 +4814,13 @@
       <c r="F190" s="16"/>
       <c r="G190" s="17"/>
       <c r="H190" s="14"/>
-      <c r="I190" s="17"/>
-      <c r="J190" s="17"/>
-      <c r="K190" s="17"/>
-      <c r="L190" s="17"/>
-      <c r="M190" s="17"/>
-      <c r="N190" s="17"/>
-      <c r="O190" s="17"/>
+      <c r="I190" s="61"/>
+      <c r="J190" s="61"/>
+      <c r="K190" s="61"/>
+      <c r="L190" s="61"/>
+      <c r="M190" s="61"/>
+      <c r="N190" s="61"/>
+      <c r="O190" s="61"/>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="13">
@@ -4830,13 +4833,13 @@
       <c r="F191" s="16"/>
       <c r="G191" s="17"/>
       <c r="H191" s="14"/>
-      <c r="I191" s="17"/>
-      <c r="J191" s="17"/>
-      <c r="K191" s="17"/>
-      <c r="L191" s="17"/>
-      <c r="M191" s="17"/>
-      <c r="N191" s="17"/>
-      <c r="O191" s="17"/>
+      <c r="I191" s="61"/>
+      <c r="J191" s="61"/>
+      <c r="K191" s="61"/>
+      <c r="L191" s="61"/>
+      <c r="M191" s="61"/>
+      <c r="N191" s="61"/>
+      <c r="O191" s="61"/>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="13">
@@ -4849,13 +4852,13 @@
       <c r="F192" s="16"/>
       <c r="G192" s="17"/>
       <c r="H192" s="14"/>
-      <c r="I192" s="17"/>
-      <c r="J192" s="17"/>
-      <c r="K192" s="17"/>
-      <c r="L192" s="17"/>
-      <c r="M192" s="17"/>
-      <c r="N192" s="17"/>
-      <c r="O192" s="17"/>
+      <c r="I192" s="61"/>
+      <c r="J192" s="61"/>
+      <c r="K192" s="61"/>
+      <c r="L192" s="61"/>
+      <c r="M192" s="61"/>
+      <c r="N192" s="61"/>
+      <c r="O192" s="61"/>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="13">
@@ -4868,13 +4871,13 @@
       <c r="F193" s="16"/>
       <c r="G193" s="17"/>
       <c r="H193" s="14"/>
-      <c r="I193" s="17"/>
-      <c r="J193" s="17"/>
-      <c r="K193" s="17"/>
-      <c r="L193" s="17"/>
-      <c r="M193" s="17"/>
-      <c r="N193" s="17"/>
-      <c r="O193" s="17"/>
+      <c r="I193" s="61"/>
+      <c r="J193" s="61"/>
+      <c r="K193" s="61"/>
+      <c r="L193" s="61"/>
+      <c r="M193" s="61"/>
+      <c r="N193" s="61"/>
+      <c r="O193" s="61"/>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
@@ -4887,13 +4890,13 @@
       <c r="F194" s="16"/>
       <c r="G194" s="17"/>
       <c r="H194" s="14"/>
-      <c r="I194" s="17"/>
-      <c r="J194" s="17"/>
-      <c r="K194" s="17"/>
-      <c r="L194" s="17"/>
-      <c r="M194" s="17"/>
-      <c r="N194" s="17"/>
-      <c r="O194" s="17"/>
+      <c r="I194" s="61"/>
+      <c r="J194" s="61"/>
+      <c r="K194" s="61"/>
+      <c r="L194" s="61"/>
+      <c r="M194" s="61"/>
+      <c r="N194" s="61"/>
+      <c r="O194" s="61"/>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="13">
@@ -4906,13 +4909,13 @@
       <c r="F195" s="16"/>
       <c r="G195" s="17"/>
       <c r="H195" s="14"/>
-      <c r="I195" s="17"/>
-      <c r="J195" s="17"/>
-      <c r="K195" s="17"/>
-      <c r="L195" s="17"/>
-      <c r="M195" s="17"/>
-      <c r="N195" s="17"/>
-      <c r="O195" s="17"/>
+      <c r="I195" s="61"/>
+      <c r="J195" s="61"/>
+      <c r="K195" s="61"/>
+      <c r="L195" s="61"/>
+      <c r="M195" s="61"/>
+      <c r="N195" s="61"/>
+      <c r="O195" s="61"/>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="13">
@@ -4925,13 +4928,13 @@
       <c r="F196" s="16"/>
       <c r="G196" s="17"/>
       <c r="H196" s="14"/>
-      <c r="I196" s="17"/>
-      <c r="J196" s="17"/>
-      <c r="K196" s="17"/>
-      <c r="L196" s="17"/>
-      <c r="M196" s="17"/>
-      <c r="N196" s="17"/>
-      <c r="O196" s="17"/>
+      <c r="I196" s="61"/>
+      <c r="J196" s="61"/>
+      <c r="K196" s="61"/>
+      <c r="L196" s="61"/>
+      <c r="M196" s="61"/>
+      <c r="N196" s="61"/>
+      <c r="O196" s="61"/>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="13">
@@ -4944,13 +4947,13 @@
       <c r="F197" s="16"/>
       <c r="G197" s="17"/>
       <c r="H197" s="14"/>
-      <c r="I197" s="17"/>
-      <c r="J197" s="17"/>
-      <c r="K197" s="17"/>
-      <c r="L197" s="17"/>
-      <c r="M197" s="17"/>
-      <c r="N197" s="17"/>
-      <c r="O197" s="17"/>
+      <c r="I197" s="61"/>
+      <c r="J197" s="61"/>
+      <c r="K197" s="61"/>
+      <c r="L197" s="61"/>
+      <c r="M197" s="61"/>
+      <c r="N197" s="61"/>
+      <c r="O197" s="61"/>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="13">
@@ -4963,13 +4966,13 @@
       <c r="F198" s="16"/>
       <c r="G198" s="17"/>
       <c r="H198" s="14"/>
-      <c r="I198" s="17"/>
-      <c r="J198" s="17"/>
-      <c r="K198" s="17"/>
-      <c r="L198" s="17"/>
-      <c r="M198" s="17"/>
-      <c r="N198" s="17"/>
-      <c r="O198" s="17"/>
+      <c r="I198" s="61"/>
+      <c r="J198" s="61"/>
+      <c r="K198" s="61"/>
+      <c r="L198" s="61"/>
+      <c r="M198" s="61"/>
+      <c r="N198" s="61"/>
+      <c r="O198" s="61"/>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="13">
@@ -4982,13 +4985,13 @@
       <c r="F199" s="16"/>
       <c r="G199" s="17"/>
       <c r="H199" s="14"/>
-      <c r="I199" s="17"/>
-      <c r="J199" s="17"/>
-      <c r="K199" s="17"/>
-      <c r="L199" s="17"/>
-      <c r="M199" s="17"/>
-      <c r="N199" s="17"/>
-      <c r="O199" s="17"/>
+      <c r="I199" s="61"/>
+      <c r="J199" s="61"/>
+      <c r="K199" s="61"/>
+      <c r="L199" s="61"/>
+      <c r="M199" s="61"/>
+      <c r="N199" s="61"/>
+      <c r="O199" s="61"/>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="13">
@@ -5001,13 +5004,13 @@
       <c r="F200" s="16"/>
       <c r="G200" s="17"/>
       <c r="H200" s="14"/>
-      <c r="I200" s="17"/>
-      <c r="J200" s="17"/>
-      <c r="K200" s="17"/>
-      <c r="L200" s="17"/>
-      <c r="M200" s="17"/>
-      <c r="N200" s="17"/>
-      <c r="O200" s="17"/>
+      <c r="I200" s="61"/>
+      <c r="J200" s="61"/>
+      <c r="K200" s="61"/>
+      <c r="L200" s="61"/>
+      <c r="M200" s="61"/>
+      <c r="N200" s="61"/>
+      <c r="O200" s="61"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="13">
@@ -5020,13 +5023,13 @@
       <c r="F201" s="16"/>
       <c r="G201" s="17"/>
       <c r="H201" s="14"/>
-      <c r="I201" s="17"/>
-      <c r="J201" s="17"/>
-      <c r="K201" s="17"/>
-      <c r="L201" s="17"/>
-      <c r="M201" s="17"/>
-      <c r="N201" s="17"/>
-      <c r="O201" s="17"/>
+      <c r="I201" s="61"/>
+      <c r="J201" s="61"/>
+      <c r="K201" s="61"/>
+      <c r="L201" s="61"/>
+      <c r="M201" s="61"/>
+      <c r="N201" s="61"/>
+      <c r="O201" s="61"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="13">
@@ -5039,13 +5042,13 @@
       <c r="F202" s="16"/>
       <c r="G202" s="17"/>
       <c r="H202" s="14"/>
-      <c r="I202" s="17"/>
-      <c r="J202" s="17"/>
-      <c r="K202" s="17"/>
-      <c r="L202" s="17"/>
-      <c r="M202" s="17"/>
-      <c r="N202" s="17"/>
-      <c r="O202" s="17"/>
+      <c r="I202" s="61"/>
+      <c r="J202" s="61"/>
+      <c r="K202" s="61"/>
+      <c r="L202" s="61"/>
+      <c r="M202" s="61"/>
+      <c r="N202" s="61"/>
+      <c r="O202" s="61"/>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="13">
@@ -5058,13 +5061,13 @@
       <c r="F203" s="16"/>
       <c r="G203" s="17"/>
       <c r="H203" s="14"/>
-      <c r="I203" s="17"/>
-      <c r="J203" s="17"/>
-      <c r="K203" s="17"/>
-      <c r="L203" s="17"/>
-      <c r="M203" s="17"/>
-      <c r="N203" s="17"/>
-      <c r="O203" s="17"/>
+      <c r="I203" s="61"/>
+      <c r="J203" s="61"/>
+      <c r="K203" s="61"/>
+      <c r="L203" s="61"/>
+      <c r="M203" s="61"/>
+      <c r="N203" s="61"/>
+      <c r="O203" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
